--- a/catalogo_produtos.xlsx
+++ b/catalogo_produtos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio.silva\Documents\GitHub\catalogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB321C94-F678-4E49-A077-4EF031830764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038413B8-E4F8-4126-B1D8-7DC6D12EE948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9FDC799A-A518-4814-A51D-97AF7748B86C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="1069">
   <si>
     <t>Codigo</t>
   </si>
@@ -3220,6 +3220,24 @@
   </si>
   <si>
     <t>IMPORTADOS</t>
+  </si>
+  <si>
+    <t>Commodities</t>
+  </si>
+  <si>
+    <t>Congelados</t>
+  </si>
+  <si>
+    <t>Resfriados</t>
+  </si>
+  <si>
+    <t>Mercearia</t>
+  </si>
+  <si>
+    <t>Bebidas</t>
+  </si>
+  <si>
+    <t>Bazar</t>
   </si>
 </sst>
 </file>
@@ -3309,23 +3327,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="89">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3333,686 +3335,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -30336,7 +29658,7 @@
   <dimension ref="A1:K4642"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F11:F12"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30375,7 +29697,7 @@
         <v>229</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E2" s="3">
         <f>IFERROR(VLOOKUP(A2,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30402,7 +29724,7 @@
         <v>345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E3" s="3">
         <f>IFERROR(VLOOKUP(A3,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30429,7 +29751,7 @@
         <v>180</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E4" s="3">
         <f>IFERROR(VLOOKUP(A4,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30456,7 +29778,7 @@
         <v>346</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E5" s="3">
         <f>IFERROR(VLOOKUP(A5,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30483,7 +29805,7 @@
         <v>247</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E6" s="3">
         <f>IFERROR(VLOOKUP(A6,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30510,7 +29832,7 @@
         <v>169</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E7" s="3">
         <f>IFERROR(VLOOKUP(A7,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30537,7 +29859,7 @@
         <v>432</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E8" s="3">
         <f>IFERROR(VLOOKUP(A8,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30564,7 +29886,7 @@
         <v>171</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E9" s="3">
         <f>IFERROR(VLOOKUP(A9,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30585,7 +29907,7 @@
         <v>244</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E10" s="3">
         <f>IFERROR(VLOOKUP(A10,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30606,7 +29928,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E11" s="3">
         <f>IFERROR(VLOOKUP(A11,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30627,7 +29949,7 @@
         <v>167</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E12" s="3">
         <f>IFERROR(VLOOKUP(A12,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30648,7 +29970,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E13" s="3">
         <f>IFERROR(VLOOKUP(A13,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30669,7 +29991,7 @@
         <v>75</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E14" s="3">
         <f>IFERROR(VLOOKUP(A14,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30690,7 +30012,7 @@
         <v>431</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E15" s="3">
         <f>IFERROR(VLOOKUP(A15,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30711,7 +30033,7 @@
         <v>181</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E16" s="3">
         <f>IFERROR(VLOOKUP(A16,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30732,7 +30054,7 @@
         <v>76</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E17" s="3">
         <f>IFERROR(VLOOKUP(A17,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30753,7 +30075,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E18" s="3">
         <f>IFERROR(VLOOKUP(A18,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30775,7 +30097,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E19" s="3">
         <f>IFERROR(VLOOKUP(A19,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30797,7 +30119,7 @@
         <v>240</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E20" s="3">
         <f>IFERROR(VLOOKUP(A20,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30819,7 +30141,7 @@
         <v>261</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E21" s="3">
         <f>IFERROR(VLOOKUP(A21,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30841,7 +30163,7 @@
         <v>184</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E22" s="3">
         <f>IFERROR(VLOOKUP(A22,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30863,7 +30185,7 @@
         <v>344</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E23" s="3">
         <f>IFERROR(VLOOKUP(A23,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30885,7 +30207,7 @@
         <v>262</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E24" s="3">
         <f>IFERROR(VLOOKUP(A24,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30907,7 +30229,7 @@
         <v>29</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E25" s="3">
         <f>IFERROR(VLOOKUP(A25,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30929,7 +30251,7 @@
         <v>248</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E26" s="3">
         <f>IFERROR(VLOOKUP(A26,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30951,7 +30273,7 @@
         <v>168</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E27" s="3">
         <f>IFERROR(VLOOKUP(A27,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30973,7 +30295,7 @@
         <v>170</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E28" s="3">
         <f>IFERROR(VLOOKUP(A28,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30995,7 +30317,7 @@
         <v>30</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E29" s="3">
         <f>IFERROR(VLOOKUP(A29,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31017,7 +30339,7 @@
         <v>257</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E30" s="3">
         <f>IFERROR(VLOOKUP(A30,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31039,7 +30361,7 @@
         <v>186</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E31" s="3">
         <f>IFERROR(VLOOKUP(A31,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31061,7 +30383,7 @@
         <v>259</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E32" s="3">
         <f>IFERROR(VLOOKUP(A32,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31083,7 +30405,7 @@
         <v>256</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E33" s="3">
         <f>IFERROR(VLOOKUP(A33,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31105,7 +30427,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E34" s="3">
         <f>IFERROR(VLOOKUP(A34,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31127,7 +30449,7 @@
         <v>254</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E35" s="3">
         <f>IFERROR(VLOOKUP(A35,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31149,7 +30471,7 @@
         <v>246</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E36" s="3">
         <f>IFERROR(VLOOKUP(A36,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31171,7 +30493,7 @@
         <v>166</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E37" s="3">
         <f>IFERROR(VLOOKUP(A37,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31193,7 +30515,7 @@
         <v>78</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E38" s="3">
         <f>IFERROR(VLOOKUP(A38,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31215,7 +30537,7 @@
         <v>31</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E39" s="3">
         <f>IFERROR(VLOOKUP(A39,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31237,7 +30559,7 @@
         <v>27</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E40" s="3">
         <f>IFERROR(VLOOKUP(A40,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31259,7 +30581,7 @@
         <v>179</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E41" s="3">
         <f>IFERROR(VLOOKUP(A41,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31281,7 +30603,7 @@
         <v>239</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E42" s="3">
         <f>IFERROR(VLOOKUP(A42,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31303,7 +30625,7 @@
         <v>77</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E43" s="3">
         <f>IFERROR(VLOOKUP(A43,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31325,7 +30647,7 @@
         <v>178</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E44" s="3">
         <f>IFERROR(VLOOKUP(A44,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31347,7 +30669,7 @@
         <v>172</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E45" s="3">
         <f>IFERROR(VLOOKUP(A45,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31369,7 +30691,7 @@
         <v>176</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E46" s="3">
         <f>IFERROR(VLOOKUP(A46,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31391,7 +30713,7 @@
         <v>347</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E47" s="3">
         <f>IFERROR(VLOOKUP(A47,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31413,7 +30735,7 @@
         <v>185</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E48" s="3">
         <f>IFERROR(VLOOKUP(A48,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31435,7 +30757,7 @@
         <v>252</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E49" s="3">
         <f>IFERROR(VLOOKUP(A49,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31457,7 +30779,7 @@
         <v>243</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E50" s="3">
         <f>IFERROR(VLOOKUP(A50,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31479,7 +30801,7 @@
         <v>26</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E51" s="3">
         <f>IFERROR(VLOOKUP(A51,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31501,7 +30823,7 @@
         <v>253</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E52" s="3">
         <f>IFERROR(VLOOKUP(A52,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31523,7 +30845,7 @@
         <v>343</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E53" s="3">
         <f>IFERROR(VLOOKUP(A53,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31545,7 +30867,7 @@
         <v>242</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E54" s="3">
         <f>IFERROR(VLOOKUP(A54,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31567,7 +30889,7 @@
         <v>245</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E55" s="3">
         <f>IFERROR(VLOOKUP(A55,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31589,7 +30911,7 @@
         <v>258</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E56" s="3">
         <f>IFERROR(VLOOKUP(A56,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31611,7 +30933,7 @@
         <v>249</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E57" s="3">
         <f>IFERROR(VLOOKUP(A57,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31633,7 +30955,7 @@
         <v>163</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E58" s="3">
         <f>IFERROR(VLOOKUP(A58,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31655,7 +30977,7 @@
         <v>238</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E59" s="3">
         <f>IFERROR(VLOOKUP(A59,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31677,7 +30999,7 @@
         <v>183</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E60" s="3">
         <f>IFERROR(VLOOKUP(A60,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31699,7 +31021,7 @@
         <v>187</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E61" s="3">
         <f>IFERROR(VLOOKUP(A61,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31721,7 +31043,7 @@
         <v>251</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E62" s="3">
         <f>IFERROR(VLOOKUP(A62,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31743,7 +31065,7 @@
         <v>177</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E63" s="3">
         <f>IFERROR(VLOOKUP(A63,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31765,7 +31087,7 @@
         <v>260</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E64" s="3">
         <f>IFERROR(VLOOKUP(A64,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31787,7 +31109,7 @@
         <v>1033</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E65" s="3">
         <f>IFERROR(VLOOKUP(A65,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31809,7 +31131,7 @@
         <v>28</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E66" s="3">
         <f>IFERROR(VLOOKUP(A66,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31831,7 +31153,7 @@
         <v>430</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E67" s="3">
         <f>IFERROR(VLOOKUP(A67,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31853,7 +31175,7 @@
         <v>250</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E68" s="3">
         <f>IFERROR(VLOOKUP(A68,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31875,7 +31197,7 @@
         <v>34</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E69" s="3">
         <f>IFERROR(VLOOKUP(A69,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31897,7 +31219,7 @@
         <v>255</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E70" s="3">
         <f>IFERROR(VLOOKUP(A70,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31919,7 +31241,7 @@
         <v>241</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E71" s="3">
         <f>IFERROR(VLOOKUP(A71,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31941,7 +31263,7 @@
         <v>182</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E72" s="3">
         <f>IFERROR(VLOOKUP(A72,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31963,7 +31285,7 @@
         <v>429</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E73" s="3">
         <f>IFERROR(VLOOKUP(A73,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31985,7 +31307,7 @@
         <v>1036</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E74" s="3">
         <f>IFERROR(VLOOKUP(A74,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32007,7 +31329,7 @@
         <v>1039</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E75" s="3">
         <f>IFERROR(VLOOKUP(A75,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32029,7 +31351,7 @@
         <v>1035</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E76" s="3">
         <f>IFERROR(VLOOKUP(A76,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32051,7 +31373,7 @@
         <v>1037</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="E77" s="3">
         <f>IFERROR(VLOOKUP(A77,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32073,7 +31395,7 @@
         <v>57</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E78" s="3">
         <f>IFERROR(VLOOKUP(A78,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32095,7 +31417,7 @@
         <v>56</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E79" s="3">
         <f>IFERROR(VLOOKUP(A79,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32117,7 +31439,7 @@
         <v>1032</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E80" s="3">
         <f>IFERROR(VLOOKUP(A80,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32139,7 +31461,7 @@
         <v>191</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E81" s="3">
         <f>IFERROR(VLOOKUP(A81,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32161,7 +31483,7 @@
         <v>61</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E82" s="3">
         <f>IFERROR(VLOOKUP(A82,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32183,7 +31505,7 @@
         <v>1031</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E83" s="3">
         <f>IFERROR(VLOOKUP(A83,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32205,7 +31527,7 @@
         <v>190</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E84" s="3">
         <f>IFERROR(VLOOKUP(A84,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32227,7 +31549,7 @@
         <v>113</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E85" s="3">
         <f>IFERROR(VLOOKUP(A85,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32249,7 +31571,7 @@
         <v>62</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E86" s="3">
         <f>IFERROR(VLOOKUP(A86,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32271,7 +31593,7 @@
         <v>112</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E87" s="3">
         <f>IFERROR(VLOOKUP(A87,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32293,7 +31615,7 @@
         <v>58</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E88" s="3">
         <f>IFERROR(VLOOKUP(A88,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32315,7 +31637,7 @@
         <v>372</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E89" s="3">
         <f>IFERROR(VLOOKUP(A89,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32337,7 +31659,7 @@
         <v>434</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E90" s="3">
         <f>IFERROR(VLOOKUP(A90,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32359,7 +31681,7 @@
         <v>22</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E91" s="3">
         <f>IFERROR(VLOOKUP(A91,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32381,7 +31703,7 @@
         <v>55</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E92" s="3">
         <f>IFERROR(VLOOKUP(A92,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32403,7 +31725,7 @@
         <v>417</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E93" s="3">
         <f>IFERROR(VLOOKUP(A93,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32425,7 +31747,7 @@
         <v>71</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E94" s="3">
         <f>IFERROR(VLOOKUP(A94,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32447,7 +31769,7 @@
         <v>236</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E95" s="3">
         <f>IFERROR(VLOOKUP(A95,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32469,7 +31791,7 @@
         <v>35</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E96" s="3">
         <f>IFERROR(VLOOKUP(A96,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32491,7 +31813,7 @@
         <v>74</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E97" s="3">
         <f>IFERROR(VLOOKUP(A97,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32513,7 +31835,7 @@
         <v>64</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E98" s="3">
         <f>IFERROR(VLOOKUP(A98,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32535,7 +31857,7 @@
         <v>188</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E99" s="3">
         <f>IFERROR(VLOOKUP(A99,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32557,7 +31879,7 @@
         <v>63</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E100" s="3">
         <f>IFERROR(VLOOKUP(A100,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32579,7 +31901,7 @@
         <v>189</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E101" s="3">
         <f>IFERROR(VLOOKUP(A101,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32601,7 +31923,7 @@
         <v>193</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E102" s="3">
         <f>IFERROR(VLOOKUP(A102,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32623,7 +31945,7 @@
         <v>111</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E103" s="3">
         <f>IFERROR(VLOOKUP(A103,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32645,7 +31967,7 @@
         <v>60</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E104" s="3">
         <f>IFERROR(VLOOKUP(A104,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32667,7 +31989,7 @@
         <v>23</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E105" s="3">
         <f>IFERROR(VLOOKUP(A105,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32689,7 +32011,7 @@
         <v>66</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E106" s="3">
         <f>IFERROR(VLOOKUP(A106,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32711,7 +32033,7 @@
         <v>73</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E107" s="3">
         <f>IFERROR(VLOOKUP(A107,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32733,7 +32055,7 @@
         <v>115</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E108" s="3">
         <f>IFERROR(VLOOKUP(A108,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32755,7 +32077,7 @@
         <v>210</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E109" s="3">
         <f>IFERROR(VLOOKUP(A109,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32777,7 +32099,7 @@
         <v>114</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E110" s="3">
         <f>IFERROR(VLOOKUP(A110,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32799,7 +32121,7 @@
         <v>433</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E111" s="3">
         <f>IFERROR(VLOOKUP(A111,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32821,7 +32143,7 @@
         <v>59</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E112" s="3">
         <f>IFERROR(VLOOKUP(A112,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32843,7 +32165,7 @@
         <v>65</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E113" s="3">
         <f>IFERROR(VLOOKUP(A113,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32865,7 +32187,7 @@
         <v>357</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E114" s="3">
         <f>IFERROR(VLOOKUP(A114,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32887,7 +32209,7 @@
         <v>237</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E115" s="3">
         <f>IFERROR(VLOOKUP(A115,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32909,7 +32231,7 @@
         <v>192</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E116" s="3">
         <f>IFERROR(VLOOKUP(A116,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32931,7 +32253,7 @@
         <v>1040</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E117" s="3">
         <f>IFERROR(VLOOKUP(A117,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32953,7 +32275,7 @@
         <v>1034</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E118" s="3">
         <f>IFERROR(VLOOKUP(A118,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32975,7 +32297,7 @@
         <v>1043</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E119" s="3">
         <f>IFERROR(VLOOKUP(A119,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32997,7 +32319,7 @@
         <v>1038</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E120" s="3">
         <f>IFERROR(VLOOKUP(A120,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33019,7 +32341,7 @@
         <v>1056</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>998</v>
+        <v>1064</v>
       </c>
       <c r="E121" s="3">
         <f>IFERROR(VLOOKUP(A121,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33041,7 +32363,7 @@
         <v>382</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E122" s="3">
         <f>IFERROR(VLOOKUP(A122,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33063,7 +32385,7 @@
         <v>24</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E123" s="3">
         <f>IFERROR(VLOOKUP(A123,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33085,7 +32407,7 @@
         <v>271</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E124" s="3">
         <f>IFERROR(VLOOKUP(A124,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33107,7 +32429,7 @@
         <v>383</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E125" s="3">
         <f>IFERROR(VLOOKUP(A125,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33129,7 +32451,7 @@
         <v>117</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E126" s="3">
         <f>IFERROR(VLOOKUP(A126,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33151,7 +32473,7 @@
         <v>1061</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E127" s="3">
         <f>IFERROR(VLOOKUP(A127,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33173,7 +32495,7 @@
         <v>384</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E128" s="3">
         <f>IFERROR(VLOOKUP(A128,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33195,7 +32517,7 @@
         <v>234</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E129" s="3">
         <f>IFERROR(VLOOKUP(A129,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33217,7 +32539,7 @@
         <v>416</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E130" s="3">
         <f>IFERROR(VLOOKUP(A130,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33239,7 +32561,7 @@
         <v>415</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E131" s="3">
         <f>IFERROR(VLOOKUP(A131,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33261,7 +32583,7 @@
         <v>380</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E132" s="3">
         <f>IFERROR(VLOOKUP(A132,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33283,7 +32605,7 @@
         <v>413</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E133" s="3">
         <f>IFERROR(VLOOKUP(A133,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33305,7 +32627,7 @@
         <v>25</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E134" s="3">
         <f>IFERROR(VLOOKUP(A134,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33327,7 +32649,7 @@
         <v>385</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E135" s="3">
         <f>IFERROR(VLOOKUP(A135,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33349,7 +32671,7 @@
         <v>49</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E136" s="3">
         <f>IFERROR(VLOOKUP(A136,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33371,7 +32693,7 @@
         <v>378</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E137" s="3">
         <f>IFERROR(VLOOKUP(A137,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33393,7 +32715,7 @@
         <v>283</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E138" s="3">
         <f>IFERROR(VLOOKUP(A138,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33415,7 +32737,7 @@
         <v>285</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E139" s="3">
         <f>IFERROR(VLOOKUP(A139,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33437,7 +32759,7 @@
         <v>48</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E140" s="3">
         <f>IFERROR(VLOOKUP(A140,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33459,7 +32781,7 @@
         <v>1050</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E141" s="3">
         <f>IFERROR(VLOOKUP(A141,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33481,7 +32803,7 @@
         <v>282</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E142" s="3">
         <f>IFERROR(VLOOKUP(A142,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33503,7 +32825,7 @@
         <v>235</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E143" s="3">
         <f>IFERROR(VLOOKUP(A143,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33525,7 +32847,7 @@
         <v>116</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E144" s="3">
         <f>IFERROR(VLOOKUP(A144,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33547,7 +32869,7 @@
         <v>371</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E145" s="3">
         <f>IFERROR(VLOOKUP(A145,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33569,7 +32891,7 @@
         <v>414</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>999</v>
+        <v>1065</v>
       </c>
       <c r="E146" s="3">
         <f>IFERROR(VLOOKUP(A146,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33591,7 +32913,7 @@
         <v>139</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E147" s="3">
         <f>IFERROR(VLOOKUP(A147,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33613,7 +32935,7 @@
         <v>136</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E148" s="3">
         <f>IFERROR(VLOOKUP(A148,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33635,7 +32957,7 @@
         <v>219</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E149" s="3">
         <f>IFERROR(VLOOKUP(A149,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33657,7 +32979,7 @@
         <v>124</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E150" s="3">
         <f>IFERROR(VLOOKUP(A150,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33679,7 +33001,7 @@
         <v>11</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E151" s="3">
         <f>IFERROR(VLOOKUP(A151,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33701,7 +33023,7 @@
         <v>125</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E152" s="3">
         <f>IFERROR(VLOOKUP(A152,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33723,7 +33045,7 @@
         <v>342</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E153" s="3">
         <f>IFERROR(VLOOKUP(A153,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33745,7 +33067,7 @@
         <v>160</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E154" s="3">
         <f>IFERROR(VLOOKUP(A154,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33767,7 +33089,7 @@
         <v>231</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E155" s="3">
         <f>IFERROR(VLOOKUP(A155,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33789,7 +33111,7 @@
         <v>218</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E156" s="3">
         <f>IFERROR(VLOOKUP(A156,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33811,7 +33133,7 @@
         <v>311</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E157" s="3">
         <f>IFERROR(VLOOKUP(A157,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33833,7 +33155,7 @@
         <v>312</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E158" s="3">
         <f>IFERROR(VLOOKUP(A158,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33855,7 +33177,7 @@
         <v>123</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E159" s="3">
         <f>IFERROR(VLOOKUP(A159,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33877,7 +33199,7 @@
         <v>230</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E160" s="3">
         <f>IFERROR(VLOOKUP(A160,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33899,7 +33221,7 @@
         <v>466</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E161" s="3">
         <f>IFERROR(VLOOKUP(A161,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33921,7 +33243,7 @@
         <v>17</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E162" s="3">
         <f>IFERROR(VLOOKUP(A162,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33943,7 +33265,7 @@
         <v>310</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E163" s="3">
         <f>IFERROR(VLOOKUP(A163,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33965,7 +33287,7 @@
         <v>221</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E164" s="3">
         <f>IFERROR(VLOOKUP(A164,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33987,7 +33309,7 @@
         <v>141</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E165" s="3">
         <f>IFERROR(VLOOKUP(A165,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34009,7 +33331,7 @@
         <v>127</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E166" s="3">
         <f>IFERROR(VLOOKUP(A166,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34031,7 +33353,7 @@
         <v>165</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E167" s="3">
         <f>IFERROR(VLOOKUP(A167,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34053,7 +33375,7 @@
         <v>135</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E168" s="3">
         <f>IFERROR(VLOOKUP(A168,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34075,7 +33397,7 @@
         <v>281</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E169" s="3">
         <f>IFERROR(VLOOKUP(A169,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34097,7 +33419,7 @@
         <v>138</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E170" s="3">
         <f>IFERROR(VLOOKUP(A170,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34119,7 +33441,7 @@
         <v>159</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E171" s="3">
         <f>IFERROR(VLOOKUP(A171,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34141,7 +33463,7 @@
         <v>279</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E172" s="3">
         <f>IFERROR(VLOOKUP(A172,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34163,7 +33485,7 @@
         <v>109</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E173" s="3">
         <f>IFERROR(VLOOKUP(A173,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34185,7 +33507,7 @@
         <v>369</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E174" s="3">
         <f>IFERROR(VLOOKUP(A174,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34207,7 +33529,7 @@
         <v>137</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E175" s="3">
         <f>IFERROR(VLOOKUP(A175,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34229,7 +33551,7 @@
         <v>270</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E176" s="3">
         <f>IFERROR(VLOOKUP(A176,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34251,7 +33573,7 @@
         <v>220</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E177" s="3">
         <f>IFERROR(VLOOKUP(A177,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34273,7 +33595,7 @@
         <v>1047</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E178" s="3">
         <f>IFERROR(VLOOKUP(A178,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34295,7 +33617,7 @@
         <v>421</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E179" s="3">
         <f>IFERROR(VLOOKUP(A179,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34317,7 +33639,7 @@
         <v>161</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E180" s="3">
         <f>IFERROR(VLOOKUP(A180,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34339,7 +33661,7 @@
         <v>367</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E181" s="3">
         <f>IFERROR(VLOOKUP(A181,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34361,7 +33683,7 @@
         <v>120</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E182" s="3">
         <f>IFERROR(VLOOKUP(A182,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34383,7 +33705,7 @@
         <v>202</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E183" s="3">
         <f>IFERROR(VLOOKUP(A183,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34405,7 +33727,7 @@
         <v>70</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E184" s="3">
         <f>IFERROR(VLOOKUP(A184,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34427,7 +33749,7 @@
         <v>309</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E185" s="3">
         <f>IFERROR(VLOOKUP(A185,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34449,7 +33771,7 @@
         <v>213</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E186" s="3">
         <f>IFERROR(VLOOKUP(A186,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34471,7 +33793,7 @@
         <v>333</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E187" s="3">
         <f>IFERROR(VLOOKUP(A187,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34493,7 +33815,7 @@
         <v>13</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E188" s="3">
         <f>IFERROR(VLOOKUP(A188,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34515,7 +33837,7 @@
         <v>122</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E189" s="3">
         <f>IFERROR(VLOOKUP(A189,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34537,7 +33859,7 @@
         <v>280</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E190" s="3">
         <f>IFERROR(VLOOKUP(A190,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34559,7 +33881,7 @@
         <v>263</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E191" s="3">
         <f>IFERROR(VLOOKUP(A191,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34581,7 +33903,7 @@
         <v>103</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E192" s="3">
         <f>IFERROR(VLOOKUP(A192,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34603,7 +33925,7 @@
         <v>16</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E193" s="3">
         <f>IFERROR(VLOOKUP(A193,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34625,7 +33947,7 @@
         <v>164</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E194" s="3">
         <f>IFERROR(VLOOKUP(A194,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34647,7 +33969,7 @@
         <v>233</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E195" s="3">
         <f>IFERROR(VLOOKUP(A195,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34669,7 +33991,7 @@
         <v>158</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E196" s="3">
         <f>IFERROR(VLOOKUP(A196,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34691,7 +34013,7 @@
         <v>79</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E197" s="3">
         <f>IFERROR(VLOOKUP(A197,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34713,7 +34035,7 @@
         <v>287</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E198" s="3">
         <f>IFERROR(VLOOKUP(A198,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34735,7 +34057,7 @@
         <v>12</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E199" s="3">
         <f>IFERROR(VLOOKUP(A199,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34757,7 +34079,7 @@
         <v>463</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E200" s="3">
         <f>IFERROR(VLOOKUP(A200,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34779,7 +34101,7 @@
         <v>45</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E201" s="3">
         <f>IFERROR(VLOOKUP(A201,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34801,7 +34123,7 @@
         <v>361</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E202" s="3">
         <f>IFERROR(VLOOKUP(A202,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34823,7 +34145,7 @@
         <v>94</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E203" s="3">
         <f>IFERROR(VLOOKUP(A203,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34845,7 +34167,7 @@
         <v>39</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E204" s="3">
         <f>IFERROR(VLOOKUP(A204,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34867,7 +34189,7 @@
         <v>340</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E205" s="3">
         <f>IFERROR(VLOOKUP(A205,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34889,7 +34211,7 @@
         <v>327</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E206" s="3">
         <f>IFERROR(VLOOKUP(A206,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34911,7 +34233,7 @@
         <v>265</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E207" s="3">
         <f>IFERROR(VLOOKUP(A207,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34933,7 +34255,7 @@
         <v>126</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E208" s="3">
         <f>IFERROR(VLOOKUP(A208,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34955,7 +34277,7 @@
         <v>95</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E209" s="3">
         <f>IFERROR(VLOOKUP(A209,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34977,7 +34299,7 @@
         <v>232</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E210" s="3">
         <f>IFERROR(VLOOKUP(A210,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34999,7 +34321,7 @@
         <v>264</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E211" s="3">
         <f>IFERROR(VLOOKUP(A211,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35021,7 +34343,7 @@
         <v>140</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E212" s="3">
         <f>IFERROR(VLOOKUP(A212,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35043,7 +34365,7 @@
         <v>119</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E213" s="3">
         <f>IFERROR(VLOOKUP(A213,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35065,7 +34387,7 @@
         <v>295</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E214" s="3">
         <f>IFERROR(VLOOKUP(A214,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35087,7 +34409,7 @@
         <v>331</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E215" s="3">
         <f>IFERROR(VLOOKUP(A215,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35109,7 +34431,7 @@
         <v>462</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E216" s="3">
         <f>IFERROR(VLOOKUP(A216,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35131,7 +34453,7 @@
         <v>308</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E217" s="3">
         <f>IFERROR(VLOOKUP(A217,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35153,7 +34475,7 @@
         <v>307</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E218" s="3">
         <f>IFERROR(VLOOKUP(A218,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35175,7 +34497,7 @@
         <v>353</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E219" s="3">
         <f>IFERROR(VLOOKUP(A219,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35197,7 +34519,7 @@
         <v>457</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E220" s="3">
         <f>IFERROR(VLOOKUP(A220,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35219,7 +34541,7 @@
         <v>338</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E221" s="3">
         <f>IFERROR(VLOOKUP(A221,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35241,7 +34563,7 @@
         <v>156</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E222" s="3">
         <f>IFERROR(VLOOKUP(A222,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35263,7 +34585,7 @@
         <v>326</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E223" s="3">
         <f>IFERROR(VLOOKUP(A223,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35285,7 +34607,7 @@
         <v>459</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E224" s="3">
         <f>IFERROR(VLOOKUP(A224,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35307,7 +34629,7 @@
         <v>301</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E225" s="3">
         <f>IFERROR(VLOOKUP(A225,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35329,7 +34651,7 @@
         <v>296</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E226" s="3">
         <f>IFERROR(VLOOKUP(A226,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35351,7 +34673,7 @@
         <v>128</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E227" s="3">
         <f>IFERROR(VLOOKUP(A227,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35373,7 +34695,7 @@
         <v>212</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E228" s="3">
         <f>IFERROR(VLOOKUP(A228,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35395,7 +34717,7 @@
         <v>465</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E229" s="3">
         <f>IFERROR(VLOOKUP(A229,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35417,7 +34739,7 @@
         <v>47</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E230" s="3">
         <f>IFERROR(VLOOKUP(A230,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35439,7 +34761,7 @@
         <v>330</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E231" s="3">
         <f>IFERROR(VLOOKUP(A231,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35461,7 +34783,7 @@
         <v>97</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E232" s="3">
         <f>IFERROR(VLOOKUP(A232,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35483,7 +34805,7 @@
         <v>69</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E233" s="3">
         <f>IFERROR(VLOOKUP(A233,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35505,7 +34827,7 @@
         <v>106</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E234" s="3">
         <f>IFERROR(VLOOKUP(A234,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35527,7 +34849,7 @@
         <v>355</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E235" s="3">
         <f>IFERROR(VLOOKUP(A235,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35549,7 +34871,7 @@
         <v>211</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E236" s="3">
         <f>IFERROR(VLOOKUP(A236,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35571,7 +34893,7 @@
         <v>227</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E237" s="3">
         <f>IFERROR(VLOOKUP(A237,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35593,7 +34915,7 @@
         <v>315</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E238" s="3">
         <f>IFERROR(VLOOKUP(A238,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35615,7 +34937,7 @@
         <v>354</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E239" s="3">
         <f>IFERROR(VLOOKUP(A239,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35637,7 +34959,7 @@
         <v>129</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E240" s="3">
         <f>IFERROR(VLOOKUP(A240,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35659,7 +34981,7 @@
         <v>20</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E241" s="3">
         <f>IFERROR(VLOOKUP(A241,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35681,7 +35003,7 @@
         <v>19</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E242" s="3">
         <f>IFERROR(VLOOKUP(A242,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35703,7 +35025,7 @@
         <v>216</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E243" s="3">
         <f>IFERROR(VLOOKUP(A243,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35725,7 +35047,7 @@
         <v>43</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E244" s="3">
         <f>IFERROR(VLOOKUP(A244,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35747,7 +35069,7 @@
         <v>44</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E245" s="3">
         <f>IFERROR(VLOOKUP(A245,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35769,7 +35091,7 @@
         <v>467</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E246" s="3">
         <f>IFERROR(VLOOKUP(A246,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35791,7 +35113,7 @@
         <v>452</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E247" s="3">
         <f>IFERROR(VLOOKUP(A247,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35813,7 +35135,7 @@
         <v>325</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E248" s="3">
         <f>IFERROR(VLOOKUP(A248,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35835,7 +35157,7 @@
         <v>104</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E249" s="3">
         <f>IFERROR(VLOOKUP(A249,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35857,7 +35179,7 @@
         <v>93</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E250" s="3">
         <f>IFERROR(VLOOKUP(A250,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35879,7 +35201,7 @@
         <v>349</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E251" s="3">
         <f>IFERROR(VLOOKUP(A251,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35901,7 +35223,7 @@
         <v>323</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E252" s="3">
         <f>IFERROR(VLOOKUP(A252,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35923,7 +35245,7 @@
         <v>350</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E253" s="3">
         <f>IFERROR(VLOOKUP(A253,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35945,7 +35267,7 @@
         <v>90</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E254" s="3">
         <f>IFERROR(VLOOKUP(A254,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35967,7 +35289,7 @@
         <v>358</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E255" s="3">
         <f>IFERROR(VLOOKUP(A255,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35989,7 +35311,7 @@
         <v>319</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E256" s="3">
         <f>IFERROR(VLOOKUP(A256,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36011,7 +35333,7 @@
         <v>329</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E257" s="3">
         <f>IFERROR(VLOOKUP(A257,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36033,7 +35355,7 @@
         <v>224</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E258" s="3">
         <f>IFERROR(VLOOKUP(A258,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36055,7 +35377,7 @@
         <v>223</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E259" s="3">
         <f>IFERROR(VLOOKUP(A259,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36077,7 +35399,7 @@
         <v>40</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E260" s="3">
         <f>IFERROR(VLOOKUP(A260,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36099,7 +35421,7 @@
         <v>157</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E261" s="3">
         <f>IFERROR(VLOOKUP(A261,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36121,7 +35443,7 @@
         <v>215</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E262" s="3">
         <f>IFERROR(VLOOKUP(A262,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36143,7 +35465,7 @@
         <v>324</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E263" s="3">
         <f>IFERROR(VLOOKUP(A263,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36165,7 +35487,7 @@
         <v>294</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E264" s="3">
         <f>IFERROR(VLOOKUP(A264,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36187,7 +35509,7 @@
         <v>222</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E265" s="3">
         <f>IFERROR(VLOOKUP(A265,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36209,7 +35531,7 @@
         <v>316</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E266" s="3">
         <f>IFERROR(VLOOKUP(A266,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36231,7 +35553,7 @@
         <v>108</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E267" s="3">
         <f>IFERROR(VLOOKUP(A267,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36253,7 +35575,7 @@
         <v>92</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E268" s="3">
         <f>IFERROR(VLOOKUP(A268,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36275,7 +35597,7 @@
         <v>286</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E269" s="3">
         <f>IFERROR(VLOOKUP(A269,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36297,7 +35619,7 @@
         <v>464</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E270" s="3">
         <f>IFERROR(VLOOKUP(A270,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36319,7 +35641,7 @@
         <v>214</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E271" s="3">
         <f>IFERROR(VLOOKUP(A271,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36341,7 +35663,7 @@
         <v>313</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E272" s="3">
         <f>IFERROR(VLOOKUP(A272,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36363,7 +35685,7 @@
         <v>174</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E273" s="3">
         <f>IFERROR(VLOOKUP(A273,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36385,7 +35707,7 @@
         <v>335</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E274" s="3">
         <f>IFERROR(VLOOKUP(A274,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36407,7 +35729,7 @@
         <v>105</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E275" s="3">
         <f>IFERROR(VLOOKUP(A275,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36429,7 +35751,7 @@
         <v>162</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E276" s="3">
         <f>IFERROR(VLOOKUP(A276,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36451,7 +35773,7 @@
         <v>348</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E277" s="3">
         <f>IFERROR(VLOOKUP(A277,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36473,7 +35795,7 @@
         <v>217</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E278" s="3">
         <f>IFERROR(VLOOKUP(A278,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36495,7 +35817,7 @@
         <v>72</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E279" s="3">
         <f>IFERROR(VLOOKUP(A279,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36517,7 +35839,7 @@
         <v>100</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E280" s="3">
         <f>IFERROR(VLOOKUP(A280,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36539,7 +35861,7 @@
         <v>370</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E281" s="3">
         <f>IFERROR(VLOOKUP(A281,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36561,7 +35883,7 @@
         <v>228</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E282" s="3">
         <f>IFERROR(VLOOKUP(A282,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36583,7 +35905,7 @@
         <v>68</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E283" s="3">
         <f>IFERROR(VLOOKUP(A283,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36605,7 +35927,7 @@
         <v>102</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E284" s="3">
         <f>IFERROR(VLOOKUP(A284,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36627,7 +35949,7 @@
         <v>341</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E285" s="3">
         <f>IFERROR(VLOOKUP(A285,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36649,7 +35971,7 @@
         <v>422</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E286" s="3">
         <f>IFERROR(VLOOKUP(A286,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36671,7 +35993,7 @@
         <v>300</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E287" s="3">
         <f>IFERROR(VLOOKUP(A287,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36693,7 +36015,7 @@
         <v>317</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E288" s="3">
         <f>IFERROR(VLOOKUP(A288,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36715,7 +36037,7 @@
         <v>314</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E289" s="3">
         <f>IFERROR(VLOOKUP(A289,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36737,7 +36059,7 @@
         <v>266</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E290" s="3">
         <f>IFERROR(VLOOKUP(A290,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36759,7 +36081,7 @@
         <v>288</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E291" s="3">
         <f>IFERROR(VLOOKUP(A291,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36781,7 +36103,7 @@
         <v>460</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E292" s="3">
         <f>IFERROR(VLOOKUP(A292,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36803,7 +36125,7 @@
         <v>381</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E293" s="3">
         <f>IFERROR(VLOOKUP(A293,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36825,7 +36147,7 @@
         <v>376</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E294" s="3">
         <f>IFERROR(VLOOKUP(A294,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36847,7 +36169,7 @@
         <v>14</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E295" s="3">
         <f>IFERROR(VLOOKUP(A295,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36869,7 +36191,7 @@
         <v>91</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E296" s="3">
         <f>IFERROR(VLOOKUP(A296,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36891,7 +36213,7 @@
         <v>15</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E297" s="3">
         <f>IFERROR(VLOOKUP(A297,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36913,7 +36235,7 @@
         <v>118</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E298" s="3">
         <f>IFERROR(VLOOKUP(A298,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36935,7 +36257,7 @@
         <v>46</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E299" s="3">
         <f>IFERROR(VLOOKUP(A299,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36957,7 +36279,7 @@
         <v>297</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E300" s="3">
         <f>IFERROR(VLOOKUP(A300,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36979,7 +36301,7 @@
         <v>226</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E301" s="3">
         <f>IFERROR(VLOOKUP(A301,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37001,7 +36323,7 @@
         <v>284</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E302" s="3">
         <f>IFERROR(VLOOKUP(A302,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37023,7 +36345,7 @@
         <v>67</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E303" s="3">
         <f>IFERROR(VLOOKUP(A303,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37045,7 +36367,7 @@
         <v>277</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E304" s="3">
         <f>IFERROR(VLOOKUP(A304,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37067,7 +36389,7 @@
         <v>42</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E305" s="3">
         <f>IFERROR(VLOOKUP(A305,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37089,7 +36411,7 @@
         <v>306</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E306" s="3">
         <f>IFERROR(VLOOKUP(A306,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37111,7 +36433,7 @@
         <v>293</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E307" s="3">
         <f>IFERROR(VLOOKUP(A307,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37133,7 +36455,7 @@
         <v>302</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E308" s="3">
         <f>IFERROR(VLOOKUP(A308,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37155,7 +36477,7 @@
         <v>453</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E309" s="3">
         <f>IFERROR(VLOOKUP(A309,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37177,7 +36499,7 @@
         <v>332</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E310" s="3">
         <f>IFERROR(VLOOKUP(A310,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37199,7 +36521,7 @@
         <v>131</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E311" s="3">
         <f>IFERROR(VLOOKUP(A311,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37221,7 +36543,7 @@
         <v>458</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E312" s="3">
         <f>IFERROR(VLOOKUP(A312,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37243,7 +36565,7 @@
         <v>469</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E313" s="3">
         <f>IFERROR(VLOOKUP(A313,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37265,7 +36587,7 @@
         <v>289</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E314" s="3">
         <f>IFERROR(VLOOKUP(A314,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37287,7 +36609,7 @@
         <v>132</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E315" s="3">
         <f>IFERROR(VLOOKUP(A315,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37309,7 +36631,7 @@
         <v>318</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E316" s="3">
         <f>IFERROR(VLOOKUP(A316,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37331,7 +36653,7 @@
         <v>1060</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E317" s="3">
         <f>IFERROR(VLOOKUP(A317,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37353,7 +36675,7 @@
         <v>299</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E318" s="3">
         <f>IFERROR(VLOOKUP(A318,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37375,7 +36697,7 @@
         <v>455</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E319" s="3">
         <f>IFERROR(VLOOKUP(A319,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37397,7 +36719,7 @@
         <v>130</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E320" s="3">
         <f>IFERROR(VLOOKUP(A320,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37419,7 +36741,7 @@
         <v>206</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E321" s="3">
         <f>IFERROR(VLOOKUP(A321,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37441,7 +36763,7 @@
         <v>107</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E322" s="3">
         <f>IFERROR(VLOOKUP(A322,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37463,7 +36785,7 @@
         <v>96</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E323" s="3">
         <f>IFERROR(VLOOKUP(A323,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37485,7 +36807,7 @@
         <v>276</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E324" s="3">
         <f>IFERROR(VLOOKUP(A324,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37507,7 +36829,7 @@
         <v>461</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E325" s="3">
         <f>IFERROR(VLOOKUP(A325,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37529,7 +36851,7 @@
         <v>110</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E326" s="3">
         <f>IFERROR(VLOOKUP(A326,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37551,7 +36873,7 @@
         <v>322</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E327" s="3">
         <f>IFERROR(VLOOKUP(A327,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37573,7 +36895,7 @@
         <v>41</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E328" s="3">
         <f>IFERROR(VLOOKUP(A328,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37595,7 +36917,7 @@
         <v>269</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E329" s="3">
         <f>IFERROR(VLOOKUP(A329,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37617,7 +36939,7 @@
         <v>359</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E330" s="3">
         <f>IFERROR(VLOOKUP(A330,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37639,7 +36961,7 @@
         <v>454</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E331" s="3">
         <f>IFERROR(VLOOKUP(A331,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37661,7 +36983,7 @@
         <v>334</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E332" s="3">
         <f>IFERROR(VLOOKUP(A332,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37683,7 +37005,7 @@
         <v>83</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E333" s="3">
         <f>IFERROR(VLOOKUP(A333,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37705,7 +37027,7 @@
         <v>273</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E334" s="3">
         <f>IFERROR(VLOOKUP(A334,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37727,7 +37049,7 @@
         <v>468</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E335" s="3">
         <f>IFERROR(VLOOKUP(A335,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37749,7 +37071,7 @@
         <v>303</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E336" s="3">
         <f>IFERROR(VLOOKUP(A336,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37771,7 +37093,7 @@
         <v>456</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E337" s="3">
         <f>IFERROR(VLOOKUP(A337,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37793,7 +37115,7 @@
         <v>208</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E338" s="3">
         <f>IFERROR(VLOOKUP(A338,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37815,7 +37137,7 @@
         <v>305</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E339" s="3">
         <f>IFERROR(VLOOKUP(A339,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37837,7 +37159,7 @@
         <v>80</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E340" s="3">
         <f>IFERROR(VLOOKUP(A340,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37859,7 +37181,7 @@
         <v>133</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E341" s="3">
         <f>IFERROR(VLOOKUP(A341,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37881,7 +37203,7 @@
         <v>207</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E342" s="3">
         <f>IFERROR(VLOOKUP(A342,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37903,7 +37225,7 @@
         <v>142</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E343" s="3">
         <f>IFERROR(VLOOKUP(A343,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37925,7 +37247,7 @@
         <v>362</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E344" s="3">
         <f>IFERROR(VLOOKUP(A344,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37947,7 +37269,7 @@
         <v>368</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E345" s="3">
         <f>IFERROR(VLOOKUP(A345,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37969,7 +37291,7 @@
         <v>320</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E346" s="3">
         <f>IFERROR(VLOOKUP(A346,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37991,7 +37313,7 @@
         <v>290</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E347" s="3">
         <f>IFERROR(VLOOKUP(A347,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38013,7 +37335,7 @@
         <v>360</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E348" s="3">
         <f>IFERROR(VLOOKUP(A348,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38035,7 +37357,7 @@
         <v>82</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E349" s="3">
         <f>IFERROR(VLOOKUP(A349,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38057,7 +37379,7 @@
         <v>328</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E350" s="3">
         <f>IFERROR(VLOOKUP(A350,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38079,7 +37401,7 @@
         <v>321</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E351" s="3">
         <f>IFERROR(VLOOKUP(A351,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38101,7 +37423,7 @@
         <v>21</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E352" s="3">
         <f>IFERROR(VLOOKUP(A352,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38123,7 +37445,7 @@
         <v>387</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E353" s="3">
         <f>IFERROR(VLOOKUP(A353,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38145,7 +37467,7 @@
         <v>272</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E354" s="3">
         <f>IFERROR(VLOOKUP(A354,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38167,7 +37489,7 @@
         <v>89</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E355" s="3">
         <f>IFERROR(VLOOKUP(A355,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38189,7 +37511,7 @@
         <v>205</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E356" s="3">
         <f>IFERROR(VLOOKUP(A356,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38211,7 +37533,7 @@
         <v>291</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E357" s="3">
         <f>IFERROR(VLOOKUP(A357,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38233,7 +37555,7 @@
         <v>99</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E358" s="3">
         <f>IFERROR(VLOOKUP(A358,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38255,7 +37577,7 @@
         <v>292</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E359" s="3">
         <f>IFERROR(VLOOKUP(A359,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38277,7 +37599,7 @@
         <v>121</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E360" s="3">
         <f>IFERROR(VLOOKUP(A360,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38299,7 +37621,7 @@
         <v>298</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E361" s="3">
         <f>IFERROR(VLOOKUP(A361,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38321,7 +37643,7 @@
         <v>1058</v>
       </c>
       <c r="D362" s="5" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E362" s="3">
         <f>IFERROR(VLOOKUP(A362,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38343,7 +37665,7 @@
         <v>54</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E363" s="3">
         <f>IFERROR(VLOOKUP(A363,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38365,7 +37687,7 @@
         <v>377</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E364" s="3">
         <f>IFERROR(VLOOKUP(A364,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38387,7 +37709,7 @@
         <v>84</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E365" s="3">
         <f>IFERROR(VLOOKUP(A365,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38409,7 +37731,7 @@
         <v>1048</v>
       </c>
       <c r="D366" s="5" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E366" s="3">
         <f>IFERROR(VLOOKUP(A366,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38431,7 +37753,7 @@
         <v>1049</v>
       </c>
       <c r="D367" s="5" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E367" s="3">
         <f>IFERROR(VLOOKUP(A367,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38453,7 +37775,7 @@
         <v>1053</v>
       </c>
       <c r="D368" s="5" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E368" s="3">
         <f>IFERROR(VLOOKUP(A368,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38475,7 +37797,7 @@
         <v>1054</v>
       </c>
       <c r="D369" s="5" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E369" s="3">
         <f>IFERROR(VLOOKUP(A369,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38497,7 +37819,7 @@
         <v>1055</v>
       </c>
       <c r="D370" s="5" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E370" s="3">
         <f>IFERROR(VLOOKUP(A370,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38519,7 +37841,7 @@
         <v>1057</v>
       </c>
       <c r="D371" s="5" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E371" s="3">
         <f>IFERROR(VLOOKUP(A371,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38541,7 +37863,7 @@
         <v>363</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E372" s="3">
         <f>IFERROR(VLOOKUP(A372,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38563,7 +37885,7 @@
         <v>88</v>
       </c>
       <c r="D373" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E373" s="3">
         <f>IFERROR(VLOOKUP(A373,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38585,7 +37907,7 @@
         <v>389</v>
       </c>
       <c r="D374" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E374" s="3">
         <f>IFERROR(VLOOKUP(A374,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38607,7 +37929,7 @@
         <v>1046</v>
       </c>
       <c r="D375" s="5" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E375" s="3">
         <f>IFERROR(VLOOKUP(A375,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38629,7 +37951,7 @@
         <v>339</v>
       </c>
       <c r="D376" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E376" s="3">
         <f>IFERROR(VLOOKUP(A376,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38651,7 +37973,7 @@
         <v>1045</v>
       </c>
       <c r="D377" s="5" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E377" s="3">
         <f>IFERROR(VLOOKUP(A377,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38673,7 +37995,7 @@
         <v>225</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E378" s="3">
         <f>IFERROR(VLOOKUP(A378,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38695,7 +38017,7 @@
         <v>373</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E379" s="3">
         <f>IFERROR(VLOOKUP(A379,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38717,7 +38039,7 @@
         <v>1044</v>
       </c>
       <c r="D380" s="5" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E380" s="3">
         <f>IFERROR(VLOOKUP(A380,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38739,7 +38061,7 @@
         <v>18</v>
       </c>
       <c r="D381" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E381" s="3">
         <f>IFERROR(VLOOKUP(A381,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38761,7 +38083,7 @@
         <v>81</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E382" s="3">
         <f>IFERROR(VLOOKUP(A382,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38783,7 +38105,7 @@
         <v>268</v>
       </c>
       <c r="D383" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E383" s="3">
         <f>IFERROR(VLOOKUP(A383,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38805,7 +38127,7 @@
         <v>386</v>
       </c>
       <c r="D384" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E384" s="3">
         <f>IFERROR(VLOOKUP(A384,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38827,7 +38149,7 @@
         <v>1042</v>
       </c>
       <c r="D385" s="5" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E385" s="3">
         <f>IFERROR(VLOOKUP(A385,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38849,7 +38171,7 @@
         <v>53</v>
       </c>
       <c r="D386" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E386" s="3">
         <f>IFERROR(VLOOKUP(A386,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38871,7 +38193,7 @@
         <v>134</v>
       </c>
       <c r="D387" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E387" s="3">
         <f>IFERROR(VLOOKUP(A387,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38893,7 +38215,7 @@
         <v>173</v>
       </c>
       <c r="D388" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E388" s="3">
         <f>IFERROR(VLOOKUP(A388,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38915,7 +38237,7 @@
         <v>267</v>
       </c>
       <c r="D389" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E389" s="3">
         <f>IFERROR(VLOOKUP(A389,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38937,7 +38259,7 @@
         <v>388</v>
       </c>
       <c r="D390" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E390" s="3">
         <f>IFERROR(VLOOKUP(A390,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38959,7 +38281,7 @@
         <v>98</v>
       </c>
       <c r="D391" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E391" s="3">
         <f>IFERROR(VLOOKUP(A391,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38981,7 +38303,7 @@
         <v>209</v>
       </c>
       <c r="D392" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E392" s="3">
         <f>IFERROR(VLOOKUP(A392,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39003,7 +38325,7 @@
         <v>278</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E393" s="3">
         <f>IFERROR(VLOOKUP(A393,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39025,7 +38347,7 @@
         <v>85</v>
       </c>
       <c r="D394" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E394" s="3">
         <f>IFERROR(VLOOKUP(A394,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39047,7 +38369,7 @@
         <v>274</v>
       </c>
       <c r="D395" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E395" s="3">
         <f>IFERROR(VLOOKUP(A395,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39069,7 +38391,7 @@
         <v>304</v>
       </c>
       <c r="D396" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E396" s="3">
         <f>IFERROR(VLOOKUP(A396,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39091,7 +38413,7 @@
         <v>51</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E397" s="3">
         <f>IFERROR(VLOOKUP(A397,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39113,7 +38435,7 @@
         <v>52</v>
       </c>
       <c r="D398" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E398" s="3">
         <f>IFERROR(VLOOKUP(A398,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39135,7 +38457,7 @@
         <v>86</v>
       </c>
       <c r="D399" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E399" s="3">
         <f>IFERROR(VLOOKUP(A399,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39157,7 +38479,7 @@
         <v>87</v>
       </c>
       <c r="D400" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E400" s="3">
         <f>IFERROR(VLOOKUP(A400,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39179,7 +38501,7 @@
         <v>143</v>
       </c>
       <c r="D401" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E401" s="3">
         <f>IFERROR(VLOOKUP(A401,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39201,7 +38523,7 @@
         <v>144</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E402" s="3">
         <f>IFERROR(VLOOKUP(A402,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39223,7 +38545,7 @@
         <v>199</v>
       </c>
       <c r="D403" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E403" s="3">
         <f>IFERROR(VLOOKUP(A403,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39245,7 +38567,7 @@
         <v>200</v>
       </c>
       <c r="D404" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E404" s="3">
         <f>IFERROR(VLOOKUP(A404,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39267,7 +38589,7 @@
         <v>203</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E405" s="3">
         <f>IFERROR(VLOOKUP(A405,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39289,7 +38611,7 @@
         <v>275</v>
       </c>
       <c r="D406" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E406" s="3">
         <f>IFERROR(VLOOKUP(A406,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39311,7 +38633,7 @@
         <v>374</v>
       </c>
       <c r="D407" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E407" s="3">
         <f>IFERROR(VLOOKUP(A407,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39333,7 +38655,7 @@
         <v>375</v>
       </c>
       <c r="D408" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E408" s="3">
         <f>IFERROR(VLOOKUP(A408,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39355,7 +38677,7 @@
         <v>423</v>
       </c>
       <c r="D409" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E409" s="3">
         <f>IFERROR(VLOOKUP(A409,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39377,7 +38699,7 @@
         <v>428</v>
       </c>
       <c r="D410" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E410" s="3">
         <f>IFERROR(VLOOKUP(A410,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39399,7 +38721,7 @@
         <v>448</v>
       </c>
       <c r="D411" s="4" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E411" s="3">
         <f>IFERROR(VLOOKUP(A411,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39421,7 +38743,7 @@
         <v>1051</v>
       </c>
       <c r="D412" s="5" t="s">
-        <v>997</v>
+        <v>1066</v>
       </c>
       <c r="E412" s="3">
         <f>IFERROR(VLOOKUP(A412,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39443,7 +38765,7 @@
         <v>10</v>
       </c>
       <c r="D413" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E413" s="3">
         <f>IFERROR(VLOOKUP(A413,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39465,7 +38787,7 @@
         <v>9</v>
       </c>
       <c r="D414" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E414" s="3">
         <f>IFERROR(VLOOKUP(A414,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39487,7 +38809,7 @@
         <v>447</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E415" s="3">
         <f>IFERROR(VLOOKUP(A415,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39509,7 +38831,7 @@
         <v>446</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E416" s="3">
         <f>IFERROR(VLOOKUP(A416,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39531,7 +38853,7 @@
         <v>445</v>
       </c>
       <c r="D417" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E417" s="3">
         <f>IFERROR(VLOOKUP(A417,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39553,7 +38875,7 @@
         <v>409</v>
       </c>
       <c r="D418" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E418" s="3">
         <f>IFERROR(VLOOKUP(A418,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39575,7 +38897,7 @@
         <v>438</v>
       </c>
       <c r="D419" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E419" s="3">
         <f>IFERROR(VLOOKUP(A419,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39597,7 +38919,7 @@
         <v>442</v>
       </c>
       <c r="D420" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E420" s="3">
         <f>IFERROR(VLOOKUP(A420,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39619,7 +38941,7 @@
         <v>440</v>
       </c>
       <c r="D421" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E421" s="3">
         <f>IFERROR(VLOOKUP(A421,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39641,7 +38963,7 @@
         <v>439</v>
       </c>
       <c r="D422" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E422" s="3">
         <f>IFERROR(VLOOKUP(A422,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39663,7 +38985,7 @@
         <v>435</v>
       </c>
       <c r="D423" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E423" s="3">
         <f>IFERROR(VLOOKUP(A423,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39685,7 +39007,7 @@
         <v>437</v>
       </c>
       <c r="D424" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E424" s="3">
         <f>IFERROR(VLOOKUP(A424,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39707,7 +39029,7 @@
         <v>444</v>
       </c>
       <c r="D425" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E425" s="3">
         <f>IFERROR(VLOOKUP(A425,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39729,7 +39051,7 @@
         <v>443</v>
       </c>
       <c r="D426" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E426" s="3">
         <f>IFERROR(VLOOKUP(A426,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39751,7 +39073,7 @@
         <v>101</v>
       </c>
       <c r="D427" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E427" s="3">
         <f>IFERROR(VLOOKUP(A427,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39773,7 +39095,7 @@
         <v>441</v>
       </c>
       <c r="D428" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E428" s="3">
         <f>IFERROR(VLOOKUP(A428,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39795,7 +39117,7 @@
         <v>436</v>
       </c>
       <c r="D429" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E429" s="3">
         <f>IFERROR(VLOOKUP(A429,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39817,7 +39139,7 @@
         <v>410</v>
       </c>
       <c r="D430" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E430" s="3">
         <f>IFERROR(VLOOKUP(A430,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39839,7 +39161,7 @@
         <v>412</v>
       </c>
       <c r="D431" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E431" s="3">
         <f>IFERROR(VLOOKUP(A431,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39861,7 +39183,7 @@
         <v>470</v>
       </c>
       <c r="D432" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E432" s="3">
         <f>IFERROR(VLOOKUP(A432,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39883,7 +39205,7 @@
         <v>408</v>
       </c>
       <c r="D433" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E433" s="3">
         <f>IFERROR(VLOOKUP(A433,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39905,7 +39227,7 @@
         <v>391</v>
       </c>
       <c r="D434" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E434" s="3">
         <f>IFERROR(VLOOKUP(A434,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39927,7 +39249,7 @@
         <v>398</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E435" s="3">
         <f>IFERROR(VLOOKUP(A435,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39949,7 +39271,7 @@
         <v>475</v>
       </c>
       <c r="D436" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E436" s="3">
         <f>IFERROR(VLOOKUP(A436,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39971,7 +39293,7 @@
         <v>480</v>
       </c>
       <c r="D437" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E437" s="3">
         <f>IFERROR(VLOOKUP(A437,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39993,7 +39315,7 @@
         <v>401</v>
       </c>
       <c r="D438" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E438" s="3">
         <f>IFERROR(VLOOKUP(A438,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40015,7 +39337,7 @@
         <v>472</v>
       </c>
       <c r="D439" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E439" s="3">
         <f>IFERROR(VLOOKUP(A439,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40037,7 +39359,7 @@
         <v>400</v>
       </c>
       <c r="D440" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E440" s="3">
         <f>IFERROR(VLOOKUP(A440,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40059,7 +39381,7 @@
         <v>479</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E441" s="3">
         <f>IFERROR(VLOOKUP(A441,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40081,7 +39403,7 @@
         <v>405</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E442" s="3">
         <f>IFERROR(VLOOKUP(A442,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40103,7 +39425,7 @@
         <v>393</v>
       </c>
       <c r="D443" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E443" s="3">
         <f>IFERROR(VLOOKUP(A443,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40125,7 +39447,7 @@
         <v>397</v>
       </c>
       <c r="D444" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E444" s="3">
         <f>IFERROR(VLOOKUP(A444,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40147,7 +39469,7 @@
         <v>471</v>
       </c>
       <c r="D445" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E445" s="3">
         <f>IFERROR(VLOOKUP(A445,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40169,7 +39491,7 @@
         <v>406</v>
       </c>
       <c r="D446" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E446" s="3">
         <f>IFERROR(VLOOKUP(A446,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40191,7 +39513,7 @@
         <v>403</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E447" s="3">
         <f>IFERROR(VLOOKUP(A447,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40213,7 +39535,7 @@
         <v>395</v>
       </c>
       <c r="D448" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E448" s="3">
         <f>IFERROR(VLOOKUP(A448,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40235,7 +39557,7 @@
         <v>390</v>
       </c>
       <c r="D449" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E449" s="3">
         <f>IFERROR(VLOOKUP(A449,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40257,7 +39579,7 @@
         <v>396</v>
       </c>
       <c r="D450" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E450" s="3">
         <f>IFERROR(VLOOKUP(A450,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40279,7 +39601,7 @@
         <v>394</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E451" s="3">
         <f>IFERROR(VLOOKUP(A451,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40301,7 +39623,7 @@
         <v>411</v>
       </c>
       <c r="D452" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E452" s="3">
         <f>IFERROR(VLOOKUP(A452,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40323,7 +39645,7 @@
         <v>404</v>
       </c>
       <c r="D453" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E453" s="3">
         <f>IFERROR(VLOOKUP(A453,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40345,7 +39667,7 @@
         <v>399</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E454" s="3">
         <f>IFERROR(VLOOKUP(A454,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40367,7 +39689,7 @@
         <v>8</v>
       </c>
       <c r="D455" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E455" s="3">
         <f>IFERROR(VLOOKUP(A455,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40389,7 +39711,7 @@
         <v>478</v>
       </c>
       <c r="D456" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E456" s="3">
         <f>IFERROR(VLOOKUP(A456,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40411,7 +39733,7 @@
         <v>477</v>
       </c>
       <c r="D457" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E457" s="3">
         <f>IFERROR(VLOOKUP(A457,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40433,7 +39755,7 @@
         <v>491</v>
       </c>
       <c r="D458" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E458" s="3">
         <f>IFERROR(VLOOKUP(A458,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40455,7 +39777,7 @@
         <v>402</v>
       </c>
       <c r="D459" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E459" s="3">
         <f>IFERROR(VLOOKUP(A459,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40477,7 +39799,7 @@
         <v>493</v>
       </c>
       <c r="D460" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E460" s="3">
         <f>IFERROR(VLOOKUP(A460,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40499,7 +39821,7 @@
         <v>489</v>
       </c>
       <c r="D461" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E461" s="3">
         <f>IFERROR(VLOOKUP(A461,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40521,7 +39843,7 @@
         <v>407</v>
       </c>
       <c r="D462" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E462" s="3">
         <f>IFERROR(VLOOKUP(A462,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40543,7 +39865,7 @@
         <v>490</v>
       </c>
       <c r="D463" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E463" s="3">
         <f>IFERROR(VLOOKUP(A463,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40565,7 +39887,7 @@
         <v>485</v>
       </c>
       <c r="D464" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E464" s="3">
         <f>IFERROR(VLOOKUP(A464,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40587,7 +39909,7 @@
         <v>484</v>
       </c>
       <c r="D465" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E465" s="3">
         <f>IFERROR(VLOOKUP(A465,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40609,7 +39931,7 @@
         <v>152</v>
       </c>
       <c r="D466" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E466" s="3">
         <f>IFERROR(VLOOKUP(A466,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40631,7 +39953,7 @@
         <v>6</v>
       </c>
       <c r="D467" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E467" s="3">
         <f>IFERROR(VLOOKUP(A467,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40653,7 +39975,7 @@
         <v>155</v>
       </c>
       <c r="D468" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E468" s="3">
         <f>IFERROR(VLOOKUP(A468,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40675,7 +39997,7 @@
         <v>7</v>
       </c>
       <c r="D469" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E469" s="3">
         <f>IFERROR(VLOOKUP(A469,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40697,7 +40019,7 @@
         <v>153</v>
       </c>
       <c r="D470" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E470" s="3">
         <f>IFERROR(VLOOKUP(A470,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40719,7 +40041,7 @@
         <v>476</v>
       </c>
       <c r="D471" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E471" s="3">
         <f>IFERROR(VLOOKUP(A471,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40741,7 +40063,7 @@
         <v>492</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E472" s="3">
         <f>IFERROR(VLOOKUP(A472,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40763,7 +40085,7 @@
         <v>483</v>
       </c>
       <c r="D473" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E473" s="3">
         <f>IFERROR(VLOOKUP(A473,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40785,7 +40107,7 @@
         <v>486</v>
       </c>
       <c r="D474" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E474" s="3">
         <f>IFERROR(VLOOKUP(A474,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40807,7 +40129,7 @@
         <v>1052</v>
       </c>
       <c r="D475" s="5" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E475" s="3">
         <f>IFERROR(VLOOKUP(A475,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40829,7 +40151,7 @@
         <v>392</v>
       </c>
       <c r="D476" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E476" s="3">
         <f>IFERROR(VLOOKUP(A476,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40851,7 +40173,7 @@
         <v>487</v>
       </c>
       <c r="D477" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E477" s="3">
         <f>IFERROR(VLOOKUP(A477,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40873,7 +40195,7 @@
         <v>474</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E478" s="3">
         <f>IFERROR(VLOOKUP(A478,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40895,7 +40217,7 @@
         <v>481</v>
       </c>
       <c r="D479" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E479" s="3">
         <f>IFERROR(VLOOKUP(A479,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40917,7 +40239,7 @@
         <v>154</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E480" s="3">
         <f>IFERROR(VLOOKUP(A480,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40939,7 +40261,7 @@
         <v>488</v>
       </c>
       <c r="D481" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E481" s="3">
         <f>IFERROR(VLOOKUP(A481,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40961,7 +40283,7 @@
         <v>1059</v>
       </c>
       <c r="D482" s="5" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E482" s="3">
         <f>IFERROR(VLOOKUP(A482,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40983,7 +40305,7 @@
         <v>204</v>
       </c>
       <c r="D483" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E483" s="3">
         <f>IFERROR(VLOOKUP(A483,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41005,7 +40327,7 @@
         <v>150</v>
       </c>
       <c r="D484" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E484" s="3">
         <f>IFERROR(VLOOKUP(A484,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41027,7 +40349,7 @@
         <v>482</v>
       </c>
       <c r="D485" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E485" s="3">
         <f>IFERROR(VLOOKUP(A485,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41049,7 +40371,7 @@
         <v>494</v>
       </c>
       <c r="D486" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E486" s="3">
         <f>IFERROR(VLOOKUP(A486,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41071,7 +40393,7 @@
         <v>473</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E487" s="3">
         <f>IFERROR(VLOOKUP(A487,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41093,7 +40415,7 @@
         <v>151</v>
       </c>
       <c r="D488" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E488" s="3">
         <f>IFERROR(VLOOKUP(A488,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41115,7 +40437,7 @@
         <v>496</v>
       </c>
       <c r="D489" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E489" s="3">
         <f>IFERROR(VLOOKUP(A489,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41137,7 +40459,7 @@
         <v>495</v>
       </c>
       <c r="D490" s="4" t="s">
-        <v>996</v>
+        <v>1067</v>
       </c>
       <c r="E490" s="3">
         <f>IFERROR(VLOOKUP(A490,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41159,7 +40481,7 @@
         <v>149</v>
       </c>
       <c r="D491" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E491" s="3">
         <f>IFERROR(VLOOKUP(A491,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41181,7 +40503,7 @@
         <v>419</v>
       </c>
       <c r="D492" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E492" s="3">
         <f>IFERROR(VLOOKUP(A492,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41203,7 +40525,7 @@
         <v>1041</v>
       </c>
       <c r="D493" s="5" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E493" s="3">
         <f>IFERROR(VLOOKUP(A493,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41225,7 +40547,7 @@
         <v>420</v>
       </c>
       <c r="D494" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E494" s="3">
         <f>IFERROR(VLOOKUP(A494,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41247,7 +40569,7 @@
         <v>197</v>
       </c>
       <c r="D495" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E495" s="3">
         <f>IFERROR(VLOOKUP(A495,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41269,7 +40591,7 @@
         <v>426</v>
       </c>
       <c r="D496" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E496" s="3">
         <f>IFERROR(VLOOKUP(A496,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41291,7 +40613,7 @@
         <v>424</v>
       </c>
       <c r="D497" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E497" s="3">
         <f>IFERROR(VLOOKUP(A497,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41313,7 +40635,7 @@
         <v>425</v>
       </c>
       <c r="D498" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E498" s="3">
         <f>IFERROR(VLOOKUP(A498,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41335,7 +40657,7 @@
         <v>148</v>
       </c>
       <c r="D499" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E499" s="3">
         <f>IFERROR(VLOOKUP(A499,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41357,7 +40679,7 @@
         <v>194</v>
       </c>
       <c r="D500" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E500" s="3">
         <f>IFERROR(VLOOKUP(A500,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41379,7 +40701,7 @@
         <v>147</v>
       </c>
       <c r="D501" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E501" s="3">
         <f>IFERROR(VLOOKUP(A501,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41401,7 +40723,7 @@
         <v>2</v>
       </c>
       <c r="D502" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E502" s="3">
         <f>IFERROR(VLOOKUP(A502,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41423,7 +40745,7 @@
         <v>365</v>
       </c>
       <c r="D503" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E503" s="3">
         <f>IFERROR(VLOOKUP(A503,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41445,7 +40767,7 @@
         <v>196</v>
       </c>
       <c r="D504" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E504" s="3">
         <f>IFERROR(VLOOKUP(A504,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41467,7 +40789,7 @@
         <v>195</v>
       </c>
       <c r="D505" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E505" s="3">
         <f>IFERROR(VLOOKUP(A505,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41489,7 +40811,7 @@
         <v>356</v>
       </c>
       <c r="D506" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E506" s="3">
         <f>IFERROR(VLOOKUP(A506,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41511,7 +40833,7 @@
         <v>364</v>
       </c>
       <c r="D507" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E507" s="3">
         <f>IFERROR(VLOOKUP(A507,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41533,7 +40855,7 @@
         <v>38</v>
       </c>
       <c r="D508" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E508" s="3">
         <f>IFERROR(VLOOKUP(A508,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41555,7 +40877,7 @@
         <v>366</v>
       </c>
       <c r="D509" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E509" s="3">
         <f>IFERROR(VLOOKUP(A509,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41577,7 +40899,7 @@
         <v>418</v>
       </c>
       <c r="D510" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E510" s="3">
         <f>IFERROR(VLOOKUP(A510,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41599,7 +40921,7 @@
         <v>352</v>
       </c>
       <c r="D511" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E511" s="3">
         <f>IFERROR(VLOOKUP(A511,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41621,7 +40943,7 @@
         <v>201</v>
       </c>
       <c r="D512" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E512" s="3">
         <f>IFERROR(VLOOKUP(A512,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41643,7 +40965,7 @@
         <v>146</v>
       </c>
       <c r="D513" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E513" s="3">
         <f>IFERROR(VLOOKUP(A513,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41665,7 +40987,7 @@
         <v>336</v>
       </c>
       <c r="D514" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E514" s="3">
         <f>IFERROR(VLOOKUP(A514,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41687,7 +41009,7 @@
         <v>50</v>
       </c>
       <c r="D515" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E515" s="3">
         <f>IFERROR(VLOOKUP(A515,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41709,7 +41031,7 @@
         <v>337</v>
       </c>
       <c r="D516" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E516" s="3">
         <f>IFERROR(VLOOKUP(A516,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41731,7 +41053,7 @@
         <v>427</v>
       </c>
       <c r="D517" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E517" s="3">
         <f>IFERROR(VLOOKUP(A517,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41753,7 +41075,7 @@
         <v>37</v>
       </c>
       <c r="D518" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E518" s="3">
         <f>IFERROR(VLOOKUP(A518,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41775,7 +41097,7 @@
         <v>145</v>
       </c>
       <c r="D519" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E519" s="3">
         <f>IFERROR(VLOOKUP(A519,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41797,7 +41119,7 @@
         <v>198</v>
       </c>
       <c r="D520" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E520" s="3">
         <f>IFERROR(VLOOKUP(A520,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41819,7 +41141,7 @@
         <v>351</v>
       </c>
       <c r="D521" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E521" s="3">
         <f>IFERROR(VLOOKUP(A521,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41841,7 +41163,7 @@
         <v>450</v>
       </c>
       <c r="D522" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E522" s="3">
         <f>IFERROR(VLOOKUP(A522,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41863,7 +41185,7 @@
         <v>36</v>
       </c>
       <c r="D523" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E523" s="3">
         <f>IFERROR(VLOOKUP(A523,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41885,7 +41207,7 @@
         <v>175</v>
       </c>
       <c r="D524" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E524" s="3">
         <f>IFERROR(VLOOKUP(A524,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41907,7 +41229,7 @@
         <v>379</v>
       </c>
       <c r="D525" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E525" s="3">
         <f>IFERROR(VLOOKUP(A525,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41929,7 +41251,7 @@
         <v>449</v>
       </c>
       <c r="D526" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E526" s="3">
         <f>IFERROR(VLOOKUP(A526,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41951,7 +41273,7 @@
         <v>451</v>
       </c>
       <c r="D527" s="4" t="s">
-        <v>994</v>
+        <v>1068</v>
       </c>
       <c r="E527" s="3">
         <f>IFERROR(VLOOKUP(A527,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -66665,7 +65987,7 @@
   </sheetData>
   <autoFilter ref="A1:D527" xr:uid="{4AB5A68C-B46F-4AEB-AE38-D528E4CDBB65}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D527">
-      <sortCondition sortBy="cellColor" ref="B1:B527" dxfId="88"/>
+      <sortCondition sortBy="cellColor" ref="B1:B527" dxfId="1"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F527">
@@ -66674,7 +65996,7 @@
     <sortCondition descending="1" ref="E2:E527"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/catalogo_produtos.xlsx
+++ b/catalogo_produtos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio.silva\Documents\GitHub\catalogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A5FABD-AD65-4865-8EA3-F4FF99DA13DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D46EB3-157F-4A8D-B73E-6AD81FD2C7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9FDC799A-A518-4814-A51D-97AF7748B86C}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{9FDC799A-A518-4814-A51D-97AF7748B86C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -2088,9 +2088,6 @@
     <t>Filé de Panga Premium sem Gordura Congelado</t>
   </si>
   <si>
-    <t>Filé de Peito de Fango Congelado Ave Nova</t>
-  </si>
-  <si>
     <t>Filé de Peito de Frango Congelado Real</t>
   </si>
   <si>
@@ -3238,6 +3235,9 @@
   </si>
   <si>
     <t xml:space="preserve">Batata Congelada McCain SureCrisp Corte Fino 2,5Kg    </t>
+  </si>
+  <si>
+    <t>Filé de Peito de Frango Congelado Ave Nova</t>
   </si>
 </sst>
 </file>
@@ -29657,8 +29657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB5A68C-B46F-4AEB-AE38-D528E4CDBB65}">
   <dimension ref="A1:K4642"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29677,13 +29677,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -29697,7 +29697,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E2" s="3">
         <f>IFERROR(VLOOKUP(A2,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -29707,7 +29707,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="K2" s="3">
         <v>2</v>
@@ -29724,7 +29724,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E3" s="3">
         <f>IFERROR(VLOOKUP(A3,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -29734,7 +29734,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="K3" s="3">
         <v>1</v>
@@ -29751,7 +29751,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E4" s="3">
         <f>IFERROR(VLOOKUP(A4,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -29761,7 +29761,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K4" s="3">
         <v>3</v>
@@ -29778,7 +29778,7 @@
         <v>55</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E5" s="3">
         <f>IFERROR(VLOOKUP(A5,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -29788,7 +29788,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="K5" s="3">
         <v>4</v>
@@ -29805,7 +29805,7 @@
         <v>56</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E6" s="3">
         <f>IFERROR(VLOOKUP(A6,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -29815,7 +29815,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="K6" s="3">
         <v>5</v>
@@ -29832,7 +29832,7 @@
         <v>57</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E7" s="3">
         <f>IFERROR(VLOOKUP(A7,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -29842,7 +29842,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="K7" s="3">
         <v>6</v>
@@ -29859,7 +29859,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E8" s="3">
         <f>IFERROR(VLOOKUP(A8,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -29869,7 +29869,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="K8" s="3">
         <v>7</v>
@@ -29886,7 +29886,7 @@
         <v>59</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E9" s="3">
         <f>IFERROR(VLOOKUP(A9,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -29907,7 +29907,7 @@
         <v>60</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E10" s="3">
         <f>IFERROR(VLOOKUP(A10,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -29928,7 +29928,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E11" s="3">
         <f>IFERROR(VLOOKUP(A11,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -29943,13 +29943,13 @@
         <v>274</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E12" s="3">
         <f>IFERROR(VLOOKUP(A12,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -29964,13 +29964,13 @@
         <v>283</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E13" s="3">
         <f>IFERROR(VLOOKUP(A13,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -29991,7 +29991,7 @@
         <v>62</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E14" s="3">
         <f>IFERROR(VLOOKUP(A14,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30012,7 +30012,7 @@
         <v>63</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E15" s="3">
         <f>IFERROR(VLOOKUP(A15,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30033,7 +30033,7 @@
         <v>64</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E16" s="3">
         <f>IFERROR(VLOOKUP(A16,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30054,7 +30054,7 @@
         <v>65</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E17" s="3">
         <f>IFERROR(VLOOKUP(A17,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30075,7 +30075,7 @@
         <v>66</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E18" s="3">
         <f>IFERROR(VLOOKUP(A18,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30097,7 +30097,7 @@
         <v>71</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E19" s="3">
         <f>IFERROR(VLOOKUP(A19,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30119,7 +30119,7 @@
         <v>73</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E20" s="3">
         <f>IFERROR(VLOOKUP(A20,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30141,7 +30141,7 @@
         <v>74</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E21" s="3">
         <f>IFERROR(VLOOKUP(A21,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30157,13 +30157,13 @@
         <v>5893</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E22" s="3">
         <f>IFERROR(VLOOKUP(A22,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30179,13 +30179,13 @@
         <v>5896</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E23" s="3">
         <f>IFERROR(VLOOKUP(A23,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30207,7 +30207,7 @@
         <v>111</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E24" s="3">
         <f>IFERROR(VLOOKUP(A24,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30223,13 +30223,13 @@
         <v>5799</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E25" s="3">
         <f>IFERROR(VLOOKUP(A25,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30251,7 +30251,7 @@
         <v>112</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E26" s="3">
         <f>IFERROR(VLOOKUP(A26,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30273,7 +30273,7 @@
         <v>113</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E27" s="3">
         <f>IFERROR(VLOOKUP(A27,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30295,7 +30295,7 @@
         <v>114</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E28" s="3">
         <f>IFERROR(VLOOKUP(A28,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30317,7 +30317,7 @@
         <v>115</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E29" s="3">
         <f>IFERROR(VLOOKUP(A29,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30333,13 +30333,13 @@
         <v>5895</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E30" s="3">
         <f>IFERROR(VLOOKUP(A30,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30361,7 +30361,7 @@
         <v>188</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E31" s="3">
         <f>IFERROR(VLOOKUP(A31,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30383,7 +30383,7 @@
         <v>189</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E32" s="3">
         <f>IFERROR(VLOOKUP(A32,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30399,13 +30399,13 @@
         <v>930</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>685</v>
+        <v>1068</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>190</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E33" s="3">
         <f>IFERROR(VLOOKUP(A33,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30421,13 +30421,13 @@
         <v>941</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>191</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E34" s="3">
         <f>IFERROR(VLOOKUP(A34,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30443,13 +30443,13 @@
         <v>5813</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>192</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E35" s="3">
         <f>IFERROR(VLOOKUP(A35,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30465,13 +30465,13 @@
         <v>5698</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>193</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E36" s="3">
         <f>IFERROR(VLOOKUP(A36,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30487,13 +30487,13 @@
         <v>1060</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>210</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E37" s="3">
         <f>IFERROR(VLOOKUP(A37,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30509,13 +30509,13 @@
         <v>1171</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>236</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E38" s="3">
         <f>IFERROR(VLOOKUP(A38,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30531,13 +30531,13 @@
         <v>5845</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>237</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E39" s="3">
         <f>IFERROR(VLOOKUP(A39,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30553,13 +30553,13 @@
         <v>5901</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E40" s="3">
         <f>IFERROR(VLOOKUP(A40,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30575,13 +30575,13 @@
         <v>5859</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>357</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E41" s="3">
         <f>IFERROR(VLOOKUP(A41,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30597,13 +30597,13 @@
         <v>4139</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>372</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E42" s="3">
         <f>IFERROR(VLOOKUP(A42,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30619,13 +30619,13 @@
         <v>1780</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>417</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E43" s="3">
         <f>IFERROR(VLOOKUP(A43,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30641,13 +30641,13 @@
         <v>5797</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>433</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E44" s="3">
         <f>IFERROR(VLOOKUP(A44,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30663,13 +30663,13 @@
         <v>4247</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>434</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E45" s="3">
         <f>IFERROR(VLOOKUP(A45,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30691,7 +30691,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E46" s="3">
         <f>IFERROR(VLOOKUP(A46,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30713,7 +30713,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E47" s="3">
         <f>IFERROR(VLOOKUP(A47,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30735,7 +30735,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E48" s="3">
         <f>IFERROR(VLOOKUP(A48,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30757,7 +30757,7 @@
         <v>26</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E49" s="3">
         <f>IFERROR(VLOOKUP(A49,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30779,7 +30779,7 @@
         <v>27</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E50" s="3">
         <f>IFERROR(VLOOKUP(A50,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30801,7 +30801,7 @@
         <v>28</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E51" s="3">
         <f>IFERROR(VLOOKUP(A51,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30823,7 +30823,7 @@
         <v>29</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E52" s="3">
         <f>IFERROR(VLOOKUP(A52,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30845,7 +30845,7 @@
         <v>30</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E53" s="3">
         <f>IFERROR(VLOOKUP(A53,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30867,7 +30867,7 @@
         <v>31</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E54" s="3">
         <f>IFERROR(VLOOKUP(A54,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30889,7 +30889,7 @@
         <v>32</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E55" s="3">
         <f>IFERROR(VLOOKUP(A55,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30911,7 +30911,7 @@
         <v>33</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E56" s="3">
         <f>IFERROR(VLOOKUP(A56,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30933,7 +30933,7 @@
         <v>34</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E57" s="3">
         <f>IFERROR(VLOOKUP(A57,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30955,7 +30955,7 @@
         <v>75</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E58" s="3">
         <f>IFERROR(VLOOKUP(A58,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30977,7 +30977,7 @@
         <v>76</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E59" s="3">
         <f>IFERROR(VLOOKUP(A59,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30999,7 +30999,7 @@
         <v>77</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E60" s="3">
         <f>IFERROR(VLOOKUP(A60,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31015,13 +31015,13 @@
         <v>5890</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E61" s="3">
         <f>IFERROR(VLOOKUP(A61,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31043,7 +31043,7 @@
         <v>78</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E62" s="3">
         <f>IFERROR(VLOOKUP(A62,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31065,7 +31065,7 @@
         <v>163</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E63" s="3">
         <f>IFERROR(VLOOKUP(A63,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31087,7 +31087,7 @@
         <v>166</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E64" s="3">
         <f>IFERROR(VLOOKUP(A64,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31109,7 +31109,7 @@
         <v>167</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E65" s="3">
         <f>IFERROR(VLOOKUP(A65,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31131,7 +31131,7 @@
         <v>168</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E66" s="3">
         <f>IFERROR(VLOOKUP(A66,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31153,7 +31153,7 @@
         <v>169</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E67" s="3">
         <f>IFERROR(VLOOKUP(A67,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31175,7 +31175,7 @@
         <v>170</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E68" s="3">
         <f>IFERROR(VLOOKUP(A68,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31197,7 +31197,7 @@
         <v>171</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E69" s="3">
         <f>IFERROR(VLOOKUP(A69,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31219,7 +31219,7 @@
         <v>172</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E70" s="3">
         <f>IFERROR(VLOOKUP(A70,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31241,7 +31241,7 @@
         <v>176</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E71" s="3">
         <f>IFERROR(VLOOKUP(A71,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31263,7 +31263,7 @@
         <v>177</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E72" s="3">
         <f>IFERROR(VLOOKUP(A72,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31285,7 +31285,7 @@
         <v>178</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E73" s="3">
         <f>IFERROR(VLOOKUP(A73,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31307,7 +31307,7 @@
         <v>179</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E74" s="3">
         <f>IFERROR(VLOOKUP(A74,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31329,7 +31329,7 @@
         <v>180</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E75" s="3">
         <f>IFERROR(VLOOKUP(A75,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31351,7 +31351,7 @@
         <v>181</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E76" s="3">
         <f>IFERROR(VLOOKUP(A76,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31373,7 +31373,7 @@
         <v>182</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E77" s="3">
         <f>IFERROR(VLOOKUP(A77,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31395,7 +31395,7 @@
         <v>183</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E78" s="3">
         <f>IFERROR(VLOOKUP(A78,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31417,7 +31417,7 @@
         <v>184</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E79" s="3">
         <f>IFERROR(VLOOKUP(A79,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31439,7 +31439,7 @@
         <v>185</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E80" s="3">
         <f>IFERROR(VLOOKUP(A80,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31461,7 +31461,7 @@
         <v>186</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E81" s="3">
         <f>IFERROR(VLOOKUP(A81,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31483,7 +31483,7 @@
         <v>187</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E82" s="3">
         <f>IFERROR(VLOOKUP(A82,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31499,13 +31499,13 @@
         <v>1124</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E83" s="3">
         <f>IFERROR(VLOOKUP(A83,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31521,13 +31521,13 @@
         <v>1185</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E84" s="3">
         <f>IFERROR(VLOOKUP(A84,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31543,13 +31543,13 @@
         <v>1198</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>239</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E85" s="3">
         <f>IFERROR(VLOOKUP(A85,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31565,13 +31565,13 @@
         <v>1216</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>240</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E86" s="3">
         <f>IFERROR(VLOOKUP(A86,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31587,13 +31587,13 @@
         <v>1217</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>241</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E87" s="3">
         <f>IFERROR(VLOOKUP(A87,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31609,13 +31609,13 @@
         <v>1218</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>242</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E88" s="3">
         <f>IFERROR(VLOOKUP(A88,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31631,13 +31631,13 @@
         <v>1199</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>243</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E89" s="3">
         <f>IFERROR(VLOOKUP(A89,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31653,13 +31653,13 @@
         <v>1197</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>244</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E90" s="3">
         <f>IFERROR(VLOOKUP(A90,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31675,13 +31675,13 @@
         <v>1194</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E91" s="3">
         <f>IFERROR(VLOOKUP(A91,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31697,13 +31697,13 @@
         <v>1192</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E92" s="3">
         <f>IFERROR(VLOOKUP(A92,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31719,13 +31719,13 @@
         <v>1191</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>247</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E93" s="3">
         <f>IFERROR(VLOOKUP(A93,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31741,13 +31741,13 @@
         <v>1201</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>248</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E94" s="3">
         <f>IFERROR(VLOOKUP(A94,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31763,13 +31763,13 @@
         <v>1226</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>249</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E95" s="3">
         <f>IFERROR(VLOOKUP(A95,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31785,13 +31785,13 @@
         <v>1208</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>250</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E96" s="3">
         <f>IFERROR(VLOOKUP(A96,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31807,13 +31807,13 @@
         <v>1195</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>251</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E97" s="3">
         <f>IFERROR(VLOOKUP(A97,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31829,13 +31829,13 @@
         <v>1220</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>252</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E98" s="3">
         <f>IFERROR(VLOOKUP(A98,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31851,13 +31851,13 @@
         <v>1227</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>253</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E99" s="3">
         <f>IFERROR(VLOOKUP(A99,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31873,13 +31873,13 @@
         <v>1215</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>254</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E100" s="3">
         <f>IFERROR(VLOOKUP(A100,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31895,13 +31895,13 @@
         <v>1184</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>255</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E101" s="3">
         <f>IFERROR(VLOOKUP(A101,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31917,13 +31917,13 @@
         <v>1221</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>256</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E102" s="3">
         <f>IFERROR(VLOOKUP(A102,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31939,13 +31939,13 @@
         <v>1228</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>257</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E103" s="3">
         <f>IFERROR(VLOOKUP(A103,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31961,13 +31961,13 @@
         <v>1214</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>258</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E104" s="3">
         <f>IFERROR(VLOOKUP(A104,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31983,13 +31983,13 @@
         <v>1213</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>259</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E105" s="3">
         <f>IFERROR(VLOOKUP(A105,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32005,13 +32005,13 @@
         <v>1219</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>260</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E106" s="3">
         <f>IFERROR(VLOOKUP(A106,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32027,13 +32027,13 @@
         <v>1223</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E107" s="3">
         <f>IFERROR(VLOOKUP(A107,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32049,13 +32049,13 @@
         <v>1224</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>262</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E108" s="3">
         <f>IFERROR(VLOOKUP(A108,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32071,13 +32071,13 @@
         <v>5873</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E109" s="3">
         <f>IFERROR(VLOOKUP(A109,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32093,13 +32093,13 @@
         <v>5872</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E110" s="3">
         <f>IFERROR(VLOOKUP(A110,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32115,13 +32115,13 @@
         <v>5875</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E111" s="3">
         <f>IFERROR(VLOOKUP(A111,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32137,13 +32137,13 @@
         <v>5876</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E112" s="3">
         <f>IFERROR(VLOOKUP(A112,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32159,13 +32159,13 @@
         <v>1598</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>343</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E113" s="3">
         <f>IFERROR(VLOOKUP(A113,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32181,13 +32181,13 @@
         <v>1594</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>344</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E114" s="3">
         <f>IFERROR(VLOOKUP(A114,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32203,13 +32203,13 @@
         <v>1620</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>345</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E115" s="3">
         <f>IFERROR(VLOOKUP(A115,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32225,13 +32225,13 @@
         <v>1624</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>346</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E116" s="3">
         <f>IFERROR(VLOOKUP(A116,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32247,13 +32247,13 @@
         <v>5745</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>347</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E117" s="3">
         <f>IFERROR(VLOOKUP(A117,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32269,13 +32269,13 @@
         <v>1987</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>429</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E118" s="3">
         <f>IFERROR(VLOOKUP(A118,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32291,13 +32291,13 @@
         <v>2000</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>430</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E119" s="3">
         <f>IFERROR(VLOOKUP(A119,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32313,13 +32313,13 @@
         <v>1980</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>431</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E120" s="3">
         <f>IFERROR(VLOOKUP(A120,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32335,13 +32335,13 @@
         <v>2605</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>432</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E121" s="3">
         <f>IFERROR(VLOOKUP(A121,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32363,7 +32363,7 @@
         <v>24</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E122" s="3">
         <f>IFERROR(VLOOKUP(A122,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32385,7 +32385,7 @@
         <v>25</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E123" s="3">
         <f>IFERROR(VLOOKUP(A123,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32407,7 +32407,7 @@
         <v>48</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E124" s="3">
         <f>IFERROR(VLOOKUP(A124,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32429,7 +32429,7 @@
         <v>49</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E125" s="3">
         <f>IFERROR(VLOOKUP(A125,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32451,7 +32451,7 @@
         <v>116</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E126" s="3">
         <f>IFERROR(VLOOKUP(A126,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32473,7 +32473,7 @@
         <v>117</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E127" s="3">
         <f>IFERROR(VLOOKUP(A127,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32489,13 +32489,13 @@
         <v>1158</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>234</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E128" s="3">
         <f>IFERROR(VLOOKUP(A128,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32511,13 +32511,13 @@
         <v>5848</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>235</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E129" s="3">
         <f>IFERROR(VLOOKUP(A129,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32533,13 +32533,13 @@
         <v>2205</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>271</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E130" s="3">
         <f>IFERROR(VLOOKUP(A130,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32555,13 +32555,13 @@
         <v>1383</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>282</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E131" s="3">
         <f>IFERROR(VLOOKUP(A131,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32577,13 +32577,13 @@
         <v>1385</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>283</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E132" s="3">
         <f>IFERROR(VLOOKUP(A132,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32599,13 +32599,13 @@
         <v>5704</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>285</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E133" s="3">
         <f>IFERROR(VLOOKUP(A133,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32621,13 +32621,13 @@
         <v>5855</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>371</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E134" s="3">
         <f>IFERROR(VLOOKUP(A134,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32643,13 +32643,13 @@
         <v>1768</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E135" s="3">
         <f>IFERROR(VLOOKUP(A135,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32665,13 +32665,13 @@
         <v>5851</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>378</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E136" s="3">
         <f>IFERROR(VLOOKUP(A136,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32687,13 +32687,13 @@
         <v>5828</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>380</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E137" s="3">
         <f>IFERROR(VLOOKUP(A137,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32709,13 +32709,13 @@
         <v>1786</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>382</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E138" s="3">
         <f>IFERROR(VLOOKUP(A138,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32731,13 +32731,13 @@
         <v>5169</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>383</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E139" s="3">
         <f>IFERROR(VLOOKUP(A139,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32753,13 +32753,13 @@
         <v>1802</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>384</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E140" s="3">
         <f>IFERROR(VLOOKUP(A140,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32775,13 +32775,13 @@
         <v>2210</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>385</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E141" s="3">
         <f>IFERROR(VLOOKUP(A141,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32797,13 +32797,13 @@
         <v>5679</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E142" s="3">
         <f>IFERROR(VLOOKUP(A142,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32819,13 +32819,13 @@
         <v>1908</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>413</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E143" s="3">
         <f>IFERROR(VLOOKUP(A143,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32841,13 +32841,13 @@
         <v>1905</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>414</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E144" s="3">
         <f>IFERROR(VLOOKUP(A144,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32863,13 +32863,13 @@
         <v>1910</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>415</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E145" s="3">
         <f>IFERROR(VLOOKUP(A145,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32885,13 +32885,13 @@
         <v>1906</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>416</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E146" s="3">
         <f>IFERROR(VLOOKUP(A146,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32907,13 +32907,13 @@
         <v>215</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E147" s="3">
         <f>IFERROR(VLOOKUP(A147,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32935,7 +32935,7 @@
         <v>11</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E148" s="3">
         <f>IFERROR(VLOOKUP(A148,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32957,7 +32957,7 @@
         <v>12</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E149" s="3">
         <f>IFERROR(VLOOKUP(A149,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32979,7 +32979,7 @@
         <v>13</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E150" s="3">
         <f>IFERROR(VLOOKUP(A150,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33001,7 +33001,7 @@
         <v>14</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E151" s="3">
         <f>IFERROR(VLOOKUP(A151,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33023,7 +33023,7 @@
         <v>15</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E152" s="3">
         <f>IFERROR(VLOOKUP(A152,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33045,7 +33045,7 @@
         <v>16</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E153" s="3">
         <f>IFERROR(VLOOKUP(A153,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33067,7 +33067,7 @@
         <v>17</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E154" s="3">
         <f>IFERROR(VLOOKUP(A154,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33089,7 +33089,7 @@
         <v>18</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E155" s="3">
         <f>IFERROR(VLOOKUP(A155,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33105,13 +33105,13 @@
         <v>5843</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E156" s="3">
         <f>IFERROR(VLOOKUP(A156,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33133,7 +33133,7 @@
         <v>19</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E157" s="3">
         <f>IFERROR(VLOOKUP(A157,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33155,7 +33155,7 @@
         <v>20</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E158" s="3">
         <f>IFERROR(VLOOKUP(A158,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33177,7 +33177,7 @@
         <v>21</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E159" s="3">
         <f>IFERROR(VLOOKUP(A159,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33199,7 +33199,7 @@
         <v>39</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E160" s="3">
         <f>IFERROR(VLOOKUP(A160,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33215,13 +33215,13 @@
         <v>5832</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E161" s="3">
         <f>IFERROR(VLOOKUP(A161,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33243,7 +33243,7 @@
         <v>40</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E162" s="3">
         <f>IFERROR(VLOOKUP(A162,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33265,7 +33265,7 @@
         <v>41</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E163" s="3">
         <f>IFERROR(VLOOKUP(A163,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33287,7 +33287,7 @@
         <v>42</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E164" s="3">
         <f>IFERROR(VLOOKUP(A164,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33309,7 +33309,7 @@
         <v>43</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E165" s="3">
         <f>IFERROR(VLOOKUP(A165,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33331,7 +33331,7 @@
         <v>44</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E166" s="3">
         <f>IFERROR(VLOOKUP(A166,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33353,7 +33353,7 @@
         <v>45</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E167" s="3">
         <f>IFERROR(VLOOKUP(A167,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33375,7 +33375,7 @@
         <v>46</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E168" s="3">
         <f>IFERROR(VLOOKUP(A168,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33397,7 +33397,7 @@
         <v>47</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E169" s="3">
         <f>IFERROR(VLOOKUP(A169,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33419,7 +33419,7 @@
         <v>51</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E170" s="3">
         <f>IFERROR(VLOOKUP(A170,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33441,7 +33441,7 @@
         <v>52</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E171" s="3">
         <f>IFERROR(VLOOKUP(A171,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33463,7 +33463,7 @@
         <v>53</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E172" s="3">
         <f>IFERROR(VLOOKUP(A172,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33485,7 +33485,7 @@
         <v>54</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E173" s="3">
         <f>IFERROR(VLOOKUP(A173,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33507,7 +33507,7 @@
         <v>67</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E174" s="3">
         <f>IFERROR(VLOOKUP(A174,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33529,7 +33529,7 @@
         <v>68</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E175" s="3">
         <f>IFERROR(VLOOKUP(A175,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33551,7 +33551,7 @@
         <v>69</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E176" s="3">
         <f>IFERROR(VLOOKUP(A176,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33573,7 +33573,7 @@
         <v>70</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E177" s="3">
         <f>IFERROR(VLOOKUP(A177,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33595,7 +33595,7 @@
         <v>72</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E178" s="3">
         <f>IFERROR(VLOOKUP(A178,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33617,7 +33617,7 @@
         <v>79</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E179" s="3">
         <f>IFERROR(VLOOKUP(A179,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33639,7 +33639,7 @@
         <v>80</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E180" s="3">
         <f>IFERROR(VLOOKUP(A180,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33661,7 +33661,7 @@
         <v>81</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E181" s="3">
         <f>IFERROR(VLOOKUP(A181,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33683,7 +33683,7 @@
         <v>82</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E182" s="3">
         <f>IFERROR(VLOOKUP(A182,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33705,7 +33705,7 @@
         <v>83</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E183" s="3">
         <f>IFERROR(VLOOKUP(A183,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33727,7 +33727,7 @@
         <v>84</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E184" s="3">
         <f>IFERROR(VLOOKUP(A184,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33749,7 +33749,7 @@
         <v>85</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E185" s="3">
         <f>IFERROR(VLOOKUP(A185,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33771,7 +33771,7 @@
         <v>86</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E186" s="3">
         <f>IFERROR(VLOOKUP(A186,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33793,7 +33793,7 @@
         <v>87</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E187" s="3">
         <f>IFERROR(VLOOKUP(A187,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33815,7 +33815,7 @@
         <v>88</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E188" s="3">
         <f>IFERROR(VLOOKUP(A188,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33837,7 +33837,7 @@
         <v>89</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E189" s="3">
         <f>IFERROR(VLOOKUP(A189,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33859,7 +33859,7 @@
         <v>90</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E190" s="3">
         <f>IFERROR(VLOOKUP(A190,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33881,7 +33881,7 @@
         <v>91</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E191" s="3">
         <f>IFERROR(VLOOKUP(A191,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33903,7 +33903,7 @@
         <v>92</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E192" s="3">
         <f>IFERROR(VLOOKUP(A192,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33925,7 +33925,7 @@
         <v>93</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E193" s="3">
         <f>IFERROR(VLOOKUP(A193,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33947,7 +33947,7 @@
         <v>94</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E194" s="3">
         <f>IFERROR(VLOOKUP(A194,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33969,7 +33969,7 @@
         <v>95</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E195" s="3">
         <f>IFERROR(VLOOKUP(A195,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33991,7 +33991,7 @@
         <v>96</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E196" s="3">
         <f>IFERROR(VLOOKUP(A196,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34013,7 +34013,7 @@
         <v>97</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E197" s="3">
         <f>IFERROR(VLOOKUP(A197,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34035,7 +34035,7 @@
         <v>98</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E198" s="3">
         <f>IFERROR(VLOOKUP(A198,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34057,7 +34057,7 @@
         <v>99</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E199" s="3">
         <f>IFERROR(VLOOKUP(A199,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34079,7 +34079,7 @@
         <v>100</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E200" s="3">
         <f>IFERROR(VLOOKUP(A200,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34101,7 +34101,7 @@
         <v>102</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E201" s="3">
         <f>IFERROR(VLOOKUP(A201,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34123,7 +34123,7 @@
         <v>103</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E202" s="3">
         <f>IFERROR(VLOOKUP(A202,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34145,7 +34145,7 @@
         <v>104</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E203" s="3">
         <f>IFERROR(VLOOKUP(A203,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34167,7 +34167,7 @@
         <v>105</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E204" s="3">
         <f>IFERROR(VLOOKUP(A204,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34189,7 +34189,7 @@
         <v>106</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E205" s="3">
         <f>IFERROR(VLOOKUP(A205,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34211,7 +34211,7 @@
         <v>107</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E206" s="3">
         <f>IFERROR(VLOOKUP(A206,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34233,7 +34233,7 @@
         <v>108</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E207" s="3">
         <f>IFERROR(VLOOKUP(A207,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34255,7 +34255,7 @@
         <v>109</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E208" s="3">
         <f>IFERROR(VLOOKUP(A208,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34277,7 +34277,7 @@
         <v>110</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E209" s="3">
         <f>IFERROR(VLOOKUP(A209,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34299,7 +34299,7 @@
         <v>118</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E210" s="3">
         <f>IFERROR(VLOOKUP(A210,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34321,7 +34321,7 @@
         <v>119</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E211" s="3">
         <f>IFERROR(VLOOKUP(A211,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34343,7 +34343,7 @@
         <v>120</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E212" s="3">
         <f>IFERROR(VLOOKUP(A212,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34365,7 +34365,7 @@
         <v>121</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E213" s="3">
         <f>IFERROR(VLOOKUP(A213,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34387,7 +34387,7 @@
         <v>122</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E214" s="3">
         <f>IFERROR(VLOOKUP(A214,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34409,7 +34409,7 @@
         <v>123</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E215" s="3">
         <f>IFERROR(VLOOKUP(A215,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34431,7 +34431,7 @@
         <v>124</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E216" s="3">
         <f>IFERROR(VLOOKUP(A216,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34453,7 +34453,7 @@
         <v>125</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E217" s="3">
         <f>IFERROR(VLOOKUP(A217,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34475,7 +34475,7 @@
         <v>126</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E218" s="3">
         <f>IFERROR(VLOOKUP(A218,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34497,7 +34497,7 @@
         <v>127</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E219" s="3">
         <f>IFERROR(VLOOKUP(A219,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34519,7 +34519,7 @@
         <v>128</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E220" s="3">
         <f>IFERROR(VLOOKUP(A220,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34541,7 +34541,7 @@
         <v>129</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E221" s="3">
         <f>IFERROR(VLOOKUP(A221,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34563,7 +34563,7 @@
         <v>130</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E222" s="3">
         <f>IFERROR(VLOOKUP(A222,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34585,7 +34585,7 @@
         <v>131</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E223" s="3">
         <f>IFERROR(VLOOKUP(A223,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34607,7 +34607,7 @@
         <v>132</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E224" s="3">
         <f>IFERROR(VLOOKUP(A224,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34629,7 +34629,7 @@
         <v>133</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E225" s="3">
         <f>IFERROR(VLOOKUP(A225,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34651,7 +34651,7 @@
         <v>134</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E226" s="3">
         <f>IFERROR(VLOOKUP(A226,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34673,7 +34673,7 @@
         <v>135</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E227" s="3">
         <f>IFERROR(VLOOKUP(A227,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34695,7 +34695,7 @@
         <v>136</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E228" s="3">
         <f>IFERROR(VLOOKUP(A228,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34717,7 +34717,7 @@
         <v>137</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E229" s="3">
         <f>IFERROR(VLOOKUP(A229,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34739,7 +34739,7 @@
         <v>138</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E230" s="3">
         <f>IFERROR(VLOOKUP(A230,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34761,7 +34761,7 @@
         <v>139</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E231" s="3">
         <f>IFERROR(VLOOKUP(A231,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34783,7 +34783,7 @@
         <v>140</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E232" s="3">
         <f>IFERROR(VLOOKUP(A232,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34805,7 +34805,7 @@
         <v>141</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E233" s="3">
         <f>IFERROR(VLOOKUP(A233,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34821,13 +34821,13 @@
         <v>5844</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E234" s="3">
         <f>IFERROR(VLOOKUP(A234,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34849,7 +34849,7 @@
         <v>142</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E235" s="3">
         <f>IFERROR(VLOOKUP(A235,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34871,7 +34871,7 @@
         <v>143</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E236" s="3">
         <f>IFERROR(VLOOKUP(A236,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34893,7 +34893,7 @@
         <v>144</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E237" s="3">
         <f>IFERROR(VLOOKUP(A237,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34915,7 +34915,7 @@
         <v>156</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E238" s="3">
         <f>IFERROR(VLOOKUP(A238,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34937,7 +34937,7 @@
         <v>157</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E239" s="3">
         <f>IFERROR(VLOOKUP(A239,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34959,7 +34959,7 @@
         <v>158</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E240" s="3">
         <f>IFERROR(VLOOKUP(A240,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34981,7 +34981,7 @@
         <v>159</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E241" s="3">
         <f>IFERROR(VLOOKUP(A241,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35003,7 +35003,7 @@
         <v>160</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E242" s="3">
         <f>IFERROR(VLOOKUP(A242,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35025,7 +35025,7 @@
         <v>161</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E243" s="3">
         <f>IFERROR(VLOOKUP(A243,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35047,7 +35047,7 @@
         <v>162</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E244" s="3">
         <f>IFERROR(VLOOKUP(A244,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35069,7 +35069,7 @@
         <v>164</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E245" s="3">
         <f>IFERROR(VLOOKUP(A245,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35091,7 +35091,7 @@
         <v>165</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E246" s="3">
         <f>IFERROR(VLOOKUP(A246,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35113,7 +35113,7 @@
         <v>173</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E247" s="3">
         <f>IFERROR(VLOOKUP(A247,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35129,13 +35129,13 @@
         <v>5889</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E248" s="3">
         <f>IFERROR(VLOOKUP(A248,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35157,7 +35157,7 @@
         <v>174</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E249" s="3">
         <f>IFERROR(VLOOKUP(A249,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35173,13 +35173,13 @@
         <v>967</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E250" s="3">
         <f>IFERROR(VLOOKUP(A250,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35195,13 +35195,13 @@
         <v>990</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E251" s="3">
         <f>IFERROR(VLOOKUP(A251,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35217,13 +35217,13 @@
         <v>2623</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>202</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E252" s="3">
         <f>IFERROR(VLOOKUP(A252,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35239,13 +35239,13 @@
         <v>1040</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>203</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E253" s="3">
         <f>IFERROR(VLOOKUP(A253,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35261,13 +35261,13 @@
         <v>5794</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E254" s="3">
         <f>IFERROR(VLOOKUP(A254,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35283,13 +35283,13 @@
         <v>5795</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>206</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E255" s="3">
         <f>IFERROR(VLOOKUP(A255,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35305,13 +35305,13 @@
         <v>5678</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>207</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E256" s="3">
         <f>IFERROR(VLOOKUP(A256,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35327,13 +35327,13 @@
         <v>1067</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>208</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E257" s="3">
         <f>IFERROR(VLOOKUP(A257,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35349,13 +35349,13 @@
         <v>1066</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>209</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E258" s="3">
         <f>IFERROR(VLOOKUP(A258,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35371,13 +35371,13 @@
         <v>441</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E259" s="3">
         <f>IFERROR(VLOOKUP(A259,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35393,13 +35393,13 @@
         <v>432</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>212</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E260" s="3">
         <f>IFERROR(VLOOKUP(A260,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35415,13 +35415,13 @@
         <v>3899</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>213</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E261" s="3">
         <f>IFERROR(VLOOKUP(A261,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35437,13 +35437,13 @@
         <v>433</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>214</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E262" s="3">
         <f>IFERROR(VLOOKUP(A262,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35459,13 +35459,13 @@
         <v>438</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>215</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E263" s="3">
         <f>IFERROR(VLOOKUP(A263,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35481,13 +35481,13 @@
         <v>445</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>216</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E264" s="3">
         <f>IFERROR(VLOOKUP(A264,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35503,13 +35503,13 @@
         <v>5806</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>217</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E265" s="3">
         <f>IFERROR(VLOOKUP(A265,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35525,13 +35525,13 @@
         <v>1086</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>218</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E266" s="3">
         <f>IFERROR(VLOOKUP(A266,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35547,13 +35547,13 @@
         <v>1103</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>219</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E267" s="3">
         <f>IFERROR(VLOOKUP(A267,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35569,13 +35569,13 @@
         <v>4308</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>220</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E268" s="3">
         <f>IFERROR(VLOOKUP(A268,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35591,13 +35591,13 @@
         <v>4507</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>221</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E269" s="3">
         <f>IFERROR(VLOOKUP(A269,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35613,13 +35613,13 @@
         <v>4122</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>222</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E270" s="3">
         <f>IFERROR(VLOOKUP(A270,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35635,13 +35635,13 @@
         <v>4121</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>223</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E271" s="3">
         <f>IFERROR(VLOOKUP(A271,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35657,13 +35657,13 @@
         <v>1108</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>224</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E272" s="3">
         <f>IFERROR(VLOOKUP(A272,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35679,13 +35679,13 @@
         <v>5871</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>225</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E273" s="3">
         <f>IFERROR(VLOOKUP(A273,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35701,13 +35701,13 @@
         <v>5870</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>226</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E274" s="3">
         <f>IFERROR(VLOOKUP(A274,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35723,13 +35723,13 @@
         <v>4971</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>227</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E275" s="3">
         <f>IFERROR(VLOOKUP(A275,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35745,13 +35745,13 @@
         <v>5712</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>228</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E276" s="3">
         <f>IFERROR(VLOOKUP(A276,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35767,13 +35767,13 @@
         <v>1150</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>230</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E277" s="3">
         <f>IFERROR(VLOOKUP(A277,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35789,13 +35789,13 @@
         <v>2174</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>231</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E278" s="3">
         <f>IFERROR(VLOOKUP(A278,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35811,13 +35811,13 @@
         <v>1144</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>232</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E279" s="3">
         <f>IFERROR(VLOOKUP(A279,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35833,13 +35833,13 @@
         <v>1148</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>233</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E280" s="3">
         <f>IFERROR(VLOOKUP(A280,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35855,13 +35855,13 @@
         <v>5881</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E281" s="3">
         <f>IFERROR(VLOOKUP(A281,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35877,13 +35877,13 @@
         <v>5842</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E282" s="3">
         <f>IFERROR(VLOOKUP(A282,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35899,13 +35899,13 @@
         <v>4415</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>263</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E283" s="3">
         <f>IFERROR(VLOOKUP(A283,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35921,13 +35921,13 @@
         <v>1243</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>264</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E284" s="3">
         <f>IFERROR(VLOOKUP(A284,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35943,13 +35943,13 @@
         <v>3900</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>265</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E285" s="3">
         <f>IFERROR(VLOOKUP(A285,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35965,13 +35965,13 @@
         <v>5809</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>266</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E286" s="3">
         <f>IFERROR(VLOOKUP(A286,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35987,13 +35987,13 @@
         <v>5750</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E287" s="3">
         <f>IFERROR(VLOOKUP(A287,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36009,13 +36009,13 @@
         <v>5751</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>268</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E288" s="3">
         <f>IFERROR(VLOOKUP(A288,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36031,13 +36031,13 @@
         <v>5882</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E289" s="3">
         <f>IFERROR(VLOOKUP(A289,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36053,13 +36053,13 @@
         <v>5762</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>269</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E290" s="3">
         <f>IFERROR(VLOOKUP(A290,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36075,13 +36075,13 @@
         <v>4425</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>270</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E291" s="3">
         <f>IFERROR(VLOOKUP(A291,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36097,13 +36097,13 @@
         <v>1305</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>272</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E292" s="3">
         <f>IFERROR(VLOOKUP(A292,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36119,13 +36119,13 @@
         <v>1307</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>273</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E293" s="3">
         <f>IFERROR(VLOOKUP(A293,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36141,13 +36141,13 @@
         <v>1311</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>274</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E294" s="3">
         <f>IFERROR(VLOOKUP(A294,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36163,13 +36163,13 @@
         <v>1314</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>275</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E295" s="3">
         <f>IFERROR(VLOOKUP(A295,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36185,13 +36185,13 @@
         <v>1313</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>276</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E296" s="3">
         <f>IFERROR(VLOOKUP(A296,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36207,13 +36207,13 @@
         <v>1322</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>277</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E297" s="3">
         <f>IFERROR(VLOOKUP(A297,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36229,13 +36229,13 @@
         <v>1328</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>278</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E298" s="3">
         <f>IFERROR(VLOOKUP(A298,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36251,13 +36251,13 @@
         <v>5812</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>279</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E299" s="3">
         <f>IFERROR(VLOOKUP(A299,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36273,13 +36273,13 @@
         <v>5823</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>280</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E300" s="3">
         <f>IFERROR(VLOOKUP(A300,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36295,13 +36295,13 @@
         <v>1340</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>281</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E301" s="3">
         <f>IFERROR(VLOOKUP(A301,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36317,13 +36317,13 @@
         <v>4124</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>284</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E302" s="3">
         <f>IFERROR(VLOOKUP(A302,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36339,13 +36339,13 @@
         <v>1419</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>286</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E303" s="3">
         <f>IFERROR(VLOOKUP(A303,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36361,13 +36361,13 @@
         <v>1414</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>287</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E304" s="3">
         <f>IFERROR(VLOOKUP(A304,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36383,13 +36383,13 @@
         <v>5808</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>288</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E305" s="3">
         <f>IFERROR(VLOOKUP(A305,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36405,13 +36405,13 @@
         <v>5807</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>289</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E306" s="3">
         <f>IFERROR(VLOOKUP(A306,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36427,13 +36427,13 @@
         <v>5757</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E307" s="3">
         <f>IFERROR(VLOOKUP(A307,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36449,13 +36449,13 @@
         <v>5766</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>291</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E308" s="3">
         <f>IFERROR(VLOOKUP(A308,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36471,13 +36471,13 @@
         <v>5756</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>292</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E309" s="3">
         <f>IFERROR(VLOOKUP(A309,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36493,13 +36493,13 @@
         <v>1408</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>293</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E310" s="3">
         <f>IFERROR(VLOOKUP(A310,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36515,13 +36515,13 @@
         <v>1404</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>294</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E311" s="3">
         <f>IFERROR(VLOOKUP(A311,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36537,13 +36537,13 @@
         <v>1406</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>295</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E312" s="3">
         <f>IFERROR(VLOOKUP(A312,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36559,13 +36559,13 @@
         <v>1407</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>296</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E313" s="3">
         <f>IFERROR(VLOOKUP(A313,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36581,13 +36581,13 @@
         <v>1460</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>297</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E314" s="3">
         <f>IFERROR(VLOOKUP(A314,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36603,13 +36603,13 @@
         <v>1503</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>298</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E315" s="3">
         <f>IFERROR(VLOOKUP(A315,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36625,13 +36625,13 @@
         <v>1448</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>299</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E316" s="3">
         <f>IFERROR(VLOOKUP(A316,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36647,13 +36647,13 @@
         <v>1456</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>300</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E317" s="3">
         <f>IFERROR(VLOOKUP(A317,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36669,13 +36669,13 @@
         <v>1454</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>301</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E318" s="3">
         <f>IFERROR(VLOOKUP(A318,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36691,13 +36691,13 @@
         <v>1453</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>302</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E319" s="3">
         <f>IFERROR(VLOOKUP(A319,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36713,13 +36713,13 @@
         <v>3490</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>303</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E320" s="3">
         <f>IFERROR(VLOOKUP(A320,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36735,13 +36735,13 @@
         <v>3491</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>304</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E321" s="3">
         <f>IFERROR(VLOOKUP(A321,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36757,13 +36757,13 @@
         <v>3489</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>305</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E322" s="3">
         <f>IFERROR(VLOOKUP(A322,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36779,13 +36779,13 @@
         <v>1463</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>306</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E323" s="3">
         <f>IFERROR(VLOOKUP(A323,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36801,13 +36801,13 @@
         <v>3488</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>307</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E324" s="3">
         <f>IFERROR(VLOOKUP(A324,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36823,13 +36823,13 @@
         <v>1462</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>308</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E325" s="3">
         <f>IFERROR(VLOOKUP(A325,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36845,13 +36845,13 @@
         <v>5877</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D326" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E326" s="3">
         <f>IFERROR(VLOOKUP(A326,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36867,13 +36867,13 @@
         <v>5878</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D327" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E327" s="3">
         <f>IFERROR(VLOOKUP(A327,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36889,13 +36889,13 @@
         <v>5879</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D328" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E328" s="3">
         <f>IFERROR(VLOOKUP(A328,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36911,13 +36911,13 @@
         <v>5880</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D329" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E329" s="3">
         <f>IFERROR(VLOOKUP(A329,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36933,13 +36933,13 @@
         <v>1513</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>309</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E330" s="3">
         <f>IFERROR(VLOOKUP(A330,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36955,13 +36955,13 @@
         <v>1514</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>310</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E331" s="3">
         <f>IFERROR(VLOOKUP(A331,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36977,13 +36977,13 @@
         <v>1515</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>311</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E332" s="3">
         <f>IFERROR(VLOOKUP(A332,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36999,13 +36999,13 @@
         <v>1509</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>312</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E333" s="3">
         <f>IFERROR(VLOOKUP(A333,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37021,13 +37021,13 @@
         <v>1738</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>313</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E334" s="3">
         <f>IFERROR(VLOOKUP(A334,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37043,13 +37043,13 @@
         <v>5835</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>314</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E335" s="3">
         <f>IFERROR(VLOOKUP(A335,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37065,13 +37065,13 @@
         <v>1511</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>315</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E336" s="3">
         <f>IFERROR(VLOOKUP(A336,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37087,13 +37087,13 @@
         <v>5620</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>316</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E337" s="3">
         <f>IFERROR(VLOOKUP(A337,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37109,13 +37109,13 @@
         <v>5622</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>317</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E338" s="3">
         <f>IFERROR(VLOOKUP(A338,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37131,13 +37131,13 @@
         <v>1526</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>318</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E339" s="3">
         <f>IFERROR(VLOOKUP(A339,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37153,13 +37153,13 @@
         <v>1525</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>319</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E340" s="3">
         <f>IFERROR(VLOOKUP(A340,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37175,13 +37175,13 @@
         <v>5883</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D341" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E341" s="3">
         <f>IFERROR(VLOOKUP(A341,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37197,13 +37197,13 @@
         <v>270</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>320</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E342" s="3">
         <f>IFERROR(VLOOKUP(A342,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37219,13 +37219,13 @@
         <v>5680</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>321</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E343" s="3">
         <f>IFERROR(VLOOKUP(A343,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37241,13 +37241,13 @@
         <v>5755</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>322</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E344" s="3">
         <f>IFERROR(VLOOKUP(A344,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37263,13 +37263,13 @@
         <v>1437</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>323</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E345" s="3">
         <f>IFERROR(VLOOKUP(A345,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37285,13 +37285,13 @@
         <v>1435</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>324</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E346" s="3">
         <f>IFERROR(VLOOKUP(A346,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37307,13 +37307,13 @@
         <v>1436</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>325</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E347" s="3">
         <f>IFERROR(VLOOKUP(A347,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37329,13 +37329,13 @@
         <v>1438</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>326</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E348" s="3">
         <f>IFERROR(VLOOKUP(A348,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37351,13 +37351,13 @@
         <v>1439</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>327</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E349" s="3">
         <f>IFERROR(VLOOKUP(A349,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37373,13 +37373,13 @@
         <v>5752</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>328</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E350" s="3">
         <f>IFERROR(VLOOKUP(A350,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37395,13 +37395,13 @@
         <v>1496</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>329</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E351" s="3">
         <f>IFERROR(VLOOKUP(A351,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37417,13 +37417,13 @@
         <v>1494</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>330</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E352" s="3">
         <f>IFERROR(VLOOKUP(A352,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37439,13 +37439,13 @@
         <v>1495</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>331</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E353" s="3">
         <f>IFERROR(VLOOKUP(A353,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37461,13 +37461,13 @@
         <v>1497</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>332</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E354" s="3">
         <f>IFERROR(VLOOKUP(A354,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37483,13 +37483,13 @@
         <v>1498</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>333</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E355" s="3">
         <f>IFERROR(VLOOKUP(A355,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37505,13 +37505,13 @@
         <v>5884</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D356" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E356" s="3">
         <f>IFERROR(VLOOKUP(A356,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37527,13 +37527,13 @@
         <v>5754</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>334</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E357" s="3">
         <f>IFERROR(VLOOKUP(A357,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37549,13 +37549,13 @@
         <v>5753</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>335</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E358" s="3">
         <f>IFERROR(VLOOKUP(A358,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37571,13 +37571,13 @@
         <v>1543</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>338</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E359" s="3">
         <f>IFERROR(VLOOKUP(A359,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37593,13 +37593,13 @@
         <v>5810</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>339</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E360" s="3">
         <f>IFERROR(VLOOKUP(A360,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37615,13 +37615,13 @@
         <v>5686</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>340</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E361" s="3">
         <f>IFERROR(VLOOKUP(A361,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37637,13 +37637,13 @@
         <v>5749</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>341</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E362" s="3">
         <f>IFERROR(VLOOKUP(A362,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37659,13 +37659,13 @@
         <v>1607</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>342</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E363" s="3">
         <f>IFERROR(VLOOKUP(A363,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37681,13 +37681,13 @@
         <v>1627</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>348</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E364" s="3">
         <f>IFERROR(VLOOKUP(A364,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37703,13 +37703,13 @@
         <v>1628</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>349</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E365" s="3">
         <f>IFERROR(VLOOKUP(A365,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37725,13 +37725,13 @@
         <v>4310</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>350</v>
       </c>
       <c r="D366" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E366" s="3">
         <f>IFERROR(VLOOKUP(A366,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37747,13 +37747,13 @@
         <v>1635</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>353</v>
       </c>
       <c r="D367" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E367" s="3">
         <f>IFERROR(VLOOKUP(A367,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37769,13 +37769,13 @@
         <v>1636</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>354</v>
       </c>
       <c r="D368" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E368" s="3">
         <f>IFERROR(VLOOKUP(A368,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37791,13 +37791,13 @@
         <v>1637</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>355</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E369" s="3">
         <f>IFERROR(VLOOKUP(A369,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37813,13 +37813,13 @@
         <v>4420</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>358</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E370" s="3">
         <f>IFERROR(VLOOKUP(A370,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37835,13 +37835,13 @@
         <v>5836</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>359</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E371" s="3">
         <f>IFERROR(VLOOKUP(A371,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37857,13 +37857,13 @@
         <v>5838</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>360</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E372" s="3">
         <f>IFERROR(VLOOKUP(A372,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37879,13 +37879,13 @@
         <v>1651</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>361</v>
       </c>
       <c r="D373" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E373" s="3">
         <f>IFERROR(VLOOKUP(A373,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37901,13 +37901,13 @@
         <v>5837</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>362</v>
       </c>
       <c r="D374" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E374" s="3">
         <f>IFERROR(VLOOKUP(A374,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37923,13 +37923,13 @@
         <v>5839</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>363</v>
       </c>
       <c r="D375" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E375" s="3">
         <f>IFERROR(VLOOKUP(A375,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37945,13 +37945,13 @@
         <v>5861</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>367</v>
       </c>
       <c r="D376" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E376" s="3">
         <f>IFERROR(VLOOKUP(A376,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37967,13 +37967,13 @@
         <v>1675</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>368</v>
       </c>
       <c r="D377" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E377" s="3">
         <f>IFERROR(VLOOKUP(A377,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37989,13 +37989,13 @@
         <v>4485</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>369</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E378" s="3">
         <f>IFERROR(VLOOKUP(A378,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38011,13 +38011,13 @@
         <v>1701</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>370</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E379" s="3">
         <f>IFERROR(VLOOKUP(A379,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38033,13 +38033,13 @@
         <v>1085</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>373</v>
       </c>
       <c r="D380" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E380" s="3">
         <f>IFERROR(VLOOKUP(A380,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38055,13 +38055,13 @@
         <v>1759</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>374</v>
       </c>
       <c r="D381" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E381" s="3">
         <f>IFERROR(VLOOKUP(A381,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38077,13 +38077,13 @@
         <v>1762</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>375</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E382" s="3">
         <f>IFERROR(VLOOKUP(A382,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38099,13 +38099,13 @@
         <v>1764</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>376</v>
       </c>
       <c r="D383" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E383" s="3">
         <f>IFERROR(VLOOKUP(A383,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38121,13 +38121,13 @@
         <v>1767</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>377</v>
       </c>
       <c r="D384" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E384" s="3">
         <f>IFERROR(VLOOKUP(A384,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38143,13 +38143,13 @@
         <v>1773</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>381</v>
       </c>
       <c r="D385" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E385" s="3">
         <f>IFERROR(VLOOKUP(A385,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38165,13 +38165,13 @@
         <v>5779</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>386</v>
       </c>
       <c r="D386" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E386" s="3">
         <f>IFERROR(VLOOKUP(A386,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38187,13 +38187,13 @@
         <v>5769</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>387</v>
       </c>
       <c r="D387" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E387" s="3">
         <f>IFERROR(VLOOKUP(A387,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38209,13 +38209,13 @@
         <v>5770</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>388</v>
       </c>
       <c r="D388" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E388" s="3">
         <f>IFERROR(VLOOKUP(A388,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38231,13 +38231,13 @@
         <v>5772</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>389</v>
       </c>
       <c r="D389" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E389" s="3">
         <f>IFERROR(VLOOKUP(A389,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38253,13 +38253,13 @@
         <v>1943</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>421</v>
       </c>
       <c r="D390" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E390" s="3">
         <f>IFERROR(VLOOKUP(A390,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38275,13 +38275,13 @@
         <v>4359</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>422</v>
       </c>
       <c r="D391" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E391" s="3">
         <f>IFERROR(VLOOKUP(A391,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38297,13 +38297,13 @@
         <v>1948</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>423</v>
       </c>
       <c r="D392" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E392" s="3">
         <f>IFERROR(VLOOKUP(A392,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38319,13 +38319,13 @@
         <v>1969</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>428</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E393" s="3">
         <f>IFERROR(VLOOKUP(A393,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38341,13 +38341,13 @@
         <v>2030</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>448</v>
       </c>
       <c r="D394" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E394" s="3">
         <f>IFERROR(VLOOKUP(A394,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38363,13 +38363,13 @@
         <v>2048</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>452</v>
       </c>
       <c r="D395" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E395" s="3">
         <f>IFERROR(VLOOKUP(A395,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38385,13 +38385,13 @@
         <v>4142</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>453</v>
       </c>
       <c r="D396" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E396" s="3">
         <f>IFERROR(VLOOKUP(A396,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38407,13 +38407,13 @@
         <v>2036</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>454</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E397" s="3">
         <f>IFERROR(VLOOKUP(A397,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38429,13 +38429,13 @@
         <v>1315</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>455</v>
       </c>
       <c r="D398" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E398" s="3">
         <f>IFERROR(VLOOKUP(A398,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38451,13 +38451,13 @@
         <v>4162</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>456</v>
       </c>
       <c r="D399" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E399" s="3">
         <f>IFERROR(VLOOKUP(A399,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38473,13 +38473,13 @@
         <v>2078</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>457</v>
       </c>
       <c r="D400" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E400" s="3">
         <f>IFERROR(VLOOKUP(A400,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38495,13 +38495,13 @@
         <v>5632</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>458</v>
       </c>
       <c r="D401" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E401" s="3">
         <f>IFERROR(VLOOKUP(A401,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38517,13 +38517,13 @@
         <v>2079</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>459</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E402" s="3">
         <f>IFERROR(VLOOKUP(A402,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38539,13 +38539,13 @@
         <v>2080</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>460</v>
       </c>
       <c r="D403" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E403" s="3">
         <f>IFERROR(VLOOKUP(A403,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38561,13 +38561,13 @@
         <v>5700</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>461</v>
       </c>
       <c r="D404" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E404" s="3">
         <f>IFERROR(VLOOKUP(A404,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38583,13 +38583,13 @@
         <v>5105</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>462</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E405" s="3">
         <f>IFERROR(VLOOKUP(A405,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38605,13 +38605,13 @@
         <v>4060</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>463</v>
       </c>
       <c r="D406" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E406" s="3">
         <f>IFERROR(VLOOKUP(A406,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38627,13 +38627,13 @@
         <v>2133</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D407" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E407" s="3">
         <f>IFERROR(VLOOKUP(A407,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38649,13 +38649,13 @@
         <v>2132</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>465</v>
       </c>
       <c r="D408" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E408" s="3">
         <f>IFERROR(VLOOKUP(A408,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38671,13 +38671,13 @@
         <v>2140</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>466</v>
       </c>
       <c r="D409" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E409" s="3">
         <f>IFERROR(VLOOKUP(A409,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38693,13 +38693,13 @@
         <v>2142</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>467</v>
       </c>
       <c r="D410" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E410" s="3">
         <f>IFERROR(VLOOKUP(A410,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38715,13 +38715,13 @@
         <v>2147</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>468</v>
       </c>
       <c r="D411" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E411" s="3">
         <f>IFERROR(VLOOKUP(A411,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38737,13 +38737,13 @@
         <v>2149</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>469</v>
       </c>
       <c r="D412" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E412" s="3">
         <f>IFERROR(VLOOKUP(A412,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38765,7 +38765,7 @@
         <v>6</v>
       </c>
       <c r="D413" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E413" s="3">
         <f>IFERROR(VLOOKUP(A413,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38787,7 +38787,7 @@
         <v>7</v>
       </c>
       <c r="D414" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E414" s="3">
         <f>IFERROR(VLOOKUP(A414,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38809,7 +38809,7 @@
         <v>8</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E415" s="3">
         <f>IFERROR(VLOOKUP(A415,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38831,7 +38831,7 @@
         <v>9</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E416" s="3">
         <f>IFERROR(VLOOKUP(A416,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38853,7 +38853,7 @@
         <v>10</v>
       </c>
       <c r="D417" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E417" s="3">
         <f>IFERROR(VLOOKUP(A417,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38875,7 +38875,7 @@
         <v>101</v>
       </c>
       <c r="D418" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E418" s="3">
         <f>IFERROR(VLOOKUP(A418,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38897,7 +38897,7 @@
         <v>150</v>
       </c>
       <c r="D419" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E419" s="3">
         <f>IFERROR(VLOOKUP(A419,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38919,7 +38919,7 @@
         <v>151</v>
       </c>
       <c r="D420" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E420" s="3">
         <f>IFERROR(VLOOKUP(A420,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38941,7 +38941,7 @@
         <v>152</v>
       </c>
       <c r="D421" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E421" s="3">
         <f>IFERROR(VLOOKUP(A421,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38963,7 +38963,7 @@
         <v>153</v>
       </c>
       <c r="D422" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E422" s="3">
         <f>IFERROR(VLOOKUP(A422,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38985,7 +38985,7 @@
         <v>154</v>
       </c>
       <c r="D423" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E423" s="3">
         <f>IFERROR(VLOOKUP(A423,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39007,7 +39007,7 @@
         <v>155</v>
       </c>
       <c r="D424" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E424" s="3">
         <f>IFERROR(VLOOKUP(A424,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39023,13 +39023,13 @@
         <v>2456</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>204</v>
       </c>
       <c r="D425" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E425" s="3">
         <f>IFERROR(VLOOKUP(A425,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39045,13 +39045,13 @@
         <v>1862</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>390</v>
       </c>
       <c r="D426" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E426" s="3">
         <f>IFERROR(VLOOKUP(A426,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39067,13 +39067,13 @@
         <v>1861</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>391</v>
       </c>
       <c r="D427" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E427" s="3">
         <f>IFERROR(VLOOKUP(A427,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39089,13 +39089,13 @@
         <v>1834</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>392</v>
       </c>
       <c r="D428" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E428" s="3">
         <f>IFERROR(VLOOKUP(A428,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39111,13 +39111,13 @@
         <v>1854</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>393</v>
       </c>
       <c r="D429" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E429" s="3">
         <f>IFERROR(VLOOKUP(A429,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39133,13 +39133,13 @@
         <v>1855</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>394</v>
       </c>
       <c r="D430" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E430" s="3">
         <f>IFERROR(VLOOKUP(A430,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39155,13 +39155,13 @@
         <v>1857</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>395</v>
       </c>
       <c r="D431" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E431" s="3">
         <f>IFERROR(VLOOKUP(A431,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39177,13 +39177,13 @@
         <v>1858</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>396</v>
       </c>
       <c r="D432" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E432" s="3">
         <f>IFERROR(VLOOKUP(A432,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39199,13 +39199,13 @@
         <v>1864</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>397</v>
       </c>
       <c r="D433" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E433" s="3">
         <f>IFERROR(VLOOKUP(A433,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39221,13 +39221,13 @@
         <v>1860</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>398</v>
       </c>
       <c r="D434" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E434" s="3">
         <f>IFERROR(VLOOKUP(A434,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39243,13 +39243,13 @@
         <v>1865</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>399</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E435" s="3">
         <f>IFERROR(VLOOKUP(A435,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39265,13 +39265,13 @@
         <v>1866</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>400</v>
       </c>
       <c r="D436" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E436" s="3">
         <f>IFERROR(VLOOKUP(A436,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39287,13 +39287,13 @@
         <v>1868</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>401</v>
       </c>
       <c r="D437" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E437" s="3">
         <f>IFERROR(VLOOKUP(A437,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39309,13 +39309,13 @@
         <v>1869</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>402</v>
       </c>
       <c r="D438" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E438" s="3">
         <f>IFERROR(VLOOKUP(A438,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39331,13 +39331,13 @@
         <v>1870</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>403</v>
       </c>
       <c r="D439" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E439" s="3">
         <f>IFERROR(VLOOKUP(A439,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39353,13 +39353,13 @@
         <v>1871</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>404</v>
       </c>
       <c r="D440" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E440" s="3">
         <f>IFERROR(VLOOKUP(A440,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39375,13 +39375,13 @@
         <v>1872</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>405</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E441" s="3">
         <f>IFERROR(VLOOKUP(A441,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39397,13 +39397,13 @@
         <v>1874</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>406</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E442" s="3">
         <f>IFERROR(VLOOKUP(A442,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39419,13 +39419,13 @@
         <v>1875</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>407</v>
       </c>
       <c r="D443" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E443" s="3">
         <f>IFERROR(VLOOKUP(A443,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39441,13 +39441,13 @@
         <v>1878</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>408</v>
       </c>
       <c r="D444" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E444" s="3">
         <f>IFERROR(VLOOKUP(A444,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39463,13 +39463,13 @@
         <v>1883</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>409</v>
       </c>
       <c r="D445" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E445" s="3">
         <f>IFERROR(VLOOKUP(A445,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39485,13 +39485,13 @@
         <v>1885</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>410</v>
       </c>
       <c r="D446" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E446" s="3">
         <f>IFERROR(VLOOKUP(A446,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39507,13 +39507,13 @@
         <v>1879</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>411</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E447" s="3">
         <f>IFERROR(VLOOKUP(A447,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39529,13 +39529,13 @@
         <v>1884</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>412</v>
       </c>
       <c r="D448" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E448" s="3">
         <f>IFERROR(VLOOKUP(A448,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39551,13 +39551,13 @@
         <v>1556</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>435</v>
       </c>
       <c r="D449" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E449" s="3">
         <f>IFERROR(VLOOKUP(A449,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39573,13 +39573,13 @@
         <v>1575</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>436</v>
       </c>
       <c r="D450" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E450" s="3">
         <f>IFERROR(VLOOKUP(A450,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39595,13 +39595,13 @@
         <v>1576</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>437</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E451" s="3">
         <f>IFERROR(VLOOKUP(A451,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39617,13 +39617,13 @@
         <v>1557</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>438</v>
       </c>
       <c r="D452" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E452" s="3">
         <f>IFERROR(VLOOKUP(A452,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39639,13 +39639,13 @@
         <v>1578</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>439</v>
       </c>
       <c r="D453" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E453" s="3">
         <f>IFERROR(VLOOKUP(A453,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39661,13 +39661,13 @@
         <v>1558</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>440</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E454" s="3">
         <f>IFERROR(VLOOKUP(A454,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39683,13 +39683,13 @@
         <v>1577</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>441</v>
       </c>
       <c r="D455" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E455" s="3">
         <f>IFERROR(VLOOKUP(A455,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39705,13 +39705,13 @@
         <v>1559</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>442</v>
       </c>
       <c r="D456" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E456" s="3">
         <f>IFERROR(VLOOKUP(A456,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39727,13 +39727,13 @@
         <v>1582</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>443</v>
       </c>
       <c r="D457" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E457" s="3">
         <f>IFERROR(VLOOKUP(A457,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39749,13 +39749,13 @@
         <v>1560</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>444</v>
       </c>
       <c r="D458" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E458" s="3">
         <f>IFERROR(VLOOKUP(A458,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39771,13 +39771,13 @@
         <v>1583</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>445</v>
       </c>
       <c r="D459" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E459" s="3">
         <f>IFERROR(VLOOKUP(A459,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39793,13 +39793,13 @@
         <v>1584</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>446</v>
       </c>
       <c r="D460" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E460" s="3">
         <f>IFERROR(VLOOKUP(A460,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39815,13 +39815,13 @@
         <v>1561</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>447</v>
       </c>
       <c r="D461" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E461" s="3">
         <f>IFERROR(VLOOKUP(A461,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39837,13 +39837,13 @@
         <v>4454</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>470</v>
       </c>
       <c r="D462" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E462" s="3">
         <f>IFERROR(VLOOKUP(A462,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39859,13 +39859,13 @@
         <v>4451</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>471</v>
       </c>
       <c r="D463" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E463" s="3">
         <f>IFERROR(VLOOKUP(A463,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39881,13 +39881,13 @@
         <v>4453</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>472</v>
       </c>
       <c r="D464" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E464" s="3">
         <f>IFERROR(VLOOKUP(A464,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39903,13 +39903,13 @@
         <v>2694</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>473</v>
       </c>
       <c r="D465" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E465" s="3">
         <f>IFERROR(VLOOKUP(A465,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39925,13 +39925,13 @@
         <v>2693</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>474</v>
       </c>
       <c r="D466" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E466" s="3">
         <f>IFERROR(VLOOKUP(A466,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39947,13 +39947,13 @@
         <v>2688</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>475</v>
       </c>
       <c r="D467" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E467" s="3">
         <f>IFERROR(VLOOKUP(A467,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39969,13 +39969,13 @@
         <v>2685</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>476</v>
       </c>
       <c r="D468" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E468" s="3">
         <f>IFERROR(VLOOKUP(A468,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39991,13 +39991,13 @@
         <v>4447</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>477</v>
       </c>
       <c r="D469" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E469" s="3">
         <f>IFERROR(VLOOKUP(A469,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40013,13 +40013,13 @@
         <v>4446</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>478</v>
       </c>
       <c r="D470" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E470" s="3">
         <f>IFERROR(VLOOKUP(A470,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40035,13 +40035,13 @@
         <v>2689</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>479</v>
       </c>
       <c r="D471" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E471" s="3">
         <f>IFERROR(VLOOKUP(A471,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40057,13 +40057,13 @@
         <v>4448</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>480</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E472" s="3">
         <f>IFERROR(VLOOKUP(A472,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40079,13 +40079,13 @@
         <v>5215</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>481</v>
       </c>
       <c r="D473" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E473" s="3">
         <f>IFERROR(VLOOKUP(A473,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40101,13 +40101,13 @@
         <v>2713</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>482</v>
       </c>
       <c r="D474" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E474" s="3">
         <f>IFERROR(VLOOKUP(A474,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40123,13 +40123,13 @@
         <v>5566</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>483</v>
       </c>
       <c r="D475" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E475" s="3">
         <f>IFERROR(VLOOKUP(A475,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40145,13 +40145,13 @@
         <v>5275</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>484</v>
       </c>
       <c r="D476" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E476" s="3">
         <f>IFERROR(VLOOKUP(A476,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40167,13 +40167,13 @@
         <v>5274</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>485</v>
       </c>
       <c r="D477" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E477" s="3">
         <f>IFERROR(VLOOKUP(A477,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40189,13 +40189,13 @@
         <v>2104</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D478" s="5" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E478" s="3">
         <f>IFERROR(VLOOKUP(A478,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40211,13 +40211,13 @@
         <v>4396</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>486</v>
       </c>
       <c r="D479" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E479" s="3">
         <f>IFERROR(VLOOKUP(A479,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40233,13 +40233,13 @@
         <v>4397</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>487</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E480" s="3">
         <f>IFERROR(VLOOKUP(A480,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40255,13 +40255,13 @@
         <v>4402</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>488</v>
       </c>
       <c r="D481" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E481" s="3">
         <f>IFERROR(VLOOKUP(A481,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40277,13 +40277,13 @@
         <v>4405</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>489</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E482" s="3">
         <f>IFERROR(VLOOKUP(A482,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40299,13 +40299,13 @@
         <v>4400</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>490</v>
       </c>
       <c r="D483" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E483" s="3">
         <f>IFERROR(VLOOKUP(A483,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40321,13 +40321,13 @@
         <v>2105</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>491</v>
       </c>
       <c r="D484" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E484" s="3">
         <f>IFERROR(VLOOKUP(A484,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40343,13 +40343,13 @@
         <v>2527</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D485" s="5" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E485" s="3">
         <f>IFERROR(VLOOKUP(A485,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40365,13 +40365,13 @@
         <v>2669</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>492</v>
       </c>
       <c r="D486" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E486" s="3">
         <f>IFERROR(VLOOKUP(A486,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40387,13 +40387,13 @@
         <v>2711</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>493</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E487" s="3">
         <f>IFERROR(VLOOKUP(A487,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40409,13 +40409,13 @@
         <v>2695</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>494</v>
       </c>
       <c r="D488" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E488" s="3">
         <f>IFERROR(VLOOKUP(A488,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40431,13 +40431,13 @@
         <v>2161</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>495</v>
       </c>
       <c r="D489" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E489" s="3">
         <f>IFERROR(VLOOKUP(A489,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40453,13 +40453,13 @@
         <v>3761</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>496</v>
       </c>
       <c r="D490" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E490" s="3">
         <f>IFERROR(VLOOKUP(A490,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40475,13 +40475,13 @@
         <v>1946</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D491" s="5" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E491" s="3">
         <f>IFERROR(VLOOKUP(A491,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40503,7 +40503,7 @@
         <v>2</v>
       </c>
       <c r="D492" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E492" s="3">
         <f>IFERROR(VLOOKUP(A492,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40525,7 +40525,7 @@
         <v>36</v>
       </c>
       <c r="D493" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E493" s="3">
         <f>IFERROR(VLOOKUP(A493,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40547,7 +40547,7 @@
         <v>37</v>
       </c>
       <c r="D494" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E494" s="3">
         <f>IFERROR(VLOOKUP(A494,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40569,7 +40569,7 @@
         <v>38</v>
       </c>
       <c r="D495" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E495" s="3">
         <f>IFERROR(VLOOKUP(A495,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40591,7 +40591,7 @@
         <v>50</v>
       </c>
       <c r="D496" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E496" s="3">
         <f>IFERROR(VLOOKUP(A496,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40613,7 +40613,7 @@
         <v>145</v>
       </c>
       <c r="D497" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E497" s="3">
         <f>IFERROR(VLOOKUP(A497,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40635,7 +40635,7 @@
         <v>146</v>
       </c>
       <c r="D498" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E498" s="3">
         <f>IFERROR(VLOOKUP(A498,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40657,7 +40657,7 @@
         <v>147</v>
       </c>
       <c r="D499" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E499" s="3">
         <f>IFERROR(VLOOKUP(A499,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40679,7 +40679,7 @@
         <v>148</v>
       </c>
       <c r="D500" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E500" s="3">
         <f>IFERROR(VLOOKUP(A500,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40701,7 +40701,7 @@
         <v>149</v>
       </c>
       <c r="D501" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E501" s="3">
         <f>IFERROR(VLOOKUP(A501,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40723,7 +40723,7 @@
         <v>175</v>
       </c>
       <c r="D502" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E502" s="3">
         <f>IFERROR(VLOOKUP(A502,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40739,13 +40739,13 @@
         <v>961</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C503" s="4" t="s">
         <v>194</v>
       </c>
       <c r="D503" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E503" s="3">
         <f>IFERROR(VLOOKUP(A503,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40761,13 +40761,13 @@
         <v>962</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C504" s="4" t="s">
         <v>195</v>
       </c>
       <c r="D504" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E504" s="3">
         <f>IFERROR(VLOOKUP(A504,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40783,13 +40783,13 @@
         <v>963</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C505" s="4" t="s">
         <v>196</v>
       </c>
       <c r="D505" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E505" s="3">
         <f>IFERROR(VLOOKUP(A505,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40805,13 +40805,13 @@
         <v>966</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C506" s="4" t="s">
         <v>197</v>
       </c>
       <c r="D506" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E506" s="3">
         <f>IFERROR(VLOOKUP(A506,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40827,13 +40827,13 @@
         <v>968</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C507" s="4" t="s">
         <v>198</v>
       </c>
       <c r="D507" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E507" s="3">
         <f>IFERROR(VLOOKUP(A507,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40849,13 +40849,13 @@
         <v>994</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C508" s="4" t="s">
         <v>201</v>
       </c>
       <c r="D508" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E508" s="3">
         <f>IFERROR(VLOOKUP(A508,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40871,13 +40871,13 @@
         <v>1527</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C509" s="4" t="s">
         <v>336</v>
       </c>
       <c r="D509" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E509" s="3">
         <f>IFERROR(VLOOKUP(A509,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40893,13 +40893,13 @@
         <v>1528</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C510" s="4" t="s">
         <v>337</v>
       </c>
       <c r="D510" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E510" s="3">
         <f>IFERROR(VLOOKUP(A510,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40915,13 +40915,13 @@
         <v>1634</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C511" s="4" t="s">
         <v>351</v>
       </c>
       <c r="D511" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E511" s="3">
         <f>IFERROR(VLOOKUP(A511,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40937,13 +40937,13 @@
         <v>1633</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C512" s="4" t="s">
         <v>352</v>
       </c>
       <c r="D512" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E512" s="3">
         <f>IFERROR(VLOOKUP(A512,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40959,13 +40959,13 @@
         <v>1641</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C513" s="4" t="s">
         <v>356</v>
       </c>
       <c r="D513" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E513" s="3">
         <f>IFERROR(VLOOKUP(A513,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40981,13 +40981,13 @@
         <v>1663</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C514" s="4" t="s">
         <v>364</v>
       </c>
       <c r="D514" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E514" s="3">
         <f>IFERROR(VLOOKUP(A514,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41003,13 +41003,13 @@
         <v>1658</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C515" s="4" t="s">
         <v>365</v>
       </c>
       <c r="D515" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E515" s="3">
         <f>IFERROR(VLOOKUP(A515,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41025,13 +41025,13 @@
         <v>1659</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C516" s="4" t="s">
         <v>366</v>
       </c>
       <c r="D516" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E516" s="3">
         <f>IFERROR(VLOOKUP(A516,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41047,13 +41047,13 @@
         <v>995</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C517" s="4" t="s">
         <v>379</v>
       </c>
       <c r="D517" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E517" s="3">
         <f>IFERROR(VLOOKUP(A517,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41069,13 +41069,13 @@
         <v>1917</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C518" s="4" t="s">
         <v>418</v>
       </c>
       <c r="D518" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E518" s="3">
         <f>IFERROR(VLOOKUP(A518,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41091,13 +41091,13 @@
         <v>1922</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C519" s="4" t="s">
         <v>419</v>
       </c>
       <c r="D519" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E519" s="3">
         <f>IFERROR(VLOOKUP(A519,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41113,13 +41113,13 @@
         <v>1919</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C520" s="4" t="s">
         <v>420</v>
       </c>
       <c r="D520" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E520" s="3">
         <f>IFERROR(VLOOKUP(A520,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41135,13 +41135,13 @@
         <v>1955</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C521" s="4" t="s">
         <v>424</v>
       </c>
       <c r="D521" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E521" s="3">
         <f>IFERROR(VLOOKUP(A521,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41157,13 +41157,13 @@
         <v>1957</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C522" s="4" t="s">
         <v>425</v>
       </c>
       <c r="D522" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E522" s="3">
         <f>IFERROR(VLOOKUP(A522,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41179,13 +41179,13 @@
         <v>1953</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C523" s="4" t="s">
         <v>426</v>
       </c>
       <c r="D523" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E523" s="3">
         <f>IFERROR(VLOOKUP(A523,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41201,13 +41201,13 @@
         <v>1967</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C524" s="4" t="s">
         <v>427</v>
       </c>
       <c r="D524" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E524" s="3">
         <f>IFERROR(VLOOKUP(A524,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41223,13 +41223,13 @@
         <v>2032</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C525" s="4" t="s">
         <v>449</v>
       </c>
       <c r="D525" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E525" s="3">
         <f>IFERROR(VLOOKUP(A525,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41245,13 +41245,13 @@
         <v>2033</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C526" s="4" t="s">
         <v>450</v>
       </c>
       <c r="D526" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E526" s="3">
         <f>IFERROR(VLOOKUP(A526,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41267,13 +41267,13 @@
         <v>2034</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C527" s="4" t="s">
         <v>451</v>
       </c>
       <c r="D527" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E527" s="3">
         <f>IFERROR(VLOOKUP(A527,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>

--- a/catalogo_produtos.xlsx
+++ b/catalogo_produtos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio.silva\Documents\GitHub\catalogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D46EB3-157F-4A8D-B73E-6AD81FD2C7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01846A50-03CE-4C3B-B200-C26D088C8007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{9FDC799A-A518-4814-A51D-97AF7748B86C}"/>
   </bookViews>
@@ -3078,9 +3078,6 @@
     <t xml:space="preserve"> Azeite de Oliva Júnior Sachê de 4ml Caixa com 200Un   </t>
   </si>
   <si>
-    <t>Azeite Extra Virgem 0,4% Chileno O-Live 450ml</t>
-  </si>
-  <si>
     <t>Molho Sweet Chilli Junior 1,1Kg</t>
   </si>
   <si>
@@ -3238,6 +3235,9 @@
   </si>
   <si>
     <t>Filé de Peito de Frango Congelado Ave Nova</t>
+  </si>
+  <si>
+    <t>Azeite Extra Virgem 0,4% Chileno O-Live 4,85L</t>
   </si>
 </sst>
 </file>
@@ -29657,8 +29657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB5A68C-B46F-4AEB-AE38-D528E4CDBB65}">
   <dimension ref="A1:K4642"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29697,7 +29697,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E2" s="3">
         <f>IFERROR(VLOOKUP(A2,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -29724,7 +29724,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E3" s="3">
         <f>IFERROR(VLOOKUP(A3,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -29751,7 +29751,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E4" s="3">
         <f>IFERROR(VLOOKUP(A4,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -29778,7 +29778,7 @@
         <v>55</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E5" s="3">
         <f>IFERROR(VLOOKUP(A5,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -29805,7 +29805,7 @@
         <v>56</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E6" s="3">
         <f>IFERROR(VLOOKUP(A6,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -29832,7 +29832,7 @@
         <v>57</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E7" s="3">
         <f>IFERROR(VLOOKUP(A7,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -29859,7 +29859,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E8" s="3">
         <f>IFERROR(VLOOKUP(A8,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -29869,7 +29869,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="K8" s="3">
         <v>7</v>
@@ -29886,7 +29886,7 @@
         <v>59</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E9" s="3">
         <f>IFERROR(VLOOKUP(A9,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -29907,7 +29907,7 @@
         <v>60</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E10" s="3">
         <f>IFERROR(VLOOKUP(A10,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -29928,7 +29928,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E11" s="3">
         <f>IFERROR(VLOOKUP(A11,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -29943,13 +29943,13 @@
         <v>274</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E12" s="3">
         <f>IFERROR(VLOOKUP(A12,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -29967,10 +29967,10 @@
         <v>999</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E13" s="3">
         <f>IFERROR(VLOOKUP(A13,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -29991,7 +29991,7 @@
         <v>62</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E14" s="3">
         <f>IFERROR(VLOOKUP(A14,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30012,7 +30012,7 @@
         <v>63</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E15" s="3">
         <f>IFERROR(VLOOKUP(A15,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30033,7 +30033,7 @@
         <v>64</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E16" s="3">
         <f>IFERROR(VLOOKUP(A16,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30054,7 +30054,7 @@
         <v>65</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E17" s="3">
         <f>IFERROR(VLOOKUP(A17,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30075,7 +30075,7 @@
         <v>66</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E18" s="3">
         <f>IFERROR(VLOOKUP(A18,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30097,7 +30097,7 @@
         <v>71</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E19" s="3">
         <f>IFERROR(VLOOKUP(A19,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30119,7 +30119,7 @@
         <v>73</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E20" s="3">
         <f>IFERROR(VLOOKUP(A20,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30141,7 +30141,7 @@
         <v>74</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E21" s="3">
         <f>IFERROR(VLOOKUP(A21,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30160,10 +30160,10 @@
         <v>1001</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E22" s="3">
         <f>IFERROR(VLOOKUP(A22,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30179,13 +30179,13 @@
         <v>5896</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E23" s="3">
         <f>IFERROR(VLOOKUP(A23,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30207,7 +30207,7 @@
         <v>111</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E24" s="3">
         <f>IFERROR(VLOOKUP(A24,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30226,10 +30226,10 @@
         <v>1005</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E25" s="3">
         <f>IFERROR(VLOOKUP(A25,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30251,7 +30251,7 @@
         <v>112</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E26" s="3">
         <f>IFERROR(VLOOKUP(A26,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30273,7 +30273,7 @@
         <v>113</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E27" s="3">
         <f>IFERROR(VLOOKUP(A27,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30295,7 +30295,7 @@
         <v>114</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E28" s="3">
         <f>IFERROR(VLOOKUP(A28,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30317,7 +30317,7 @@
         <v>115</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E29" s="3">
         <f>IFERROR(VLOOKUP(A29,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30336,10 +30336,10 @@
         <v>1007</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E30" s="3">
         <f>IFERROR(VLOOKUP(A30,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30361,7 +30361,7 @@
         <v>188</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E31" s="3">
         <f>IFERROR(VLOOKUP(A31,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30383,7 +30383,7 @@
         <v>189</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E32" s="3">
         <f>IFERROR(VLOOKUP(A32,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30399,13 +30399,13 @@
         <v>930</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>190</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E33" s="3">
         <f>IFERROR(VLOOKUP(A33,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30427,7 +30427,7 @@
         <v>191</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E34" s="3">
         <f>IFERROR(VLOOKUP(A34,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30449,7 +30449,7 @@
         <v>192</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E35" s="3">
         <f>IFERROR(VLOOKUP(A35,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30471,7 +30471,7 @@
         <v>193</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E36" s="3">
         <f>IFERROR(VLOOKUP(A36,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30493,7 +30493,7 @@
         <v>210</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E37" s="3">
         <f>IFERROR(VLOOKUP(A37,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30515,7 +30515,7 @@
         <v>236</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E38" s="3">
         <f>IFERROR(VLOOKUP(A38,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30537,7 +30537,7 @@
         <v>237</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E39" s="3">
         <f>IFERROR(VLOOKUP(A39,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30556,10 +30556,10 @@
         <v>1010</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E40" s="3">
         <f>IFERROR(VLOOKUP(A40,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30581,7 +30581,7 @@
         <v>357</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E41" s="3">
         <f>IFERROR(VLOOKUP(A41,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30603,7 +30603,7 @@
         <v>372</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E42" s="3">
         <f>IFERROR(VLOOKUP(A42,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30625,7 +30625,7 @@
         <v>417</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E43" s="3">
         <f>IFERROR(VLOOKUP(A43,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30647,7 +30647,7 @@
         <v>433</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E44" s="3">
         <f>IFERROR(VLOOKUP(A44,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30669,7 +30669,7 @@
         <v>434</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E45" s="3">
         <f>IFERROR(VLOOKUP(A45,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30691,7 +30691,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E46" s="3">
         <f>IFERROR(VLOOKUP(A46,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30713,7 +30713,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E47" s="3">
         <f>IFERROR(VLOOKUP(A47,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30735,7 +30735,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E48" s="3">
         <f>IFERROR(VLOOKUP(A48,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30757,7 +30757,7 @@
         <v>26</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E49" s="3">
         <f>IFERROR(VLOOKUP(A49,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30779,7 +30779,7 @@
         <v>27</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E50" s="3">
         <f>IFERROR(VLOOKUP(A50,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30801,7 +30801,7 @@
         <v>28</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E51" s="3">
         <f>IFERROR(VLOOKUP(A51,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30823,7 +30823,7 @@
         <v>29</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E52" s="3">
         <f>IFERROR(VLOOKUP(A52,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30845,7 +30845,7 @@
         <v>30</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E53" s="3">
         <f>IFERROR(VLOOKUP(A53,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30867,7 +30867,7 @@
         <v>31</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E54" s="3">
         <f>IFERROR(VLOOKUP(A54,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30889,7 +30889,7 @@
         <v>32</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E55" s="3">
         <f>IFERROR(VLOOKUP(A55,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30911,7 +30911,7 @@
         <v>33</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E56" s="3">
         <f>IFERROR(VLOOKUP(A56,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30933,7 +30933,7 @@
         <v>34</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E57" s="3">
         <f>IFERROR(VLOOKUP(A57,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30955,7 +30955,7 @@
         <v>75</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E58" s="3">
         <f>IFERROR(VLOOKUP(A58,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30977,7 +30977,7 @@
         <v>76</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E59" s="3">
         <f>IFERROR(VLOOKUP(A59,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -30999,7 +30999,7 @@
         <v>77</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E60" s="3">
         <f>IFERROR(VLOOKUP(A60,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31018,10 +31018,10 @@
         <v>1003</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E61" s="3">
         <f>IFERROR(VLOOKUP(A61,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31043,7 +31043,7 @@
         <v>78</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E62" s="3">
         <f>IFERROR(VLOOKUP(A62,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31065,7 +31065,7 @@
         <v>163</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E63" s="3">
         <f>IFERROR(VLOOKUP(A63,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31087,7 +31087,7 @@
         <v>166</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E64" s="3">
         <f>IFERROR(VLOOKUP(A64,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31109,7 +31109,7 @@
         <v>167</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E65" s="3">
         <f>IFERROR(VLOOKUP(A65,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31131,7 +31131,7 @@
         <v>168</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E66" s="3">
         <f>IFERROR(VLOOKUP(A66,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31153,7 +31153,7 @@
         <v>169</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E67" s="3">
         <f>IFERROR(VLOOKUP(A67,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31175,7 +31175,7 @@
         <v>170</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E68" s="3">
         <f>IFERROR(VLOOKUP(A68,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31197,7 +31197,7 @@
         <v>171</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E69" s="3">
         <f>IFERROR(VLOOKUP(A69,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31219,7 +31219,7 @@
         <v>172</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E70" s="3">
         <f>IFERROR(VLOOKUP(A70,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31241,7 +31241,7 @@
         <v>176</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E71" s="3">
         <f>IFERROR(VLOOKUP(A71,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31263,7 +31263,7 @@
         <v>177</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E72" s="3">
         <f>IFERROR(VLOOKUP(A72,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31285,7 +31285,7 @@
         <v>178</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E73" s="3">
         <f>IFERROR(VLOOKUP(A73,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31307,7 +31307,7 @@
         <v>179</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E74" s="3">
         <f>IFERROR(VLOOKUP(A74,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31329,7 +31329,7 @@
         <v>180</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E75" s="3">
         <f>IFERROR(VLOOKUP(A75,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31351,7 +31351,7 @@
         <v>181</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E76" s="3">
         <f>IFERROR(VLOOKUP(A76,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31373,7 +31373,7 @@
         <v>182</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E77" s="3">
         <f>IFERROR(VLOOKUP(A77,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31395,7 +31395,7 @@
         <v>183</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E78" s="3">
         <f>IFERROR(VLOOKUP(A78,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31417,7 +31417,7 @@
         <v>184</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E79" s="3">
         <f>IFERROR(VLOOKUP(A79,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31439,7 +31439,7 @@
         <v>185</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E80" s="3">
         <f>IFERROR(VLOOKUP(A80,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31461,7 +31461,7 @@
         <v>186</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E81" s="3">
         <f>IFERROR(VLOOKUP(A81,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31483,7 +31483,7 @@
         <v>187</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E82" s="3">
         <f>IFERROR(VLOOKUP(A82,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31505,7 +31505,7 @@
         <v>229</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E83" s="3">
         <f>IFERROR(VLOOKUP(A83,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31527,7 +31527,7 @@
         <v>238</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E84" s="3">
         <f>IFERROR(VLOOKUP(A84,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31549,7 +31549,7 @@
         <v>239</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E85" s="3">
         <f>IFERROR(VLOOKUP(A85,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31571,7 +31571,7 @@
         <v>240</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E86" s="3">
         <f>IFERROR(VLOOKUP(A86,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31593,7 +31593,7 @@
         <v>241</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E87" s="3">
         <f>IFERROR(VLOOKUP(A87,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31615,7 +31615,7 @@
         <v>242</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E88" s="3">
         <f>IFERROR(VLOOKUP(A88,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31637,7 +31637,7 @@
         <v>243</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E89" s="3">
         <f>IFERROR(VLOOKUP(A89,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31659,7 +31659,7 @@
         <v>244</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E90" s="3">
         <f>IFERROR(VLOOKUP(A90,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31681,7 +31681,7 @@
         <v>245</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E91" s="3">
         <f>IFERROR(VLOOKUP(A91,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31703,7 +31703,7 @@
         <v>246</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E92" s="3">
         <f>IFERROR(VLOOKUP(A92,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31725,7 +31725,7 @@
         <v>247</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E93" s="3">
         <f>IFERROR(VLOOKUP(A93,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31747,7 +31747,7 @@
         <v>248</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E94" s="3">
         <f>IFERROR(VLOOKUP(A94,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31769,7 +31769,7 @@
         <v>249</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E95" s="3">
         <f>IFERROR(VLOOKUP(A95,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31791,7 +31791,7 @@
         <v>250</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E96" s="3">
         <f>IFERROR(VLOOKUP(A96,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31813,7 +31813,7 @@
         <v>251</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E97" s="3">
         <f>IFERROR(VLOOKUP(A97,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31835,7 +31835,7 @@
         <v>252</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E98" s="3">
         <f>IFERROR(VLOOKUP(A98,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31857,7 +31857,7 @@
         <v>253</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E99" s="3">
         <f>IFERROR(VLOOKUP(A99,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31879,7 +31879,7 @@
         <v>254</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E100" s="3">
         <f>IFERROR(VLOOKUP(A100,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31901,7 +31901,7 @@
         <v>255</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E101" s="3">
         <f>IFERROR(VLOOKUP(A101,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31923,7 +31923,7 @@
         <v>256</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E102" s="3">
         <f>IFERROR(VLOOKUP(A102,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31945,7 +31945,7 @@
         <v>257</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E103" s="3">
         <f>IFERROR(VLOOKUP(A103,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31967,7 +31967,7 @@
         <v>258</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E104" s="3">
         <f>IFERROR(VLOOKUP(A104,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -31989,7 +31989,7 @@
         <v>259</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E105" s="3">
         <f>IFERROR(VLOOKUP(A105,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32011,7 +32011,7 @@
         <v>260</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E106" s="3">
         <f>IFERROR(VLOOKUP(A106,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32033,7 +32033,7 @@
         <v>261</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E107" s="3">
         <f>IFERROR(VLOOKUP(A107,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32055,7 +32055,7 @@
         <v>262</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E108" s="3">
         <f>IFERROR(VLOOKUP(A108,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32074,10 +32074,10 @@
         <v>1000</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E109" s="3">
         <f>IFERROR(VLOOKUP(A109,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32096,10 +32096,10 @@
         <v>1002</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E110" s="3">
         <f>IFERROR(VLOOKUP(A110,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32118,10 +32118,10 @@
         <v>1006</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E111" s="3">
         <f>IFERROR(VLOOKUP(A111,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32140,10 +32140,10 @@
         <v>1004</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E112" s="3">
         <f>IFERROR(VLOOKUP(A112,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32165,7 +32165,7 @@
         <v>343</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E113" s="3">
         <f>IFERROR(VLOOKUP(A113,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32187,7 +32187,7 @@
         <v>344</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E114" s="3">
         <f>IFERROR(VLOOKUP(A114,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32209,7 +32209,7 @@
         <v>345</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E115" s="3">
         <f>IFERROR(VLOOKUP(A115,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32231,7 +32231,7 @@
         <v>346</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E116" s="3">
         <f>IFERROR(VLOOKUP(A116,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32253,7 +32253,7 @@
         <v>347</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E117" s="3">
         <f>IFERROR(VLOOKUP(A117,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32275,7 +32275,7 @@
         <v>429</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E118" s="3">
         <f>IFERROR(VLOOKUP(A118,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32297,7 +32297,7 @@
         <v>430</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E119" s="3">
         <f>IFERROR(VLOOKUP(A119,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32319,7 +32319,7 @@
         <v>431</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E120" s="3">
         <f>IFERROR(VLOOKUP(A120,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32341,7 +32341,7 @@
         <v>432</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E121" s="3">
         <f>IFERROR(VLOOKUP(A121,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32363,7 +32363,7 @@
         <v>24</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E122" s="3">
         <f>IFERROR(VLOOKUP(A122,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32385,7 +32385,7 @@
         <v>25</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E123" s="3">
         <f>IFERROR(VLOOKUP(A123,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32407,7 +32407,7 @@
         <v>48</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E124" s="3">
         <f>IFERROR(VLOOKUP(A124,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32429,7 +32429,7 @@
         <v>49</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E125" s="3">
         <f>IFERROR(VLOOKUP(A125,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32451,7 +32451,7 @@
         <v>116</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E126" s="3">
         <f>IFERROR(VLOOKUP(A126,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32473,7 +32473,7 @@
         <v>117</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E127" s="3">
         <f>IFERROR(VLOOKUP(A127,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32495,7 +32495,7 @@
         <v>234</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E128" s="3">
         <f>IFERROR(VLOOKUP(A128,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32517,7 +32517,7 @@
         <v>235</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E129" s="3">
         <f>IFERROR(VLOOKUP(A129,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32539,7 +32539,7 @@
         <v>271</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E130" s="3">
         <f>IFERROR(VLOOKUP(A130,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32561,7 +32561,7 @@
         <v>282</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E131" s="3">
         <f>IFERROR(VLOOKUP(A131,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32583,7 +32583,7 @@
         <v>283</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E132" s="3">
         <f>IFERROR(VLOOKUP(A132,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32605,7 +32605,7 @@
         <v>285</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E133" s="3">
         <f>IFERROR(VLOOKUP(A133,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32627,7 +32627,7 @@
         <v>371</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E134" s="3">
         <f>IFERROR(VLOOKUP(A134,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32643,13 +32643,13 @@
         <v>1768</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E135" s="3">
         <f>IFERROR(VLOOKUP(A135,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32671,7 +32671,7 @@
         <v>378</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E136" s="3">
         <f>IFERROR(VLOOKUP(A136,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32693,7 +32693,7 @@
         <v>380</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E137" s="3">
         <f>IFERROR(VLOOKUP(A137,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32715,7 +32715,7 @@
         <v>382</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E138" s="3">
         <f>IFERROR(VLOOKUP(A138,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32737,7 +32737,7 @@
         <v>383</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E139" s="3">
         <f>IFERROR(VLOOKUP(A139,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32759,7 +32759,7 @@
         <v>384</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E140" s="3">
         <f>IFERROR(VLOOKUP(A140,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32781,7 +32781,7 @@
         <v>385</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E141" s="3">
         <f>IFERROR(VLOOKUP(A141,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32797,13 +32797,13 @@
         <v>5679</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E142" s="3">
         <f>IFERROR(VLOOKUP(A142,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32825,7 +32825,7 @@
         <v>413</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E143" s="3">
         <f>IFERROR(VLOOKUP(A143,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32847,7 +32847,7 @@
         <v>414</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E144" s="3">
         <f>IFERROR(VLOOKUP(A144,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32869,7 +32869,7 @@
         <v>415</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E145" s="3">
         <f>IFERROR(VLOOKUP(A145,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32891,7 +32891,7 @@
         <v>416</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E146" s="3">
         <f>IFERROR(VLOOKUP(A146,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32910,10 +32910,10 @@
         <v>1014</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E147" s="3">
         <f>IFERROR(VLOOKUP(A147,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32935,7 +32935,7 @@
         <v>11</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E148" s="3">
         <f>IFERROR(VLOOKUP(A148,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32957,7 +32957,7 @@
         <v>12</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E149" s="3">
         <f>IFERROR(VLOOKUP(A149,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -32979,7 +32979,7 @@
         <v>13</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E150" s="3">
         <f>IFERROR(VLOOKUP(A150,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33001,7 +33001,7 @@
         <v>14</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E151" s="3">
         <f>IFERROR(VLOOKUP(A151,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33023,7 +33023,7 @@
         <v>15</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E152" s="3">
         <f>IFERROR(VLOOKUP(A152,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33045,7 +33045,7 @@
         <v>16</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E153" s="3">
         <f>IFERROR(VLOOKUP(A153,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33067,7 +33067,7 @@
         <v>17</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E154" s="3">
         <f>IFERROR(VLOOKUP(A154,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33089,7 +33089,7 @@
         <v>18</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E155" s="3">
         <f>IFERROR(VLOOKUP(A155,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33105,13 +33105,13 @@
         <v>5843</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E156" s="3">
         <f>IFERROR(VLOOKUP(A156,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33133,7 +33133,7 @@
         <v>19</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E157" s="3">
         <f>IFERROR(VLOOKUP(A157,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33155,7 +33155,7 @@
         <v>20</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E158" s="3">
         <f>IFERROR(VLOOKUP(A158,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33177,7 +33177,7 @@
         <v>21</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E159" s="3">
         <f>IFERROR(VLOOKUP(A159,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33199,7 +33199,7 @@
         <v>39</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E160" s="3">
         <f>IFERROR(VLOOKUP(A160,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33215,13 +33215,13 @@
         <v>5832</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>1015</v>
+        <v>1068</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E161" s="3">
         <f>IFERROR(VLOOKUP(A161,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33243,7 +33243,7 @@
         <v>40</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E162" s="3">
         <f>IFERROR(VLOOKUP(A162,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33265,7 +33265,7 @@
         <v>41</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E163" s="3">
         <f>IFERROR(VLOOKUP(A163,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33287,7 +33287,7 @@
         <v>42</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E164" s="3">
         <f>IFERROR(VLOOKUP(A164,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33309,7 +33309,7 @@
         <v>43</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E165" s="3">
         <f>IFERROR(VLOOKUP(A165,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33331,7 +33331,7 @@
         <v>44</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E166" s="3">
         <f>IFERROR(VLOOKUP(A166,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33353,7 +33353,7 @@
         <v>45</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E167" s="3">
         <f>IFERROR(VLOOKUP(A167,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33375,7 +33375,7 @@
         <v>46</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E168" s="3">
         <f>IFERROR(VLOOKUP(A168,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33397,7 +33397,7 @@
         <v>47</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E169" s="3">
         <f>IFERROR(VLOOKUP(A169,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33419,7 +33419,7 @@
         <v>51</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E170" s="3">
         <f>IFERROR(VLOOKUP(A170,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33441,7 +33441,7 @@
         <v>52</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E171" s="3">
         <f>IFERROR(VLOOKUP(A171,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33463,7 +33463,7 @@
         <v>53</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E172" s="3">
         <f>IFERROR(VLOOKUP(A172,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33485,7 +33485,7 @@
         <v>54</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E173" s="3">
         <f>IFERROR(VLOOKUP(A173,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33507,7 +33507,7 @@
         <v>67</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E174" s="3">
         <f>IFERROR(VLOOKUP(A174,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33529,7 +33529,7 @@
         <v>68</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E175" s="3">
         <f>IFERROR(VLOOKUP(A175,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33551,7 +33551,7 @@
         <v>69</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E176" s="3">
         <f>IFERROR(VLOOKUP(A176,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33573,7 +33573,7 @@
         <v>70</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E177" s="3">
         <f>IFERROR(VLOOKUP(A177,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33595,7 +33595,7 @@
         <v>72</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E178" s="3">
         <f>IFERROR(VLOOKUP(A178,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33617,7 +33617,7 @@
         <v>79</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E179" s="3">
         <f>IFERROR(VLOOKUP(A179,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33639,7 +33639,7 @@
         <v>80</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E180" s="3">
         <f>IFERROR(VLOOKUP(A180,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33661,7 +33661,7 @@
         <v>81</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E181" s="3">
         <f>IFERROR(VLOOKUP(A181,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33683,7 +33683,7 @@
         <v>82</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E182" s="3">
         <f>IFERROR(VLOOKUP(A182,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33705,7 +33705,7 @@
         <v>83</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E183" s="3">
         <f>IFERROR(VLOOKUP(A183,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33727,7 +33727,7 @@
         <v>84</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E184" s="3">
         <f>IFERROR(VLOOKUP(A184,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33749,7 +33749,7 @@
         <v>85</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E185" s="3">
         <f>IFERROR(VLOOKUP(A185,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33771,7 +33771,7 @@
         <v>86</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E186" s="3">
         <f>IFERROR(VLOOKUP(A186,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33793,7 +33793,7 @@
         <v>87</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E187" s="3">
         <f>IFERROR(VLOOKUP(A187,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33815,7 +33815,7 @@
         <v>88</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E188" s="3">
         <f>IFERROR(VLOOKUP(A188,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33837,7 +33837,7 @@
         <v>89</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E189" s="3">
         <f>IFERROR(VLOOKUP(A189,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33859,7 +33859,7 @@
         <v>90</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E190" s="3">
         <f>IFERROR(VLOOKUP(A190,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33881,7 +33881,7 @@
         <v>91</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E191" s="3">
         <f>IFERROR(VLOOKUP(A191,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33903,7 +33903,7 @@
         <v>92</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E192" s="3">
         <f>IFERROR(VLOOKUP(A192,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33925,7 +33925,7 @@
         <v>93</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E193" s="3">
         <f>IFERROR(VLOOKUP(A193,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33947,7 +33947,7 @@
         <v>94</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E194" s="3">
         <f>IFERROR(VLOOKUP(A194,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33969,7 +33969,7 @@
         <v>95</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E195" s="3">
         <f>IFERROR(VLOOKUP(A195,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -33991,7 +33991,7 @@
         <v>96</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E196" s="3">
         <f>IFERROR(VLOOKUP(A196,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34013,7 +34013,7 @@
         <v>97</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E197" s="3">
         <f>IFERROR(VLOOKUP(A197,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34035,7 +34035,7 @@
         <v>98</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E198" s="3">
         <f>IFERROR(VLOOKUP(A198,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34057,7 +34057,7 @@
         <v>99</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E199" s="3">
         <f>IFERROR(VLOOKUP(A199,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34079,7 +34079,7 @@
         <v>100</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E200" s="3">
         <f>IFERROR(VLOOKUP(A200,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34101,7 +34101,7 @@
         <v>102</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E201" s="3">
         <f>IFERROR(VLOOKUP(A201,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34123,7 +34123,7 @@
         <v>103</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E202" s="3">
         <f>IFERROR(VLOOKUP(A202,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34145,7 +34145,7 @@
         <v>104</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E203" s="3">
         <f>IFERROR(VLOOKUP(A203,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34167,7 +34167,7 @@
         <v>105</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E204" s="3">
         <f>IFERROR(VLOOKUP(A204,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34189,7 +34189,7 @@
         <v>106</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E205" s="3">
         <f>IFERROR(VLOOKUP(A205,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34211,7 +34211,7 @@
         <v>107</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E206" s="3">
         <f>IFERROR(VLOOKUP(A206,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34233,7 +34233,7 @@
         <v>108</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E207" s="3">
         <f>IFERROR(VLOOKUP(A207,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34255,7 +34255,7 @@
         <v>109</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E208" s="3">
         <f>IFERROR(VLOOKUP(A208,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34277,7 +34277,7 @@
         <v>110</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E209" s="3">
         <f>IFERROR(VLOOKUP(A209,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34299,7 +34299,7 @@
         <v>118</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E210" s="3">
         <f>IFERROR(VLOOKUP(A210,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34321,7 +34321,7 @@
         <v>119</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E211" s="3">
         <f>IFERROR(VLOOKUP(A211,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34343,7 +34343,7 @@
         <v>120</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E212" s="3">
         <f>IFERROR(VLOOKUP(A212,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34365,7 +34365,7 @@
         <v>121</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E213" s="3">
         <f>IFERROR(VLOOKUP(A213,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34387,7 +34387,7 @@
         <v>122</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E214" s="3">
         <f>IFERROR(VLOOKUP(A214,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34409,7 +34409,7 @@
         <v>123</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E215" s="3">
         <f>IFERROR(VLOOKUP(A215,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34431,7 +34431,7 @@
         <v>124</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E216" s="3">
         <f>IFERROR(VLOOKUP(A216,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34453,7 +34453,7 @@
         <v>125</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E217" s="3">
         <f>IFERROR(VLOOKUP(A217,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34475,7 +34475,7 @@
         <v>126</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E218" s="3">
         <f>IFERROR(VLOOKUP(A218,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34497,7 +34497,7 @@
         <v>127</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E219" s="3">
         <f>IFERROR(VLOOKUP(A219,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34519,7 +34519,7 @@
         <v>128</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E220" s="3">
         <f>IFERROR(VLOOKUP(A220,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34541,7 +34541,7 @@
         <v>129</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E221" s="3">
         <f>IFERROR(VLOOKUP(A221,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34563,7 +34563,7 @@
         <v>130</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E222" s="3">
         <f>IFERROR(VLOOKUP(A222,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34585,7 +34585,7 @@
         <v>131</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E223" s="3">
         <f>IFERROR(VLOOKUP(A223,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34607,7 +34607,7 @@
         <v>132</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E224" s="3">
         <f>IFERROR(VLOOKUP(A224,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34629,7 +34629,7 @@
         <v>133</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E225" s="3">
         <f>IFERROR(VLOOKUP(A225,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34651,7 +34651,7 @@
         <v>134</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E226" s="3">
         <f>IFERROR(VLOOKUP(A226,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34673,7 +34673,7 @@
         <v>135</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E227" s="3">
         <f>IFERROR(VLOOKUP(A227,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34695,7 +34695,7 @@
         <v>136</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E228" s="3">
         <f>IFERROR(VLOOKUP(A228,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34717,7 +34717,7 @@
         <v>137</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E229" s="3">
         <f>IFERROR(VLOOKUP(A229,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34739,7 +34739,7 @@
         <v>138</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E230" s="3">
         <f>IFERROR(VLOOKUP(A230,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34761,7 +34761,7 @@
         <v>139</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E231" s="3">
         <f>IFERROR(VLOOKUP(A231,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34783,7 +34783,7 @@
         <v>140</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E232" s="3">
         <f>IFERROR(VLOOKUP(A232,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34805,7 +34805,7 @@
         <v>141</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E233" s="3">
         <f>IFERROR(VLOOKUP(A233,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34821,13 +34821,13 @@
         <v>5844</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E234" s="3">
         <f>IFERROR(VLOOKUP(A234,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34849,7 +34849,7 @@
         <v>142</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E235" s="3">
         <f>IFERROR(VLOOKUP(A235,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34871,7 +34871,7 @@
         <v>143</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E236" s="3">
         <f>IFERROR(VLOOKUP(A236,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34893,7 +34893,7 @@
         <v>144</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E237" s="3">
         <f>IFERROR(VLOOKUP(A237,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34915,7 +34915,7 @@
         <v>156</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E238" s="3">
         <f>IFERROR(VLOOKUP(A238,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34937,7 +34937,7 @@
         <v>157</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E239" s="3">
         <f>IFERROR(VLOOKUP(A239,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34959,7 +34959,7 @@
         <v>158</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E240" s="3">
         <f>IFERROR(VLOOKUP(A240,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -34981,7 +34981,7 @@
         <v>159</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E241" s="3">
         <f>IFERROR(VLOOKUP(A241,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35003,7 +35003,7 @@
         <v>160</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E242" s="3">
         <f>IFERROR(VLOOKUP(A242,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35025,7 +35025,7 @@
         <v>161</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E243" s="3">
         <f>IFERROR(VLOOKUP(A243,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35047,7 +35047,7 @@
         <v>162</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E244" s="3">
         <f>IFERROR(VLOOKUP(A244,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35069,7 +35069,7 @@
         <v>164</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E245" s="3">
         <f>IFERROR(VLOOKUP(A245,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35091,7 +35091,7 @@
         <v>165</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E246" s="3">
         <f>IFERROR(VLOOKUP(A246,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35113,7 +35113,7 @@
         <v>173</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E247" s="3">
         <f>IFERROR(VLOOKUP(A247,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35129,13 +35129,13 @@
         <v>5889</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E248" s="3">
         <f>IFERROR(VLOOKUP(A248,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35157,7 +35157,7 @@
         <v>174</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E249" s="3">
         <f>IFERROR(VLOOKUP(A249,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35179,7 +35179,7 @@
         <v>199</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E250" s="3">
         <f>IFERROR(VLOOKUP(A250,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35201,7 +35201,7 @@
         <v>200</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E251" s="3">
         <f>IFERROR(VLOOKUP(A251,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35223,7 +35223,7 @@
         <v>202</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E252" s="3">
         <f>IFERROR(VLOOKUP(A252,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35245,7 +35245,7 @@
         <v>203</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E253" s="3">
         <f>IFERROR(VLOOKUP(A253,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35267,7 +35267,7 @@
         <v>205</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E254" s="3">
         <f>IFERROR(VLOOKUP(A254,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35289,7 +35289,7 @@
         <v>206</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E255" s="3">
         <f>IFERROR(VLOOKUP(A255,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35311,7 +35311,7 @@
         <v>207</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E256" s="3">
         <f>IFERROR(VLOOKUP(A256,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35333,7 +35333,7 @@
         <v>208</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E257" s="3">
         <f>IFERROR(VLOOKUP(A257,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35355,7 +35355,7 @@
         <v>209</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E258" s="3">
         <f>IFERROR(VLOOKUP(A258,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35377,7 +35377,7 @@
         <v>211</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E259" s="3">
         <f>IFERROR(VLOOKUP(A259,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35399,7 +35399,7 @@
         <v>212</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E260" s="3">
         <f>IFERROR(VLOOKUP(A260,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35421,7 +35421,7 @@
         <v>213</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E261" s="3">
         <f>IFERROR(VLOOKUP(A261,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35443,7 +35443,7 @@
         <v>214</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E262" s="3">
         <f>IFERROR(VLOOKUP(A262,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35465,7 +35465,7 @@
         <v>215</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E263" s="3">
         <f>IFERROR(VLOOKUP(A263,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35487,7 +35487,7 @@
         <v>216</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E264" s="3">
         <f>IFERROR(VLOOKUP(A264,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35509,7 +35509,7 @@
         <v>217</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E265" s="3">
         <f>IFERROR(VLOOKUP(A265,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35531,7 +35531,7 @@
         <v>218</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E266" s="3">
         <f>IFERROR(VLOOKUP(A266,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35553,7 +35553,7 @@
         <v>219</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E267" s="3">
         <f>IFERROR(VLOOKUP(A267,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35575,7 +35575,7 @@
         <v>220</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E268" s="3">
         <f>IFERROR(VLOOKUP(A268,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35597,7 +35597,7 @@
         <v>221</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E269" s="3">
         <f>IFERROR(VLOOKUP(A269,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35619,7 +35619,7 @@
         <v>222</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E270" s="3">
         <f>IFERROR(VLOOKUP(A270,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35641,7 +35641,7 @@
         <v>223</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E271" s="3">
         <f>IFERROR(VLOOKUP(A271,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35663,7 +35663,7 @@
         <v>224</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E272" s="3">
         <f>IFERROR(VLOOKUP(A272,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35685,7 +35685,7 @@
         <v>225</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E273" s="3">
         <f>IFERROR(VLOOKUP(A273,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35707,7 +35707,7 @@
         <v>226</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E274" s="3">
         <f>IFERROR(VLOOKUP(A274,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35729,7 +35729,7 @@
         <v>227</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E275" s="3">
         <f>IFERROR(VLOOKUP(A275,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35751,7 +35751,7 @@
         <v>228</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E276" s="3">
         <f>IFERROR(VLOOKUP(A276,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35773,7 +35773,7 @@
         <v>230</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E277" s="3">
         <f>IFERROR(VLOOKUP(A277,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35795,7 +35795,7 @@
         <v>231</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E278" s="3">
         <f>IFERROR(VLOOKUP(A278,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35817,7 +35817,7 @@
         <v>232</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E279" s="3">
         <f>IFERROR(VLOOKUP(A279,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35839,7 +35839,7 @@
         <v>233</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E280" s="3">
         <f>IFERROR(VLOOKUP(A280,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35855,13 +35855,13 @@
         <v>5881</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E281" s="3">
         <f>IFERROR(VLOOKUP(A281,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35877,13 +35877,13 @@
         <v>5842</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E282" s="3">
         <f>IFERROR(VLOOKUP(A282,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35905,7 +35905,7 @@
         <v>263</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E283" s="3">
         <f>IFERROR(VLOOKUP(A283,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35927,7 +35927,7 @@
         <v>264</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E284" s="3">
         <f>IFERROR(VLOOKUP(A284,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35949,7 +35949,7 @@
         <v>265</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E285" s="3">
         <f>IFERROR(VLOOKUP(A285,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35971,7 +35971,7 @@
         <v>266</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E286" s="3">
         <f>IFERROR(VLOOKUP(A286,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -35993,7 +35993,7 @@
         <v>267</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E287" s="3">
         <f>IFERROR(VLOOKUP(A287,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36015,7 +36015,7 @@
         <v>268</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E288" s="3">
         <f>IFERROR(VLOOKUP(A288,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36031,13 +36031,13 @@
         <v>5882</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E289" s="3">
         <f>IFERROR(VLOOKUP(A289,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36059,7 +36059,7 @@
         <v>269</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E290" s="3">
         <f>IFERROR(VLOOKUP(A290,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36081,7 +36081,7 @@
         <v>270</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E291" s="3">
         <f>IFERROR(VLOOKUP(A291,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36103,7 +36103,7 @@
         <v>272</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E292" s="3">
         <f>IFERROR(VLOOKUP(A292,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36125,7 +36125,7 @@
         <v>273</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E293" s="3">
         <f>IFERROR(VLOOKUP(A293,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36147,7 +36147,7 @@
         <v>274</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E294" s="3">
         <f>IFERROR(VLOOKUP(A294,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36169,7 +36169,7 @@
         <v>275</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E295" s="3">
         <f>IFERROR(VLOOKUP(A295,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36191,7 +36191,7 @@
         <v>276</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E296" s="3">
         <f>IFERROR(VLOOKUP(A296,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36213,7 +36213,7 @@
         <v>277</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E297" s="3">
         <f>IFERROR(VLOOKUP(A297,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36235,7 +36235,7 @@
         <v>278</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E298" s="3">
         <f>IFERROR(VLOOKUP(A298,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36257,7 +36257,7 @@
         <v>279</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E299" s="3">
         <f>IFERROR(VLOOKUP(A299,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36279,7 +36279,7 @@
         <v>280</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E300" s="3">
         <f>IFERROR(VLOOKUP(A300,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36301,7 +36301,7 @@
         <v>281</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E301" s="3">
         <f>IFERROR(VLOOKUP(A301,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36323,7 +36323,7 @@
         <v>284</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E302" s="3">
         <f>IFERROR(VLOOKUP(A302,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36345,7 +36345,7 @@
         <v>286</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E303" s="3">
         <f>IFERROR(VLOOKUP(A303,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36367,7 +36367,7 @@
         <v>287</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E304" s="3">
         <f>IFERROR(VLOOKUP(A304,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36389,7 +36389,7 @@
         <v>288</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E305" s="3">
         <f>IFERROR(VLOOKUP(A305,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36411,7 +36411,7 @@
         <v>289</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E306" s="3">
         <f>IFERROR(VLOOKUP(A306,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36433,7 +36433,7 @@
         <v>290</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E307" s="3">
         <f>IFERROR(VLOOKUP(A307,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36455,7 +36455,7 @@
         <v>291</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E308" s="3">
         <f>IFERROR(VLOOKUP(A308,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36477,7 +36477,7 @@
         <v>292</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E309" s="3">
         <f>IFERROR(VLOOKUP(A309,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36499,7 +36499,7 @@
         <v>293</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E310" s="3">
         <f>IFERROR(VLOOKUP(A310,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36521,7 +36521,7 @@
         <v>294</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E311" s="3">
         <f>IFERROR(VLOOKUP(A311,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36543,7 +36543,7 @@
         <v>295</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E312" s="3">
         <f>IFERROR(VLOOKUP(A312,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36565,7 +36565,7 @@
         <v>296</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E313" s="3">
         <f>IFERROR(VLOOKUP(A313,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36587,7 +36587,7 @@
         <v>297</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E314" s="3">
         <f>IFERROR(VLOOKUP(A314,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36609,7 +36609,7 @@
         <v>298</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E315" s="3">
         <f>IFERROR(VLOOKUP(A315,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36631,7 +36631,7 @@
         <v>299</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E316" s="3">
         <f>IFERROR(VLOOKUP(A316,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36653,7 +36653,7 @@
         <v>300</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E317" s="3">
         <f>IFERROR(VLOOKUP(A317,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36675,7 +36675,7 @@
         <v>301</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E318" s="3">
         <f>IFERROR(VLOOKUP(A318,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36697,7 +36697,7 @@
         <v>302</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E319" s="3">
         <f>IFERROR(VLOOKUP(A319,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36719,7 +36719,7 @@
         <v>303</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E320" s="3">
         <f>IFERROR(VLOOKUP(A320,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36741,7 +36741,7 @@
         <v>304</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E321" s="3">
         <f>IFERROR(VLOOKUP(A321,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36763,7 +36763,7 @@
         <v>305</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E322" s="3">
         <f>IFERROR(VLOOKUP(A322,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36785,7 +36785,7 @@
         <v>306</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E323" s="3">
         <f>IFERROR(VLOOKUP(A323,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36807,7 +36807,7 @@
         <v>307</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E324" s="3">
         <f>IFERROR(VLOOKUP(A324,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36829,7 +36829,7 @@
         <v>308</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E325" s="3">
         <f>IFERROR(VLOOKUP(A325,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36848,10 +36848,10 @@
         <v>1013</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D326" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E326" s="3">
         <f>IFERROR(VLOOKUP(A326,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36870,10 +36870,10 @@
         <v>1012</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D327" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E327" s="3">
         <f>IFERROR(VLOOKUP(A327,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36892,10 +36892,10 @@
         <v>1009</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D328" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E328" s="3">
         <f>IFERROR(VLOOKUP(A328,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36914,10 +36914,10 @@
         <v>1011</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D329" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E329" s="3">
         <f>IFERROR(VLOOKUP(A329,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36939,7 +36939,7 @@
         <v>309</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E330" s="3">
         <f>IFERROR(VLOOKUP(A330,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36961,7 +36961,7 @@
         <v>310</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E331" s="3">
         <f>IFERROR(VLOOKUP(A331,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -36983,7 +36983,7 @@
         <v>311</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E332" s="3">
         <f>IFERROR(VLOOKUP(A332,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37005,7 +37005,7 @@
         <v>312</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E333" s="3">
         <f>IFERROR(VLOOKUP(A333,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37027,7 +37027,7 @@
         <v>313</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E334" s="3">
         <f>IFERROR(VLOOKUP(A334,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37049,7 +37049,7 @@
         <v>314</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E335" s="3">
         <f>IFERROR(VLOOKUP(A335,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37071,7 +37071,7 @@
         <v>315</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E336" s="3">
         <f>IFERROR(VLOOKUP(A336,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37093,7 +37093,7 @@
         <v>316</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E337" s="3">
         <f>IFERROR(VLOOKUP(A337,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37115,7 +37115,7 @@
         <v>317</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E338" s="3">
         <f>IFERROR(VLOOKUP(A338,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37137,7 +37137,7 @@
         <v>318</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E339" s="3">
         <f>IFERROR(VLOOKUP(A339,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37159,7 +37159,7 @@
         <v>319</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E340" s="3">
         <f>IFERROR(VLOOKUP(A340,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37175,13 +37175,13 @@
         <v>5883</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D341" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E341" s="3">
         <f>IFERROR(VLOOKUP(A341,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37203,7 +37203,7 @@
         <v>320</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E342" s="3">
         <f>IFERROR(VLOOKUP(A342,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37225,7 +37225,7 @@
         <v>321</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E343" s="3">
         <f>IFERROR(VLOOKUP(A343,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37247,7 +37247,7 @@
         <v>322</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E344" s="3">
         <f>IFERROR(VLOOKUP(A344,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37269,7 +37269,7 @@
         <v>323</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E345" s="3">
         <f>IFERROR(VLOOKUP(A345,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37291,7 +37291,7 @@
         <v>324</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E346" s="3">
         <f>IFERROR(VLOOKUP(A346,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37313,7 +37313,7 @@
         <v>325</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E347" s="3">
         <f>IFERROR(VLOOKUP(A347,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37335,7 +37335,7 @@
         <v>326</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E348" s="3">
         <f>IFERROR(VLOOKUP(A348,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37357,7 +37357,7 @@
         <v>327</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E349" s="3">
         <f>IFERROR(VLOOKUP(A349,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37379,7 +37379,7 @@
         <v>328</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E350" s="3">
         <f>IFERROR(VLOOKUP(A350,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37401,7 +37401,7 @@
         <v>329</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E351" s="3">
         <f>IFERROR(VLOOKUP(A351,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37423,7 +37423,7 @@
         <v>330</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E352" s="3">
         <f>IFERROR(VLOOKUP(A352,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37445,7 +37445,7 @@
         <v>331</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E353" s="3">
         <f>IFERROR(VLOOKUP(A353,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37467,7 +37467,7 @@
         <v>332</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E354" s="3">
         <f>IFERROR(VLOOKUP(A354,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37489,7 +37489,7 @@
         <v>333</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E355" s="3">
         <f>IFERROR(VLOOKUP(A355,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37505,13 +37505,13 @@
         <v>5884</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D356" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E356" s="3">
         <f>IFERROR(VLOOKUP(A356,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37533,7 +37533,7 @@
         <v>334</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E357" s="3">
         <f>IFERROR(VLOOKUP(A357,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37555,7 +37555,7 @@
         <v>335</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E358" s="3">
         <f>IFERROR(VLOOKUP(A358,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37577,7 +37577,7 @@
         <v>338</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E359" s="3">
         <f>IFERROR(VLOOKUP(A359,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37599,7 +37599,7 @@
         <v>339</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E360" s="3">
         <f>IFERROR(VLOOKUP(A360,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37621,7 +37621,7 @@
         <v>340</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E361" s="3">
         <f>IFERROR(VLOOKUP(A361,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37643,7 +37643,7 @@
         <v>341</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E362" s="3">
         <f>IFERROR(VLOOKUP(A362,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37665,7 +37665,7 @@
         <v>342</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E363" s="3">
         <f>IFERROR(VLOOKUP(A363,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37687,7 +37687,7 @@
         <v>348</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E364" s="3">
         <f>IFERROR(VLOOKUP(A364,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37709,7 +37709,7 @@
         <v>349</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E365" s="3">
         <f>IFERROR(VLOOKUP(A365,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37731,7 +37731,7 @@
         <v>350</v>
       </c>
       <c r="D366" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E366" s="3">
         <f>IFERROR(VLOOKUP(A366,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37753,7 +37753,7 @@
         <v>353</v>
       </c>
       <c r="D367" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E367" s="3">
         <f>IFERROR(VLOOKUP(A367,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37775,7 +37775,7 @@
         <v>354</v>
       </c>
       <c r="D368" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E368" s="3">
         <f>IFERROR(VLOOKUP(A368,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37797,7 +37797,7 @@
         <v>355</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E369" s="3">
         <f>IFERROR(VLOOKUP(A369,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37819,7 +37819,7 @@
         <v>358</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E370" s="3">
         <f>IFERROR(VLOOKUP(A370,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37841,7 +37841,7 @@
         <v>359</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E371" s="3">
         <f>IFERROR(VLOOKUP(A371,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37863,7 +37863,7 @@
         <v>360</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E372" s="3">
         <f>IFERROR(VLOOKUP(A372,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37885,7 +37885,7 @@
         <v>361</v>
       </c>
       <c r="D373" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E373" s="3">
         <f>IFERROR(VLOOKUP(A373,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37907,7 +37907,7 @@
         <v>362</v>
       </c>
       <c r="D374" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E374" s="3">
         <f>IFERROR(VLOOKUP(A374,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37929,7 +37929,7 @@
         <v>363</v>
       </c>
       <c r="D375" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E375" s="3">
         <f>IFERROR(VLOOKUP(A375,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37951,7 +37951,7 @@
         <v>367</v>
       </c>
       <c r="D376" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E376" s="3">
         <f>IFERROR(VLOOKUP(A376,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37973,7 +37973,7 @@
         <v>368</v>
       </c>
       <c r="D377" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E377" s="3">
         <f>IFERROR(VLOOKUP(A377,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -37995,7 +37995,7 @@
         <v>369</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E378" s="3">
         <f>IFERROR(VLOOKUP(A378,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38017,7 +38017,7 @@
         <v>370</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E379" s="3">
         <f>IFERROR(VLOOKUP(A379,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38039,7 +38039,7 @@
         <v>373</v>
       </c>
       <c r="D380" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E380" s="3">
         <f>IFERROR(VLOOKUP(A380,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38061,7 +38061,7 @@
         <v>374</v>
       </c>
       <c r="D381" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E381" s="3">
         <f>IFERROR(VLOOKUP(A381,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38083,7 +38083,7 @@
         <v>375</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E382" s="3">
         <f>IFERROR(VLOOKUP(A382,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38105,7 +38105,7 @@
         <v>376</v>
       </c>
       <c r="D383" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E383" s="3">
         <f>IFERROR(VLOOKUP(A383,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38127,7 +38127,7 @@
         <v>377</v>
       </c>
       <c r="D384" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E384" s="3">
         <f>IFERROR(VLOOKUP(A384,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38149,7 +38149,7 @@
         <v>381</v>
       </c>
       <c r="D385" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E385" s="3">
         <f>IFERROR(VLOOKUP(A385,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38171,7 +38171,7 @@
         <v>386</v>
       </c>
       <c r="D386" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E386" s="3">
         <f>IFERROR(VLOOKUP(A386,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38193,7 +38193,7 @@
         <v>387</v>
       </c>
       <c r="D387" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E387" s="3">
         <f>IFERROR(VLOOKUP(A387,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38215,7 +38215,7 @@
         <v>388</v>
       </c>
       <c r="D388" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E388" s="3">
         <f>IFERROR(VLOOKUP(A388,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38237,7 +38237,7 @@
         <v>389</v>
       </c>
       <c r="D389" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E389" s="3">
         <f>IFERROR(VLOOKUP(A389,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38259,7 +38259,7 @@
         <v>421</v>
       </c>
       <c r="D390" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E390" s="3">
         <f>IFERROR(VLOOKUP(A390,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38281,7 +38281,7 @@
         <v>422</v>
       </c>
       <c r="D391" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E391" s="3">
         <f>IFERROR(VLOOKUP(A391,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38303,7 +38303,7 @@
         <v>423</v>
       </c>
       <c r="D392" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E392" s="3">
         <f>IFERROR(VLOOKUP(A392,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38325,7 +38325,7 @@
         <v>428</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E393" s="3">
         <f>IFERROR(VLOOKUP(A393,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38347,7 +38347,7 @@
         <v>448</v>
       </c>
       <c r="D394" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E394" s="3">
         <f>IFERROR(VLOOKUP(A394,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38369,7 +38369,7 @@
         <v>452</v>
       </c>
       <c r="D395" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E395" s="3">
         <f>IFERROR(VLOOKUP(A395,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38391,7 +38391,7 @@
         <v>453</v>
       </c>
       <c r="D396" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E396" s="3">
         <f>IFERROR(VLOOKUP(A396,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38413,7 +38413,7 @@
         <v>454</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E397" s="3">
         <f>IFERROR(VLOOKUP(A397,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38435,7 +38435,7 @@
         <v>455</v>
       </c>
       <c r="D398" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E398" s="3">
         <f>IFERROR(VLOOKUP(A398,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38457,7 +38457,7 @@
         <v>456</v>
       </c>
       <c r="D399" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E399" s="3">
         <f>IFERROR(VLOOKUP(A399,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38479,7 +38479,7 @@
         <v>457</v>
       </c>
       <c r="D400" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E400" s="3">
         <f>IFERROR(VLOOKUP(A400,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38501,7 +38501,7 @@
         <v>458</v>
       </c>
       <c r="D401" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E401" s="3">
         <f>IFERROR(VLOOKUP(A401,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38523,7 +38523,7 @@
         <v>459</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E402" s="3">
         <f>IFERROR(VLOOKUP(A402,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38545,7 +38545,7 @@
         <v>460</v>
       </c>
       <c r="D403" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E403" s="3">
         <f>IFERROR(VLOOKUP(A403,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38567,7 +38567,7 @@
         <v>461</v>
       </c>
       <c r="D404" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E404" s="3">
         <f>IFERROR(VLOOKUP(A404,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38589,7 +38589,7 @@
         <v>462</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E405" s="3">
         <f>IFERROR(VLOOKUP(A405,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38611,7 +38611,7 @@
         <v>463</v>
       </c>
       <c r="D406" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E406" s="3">
         <f>IFERROR(VLOOKUP(A406,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38633,7 +38633,7 @@
         <v>464</v>
       </c>
       <c r="D407" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E407" s="3">
         <f>IFERROR(VLOOKUP(A407,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38655,7 +38655,7 @@
         <v>465</v>
       </c>
       <c r="D408" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E408" s="3">
         <f>IFERROR(VLOOKUP(A408,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38677,7 +38677,7 @@
         <v>466</v>
       </c>
       <c r="D409" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E409" s="3">
         <f>IFERROR(VLOOKUP(A409,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38699,7 +38699,7 @@
         <v>467</v>
       </c>
       <c r="D410" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E410" s="3">
         <f>IFERROR(VLOOKUP(A410,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38721,7 +38721,7 @@
         <v>468</v>
       </c>
       <c r="D411" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E411" s="3">
         <f>IFERROR(VLOOKUP(A411,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38743,7 +38743,7 @@
         <v>469</v>
       </c>
       <c r="D412" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E412" s="3">
         <f>IFERROR(VLOOKUP(A412,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38765,7 +38765,7 @@
         <v>6</v>
       </c>
       <c r="D413" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E413" s="3">
         <f>IFERROR(VLOOKUP(A413,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38787,7 +38787,7 @@
         <v>7</v>
       </c>
       <c r="D414" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E414" s="3">
         <f>IFERROR(VLOOKUP(A414,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38809,7 +38809,7 @@
         <v>8</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E415" s="3">
         <f>IFERROR(VLOOKUP(A415,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38831,7 +38831,7 @@
         <v>9</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E416" s="3">
         <f>IFERROR(VLOOKUP(A416,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38853,7 +38853,7 @@
         <v>10</v>
       </c>
       <c r="D417" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E417" s="3">
         <f>IFERROR(VLOOKUP(A417,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38875,7 +38875,7 @@
         <v>101</v>
       </c>
       <c r="D418" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E418" s="3">
         <f>IFERROR(VLOOKUP(A418,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38897,7 +38897,7 @@
         <v>150</v>
       </c>
       <c r="D419" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E419" s="3">
         <f>IFERROR(VLOOKUP(A419,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38919,7 +38919,7 @@
         <v>151</v>
       </c>
       <c r="D420" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E420" s="3">
         <f>IFERROR(VLOOKUP(A420,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38941,7 +38941,7 @@
         <v>152</v>
       </c>
       <c r="D421" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E421" s="3">
         <f>IFERROR(VLOOKUP(A421,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38963,7 +38963,7 @@
         <v>153</v>
       </c>
       <c r="D422" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E422" s="3">
         <f>IFERROR(VLOOKUP(A422,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -38985,7 +38985,7 @@
         <v>154</v>
       </c>
       <c r="D423" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E423" s="3">
         <f>IFERROR(VLOOKUP(A423,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39007,7 +39007,7 @@
         <v>155</v>
       </c>
       <c r="D424" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E424" s="3">
         <f>IFERROR(VLOOKUP(A424,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39029,7 +39029,7 @@
         <v>204</v>
       </c>
       <c r="D425" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E425" s="3">
         <f>IFERROR(VLOOKUP(A425,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39051,7 +39051,7 @@
         <v>390</v>
       </c>
       <c r="D426" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E426" s="3">
         <f>IFERROR(VLOOKUP(A426,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39073,7 +39073,7 @@
         <v>391</v>
       </c>
       <c r="D427" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E427" s="3">
         <f>IFERROR(VLOOKUP(A427,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39095,7 +39095,7 @@
         <v>392</v>
       </c>
       <c r="D428" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E428" s="3">
         <f>IFERROR(VLOOKUP(A428,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39117,7 +39117,7 @@
         <v>393</v>
       </c>
       <c r="D429" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E429" s="3">
         <f>IFERROR(VLOOKUP(A429,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39139,7 +39139,7 @@
         <v>394</v>
       </c>
       <c r="D430" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E430" s="3">
         <f>IFERROR(VLOOKUP(A430,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39161,7 +39161,7 @@
         <v>395</v>
       </c>
       <c r="D431" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E431" s="3">
         <f>IFERROR(VLOOKUP(A431,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39183,7 +39183,7 @@
         <v>396</v>
       </c>
       <c r="D432" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E432" s="3">
         <f>IFERROR(VLOOKUP(A432,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39205,7 +39205,7 @@
         <v>397</v>
       </c>
       <c r="D433" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E433" s="3">
         <f>IFERROR(VLOOKUP(A433,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39227,7 +39227,7 @@
         <v>398</v>
       </c>
       <c r="D434" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E434" s="3">
         <f>IFERROR(VLOOKUP(A434,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39249,7 +39249,7 @@
         <v>399</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E435" s="3">
         <f>IFERROR(VLOOKUP(A435,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39271,7 +39271,7 @@
         <v>400</v>
       </c>
       <c r="D436" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E436" s="3">
         <f>IFERROR(VLOOKUP(A436,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39293,7 +39293,7 @@
         <v>401</v>
       </c>
       <c r="D437" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E437" s="3">
         <f>IFERROR(VLOOKUP(A437,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39315,7 +39315,7 @@
         <v>402</v>
       </c>
       <c r="D438" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E438" s="3">
         <f>IFERROR(VLOOKUP(A438,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39337,7 +39337,7 @@
         <v>403</v>
       </c>
       <c r="D439" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E439" s="3">
         <f>IFERROR(VLOOKUP(A439,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39359,7 +39359,7 @@
         <v>404</v>
       </c>
       <c r="D440" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E440" s="3">
         <f>IFERROR(VLOOKUP(A440,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39381,7 +39381,7 @@
         <v>405</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E441" s="3">
         <f>IFERROR(VLOOKUP(A441,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39403,7 +39403,7 @@
         <v>406</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E442" s="3">
         <f>IFERROR(VLOOKUP(A442,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39425,7 +39425,7 @@
         <v>407</v>
       </c>
       <c r="D443" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E443" s="3">
         <f>IFERROR(VLOOKUP(A443,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39447,7 +39447,7 @@
         <v>408</v>
       </c>
       <c r="D444" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E444" s="3">
         <f>IFERROR(VLOOKUP(A444,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39469,7 +39469,7 @@
         <v>409</v>
       </c>
       <c r="D445" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E445" s="3">
         <f>IFERROR(VLOOKUP(A445,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39491,7 +39491,7 @@
         <v>410</v>
       </c>
       <c r="D446" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E446" s="3">
         <f>IFERROR(VLOOKUP(A446,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39513,7 +39513,7 @@
         <v>411</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E447" s="3">
         <f>IFERROR(VLOOKUP(A447,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39535,7 +39535,7 @@
         <v>412</v>
       </c>
       <c r="D448" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E448" s="3">
         <f>IFERROR(VLOOKUP(A448,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39557,7 +39557,7 @@
         <v>435</v>
       </c>
       <c r="D449" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E449" s="3">
         <f>IFERROR(VLOOKUP(A449,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39579,7 +39579,7 @@
         <v>436</v>
       </c>
       <c r="D450" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E450" s="3">
         <f>IFERROR(VLOOKUP(A450,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39601,7 +39601,7 @@
         <v>437</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E451" s="3">
         <f>IFERROR(VLOOKUP(A451,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39623,7 +39623,7 @@
         <v>438</v>
       </c>
       <c r="D452" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E452" s="3">
         <f>IFERROR(VLOOKUP(A452,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39645,7 +39645,7 @@
         <v>439</v>
       </c>
       <c r="D453" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E453" s="3">
         <f>IFERROR(VLOOKUP(A453,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39667,7 +39667,7 @@
         <v>440</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E454" s="3">
         <f>IFERROR(VLOOKUP(A454,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39689,7 +39689,7 @@
         <v>441</v>
       </c>
       <c r="D455" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E455" s="3">
         <f>IFERROR(VLOOKUP(A455,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39711,7 +39711,7 @@
         <v>442</v>
       </c>
       <c r="D456" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E456" s="3">
         <f>IFERROR(VLOOKUP(A456,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39733,7 +39733,7 @@
         <v>443</v>
       </c>
       <c r="D457" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E457" s="3">
         <f>IFERROR(VLOOKUP(A457,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39755,7 +39755,7 @@
         <v>444</v>
       </c>
       <c r="D458" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E458" s="3">
         <f>IFERROR(VLOOKUP(A458,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39777,7 +39777,7 @@
         <v>445</v>
       </c>
       <c r="D459" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E459" s="3">
         <f>IFERROR(VLOOKUP(A459,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39799,7 +39799,7 @@
         <v>446</v>
       </c>
       <c r="D460" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E460" s="3">
         <f>IFERROR(VLOOKUP(A460,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39821,7 +39821,7 @@
         <v>447</v>
       </c>
       <c r="D461" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E461" s="3">
         <f>IFERROR(VLOOKUP(A461,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39843,7 +39843,7 @@
         <v>470</v>
       </c>
       <c r="D462" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E462" s="3">
         <f>IFERROR(VLOOKUP(A462,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39865,7 +39865,7 @@
         <v>471</v>
       </c>
       <c r="D463" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E463" s="3">
         <f>IFERROR(VLOOKUP(A463,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39887,7 +39887,7 @@
         <v>472</v>
       </c>
       <c r="D464" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E464" s="3">
         <f>IFERROR(VLOOKUP(A464,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39909,7 +39909,7 @@
         <v>473</v>
       </c>
       <c r="D465" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E465" s="3">
         <f>IFERROR(VLOOKUP(A465,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39931,7 +39931,7 @@
         <v>474</v>
       </c>
       <c r="D466" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E466" s="3">
         <f>IFERROR(VLOOKUP(A466,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39953,7 +39953,7 @@
         <v>475</v>
       </c>
       <c r="D467" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E467" s="3">
         <f>IFERROR(VLOOKUP(A467,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39975,7 +39975,7 @@
         <v>476</v>
       </c>
       <c r="D468" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E468" s="3">
         <f>IFERROR(VLOOKUP(A468,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -39997,7 +39997,7 @@
         <v>477</v>
       </c>
       <c r="D469" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E469" s="3">
         <f>IFERROR(VLOOKUP(A469,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40019,7 +40019,7 @@
         <v>478</v>
       </c>
       <c r="D470" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E470" s="3">
         <f>IFERROR(VLOOKUP(A470,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40041,7 +40041,7 @@
         <v>479</v>
       </c>
       <c r="D471" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E471" s="3">
         <f>IFERROR(VLOOKUP(A471,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40063,7 +40063,7 @@
         <v>480</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E472" s="3">
         <f>IFERROR(VLOOKUP(A472,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40085,7 +40085,7 @@
         <v>481</v>
       </c>
       <c r="D473" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E473" s="3">
         <f>IFERROR(VLOOKUP(A473,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40107,7 +40107,7 @@
         <v>482</v>
       </c>
       <c r="D474" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E474" s="3">
         <f>IFERROR(VLOOKUP(A474,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40129,7 +40129,7 @@
         <v>483</v>
       </c>
       <c r="D475" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E475" s="3">
         <f>IFERROR(VLOOKUP(A475,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40151,7 +40151,7 @@
         <v>484</v>
       </c>
       <c r="D476" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E476" s="3">
         <f>IFERROR(VLOOKUP(A476,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40173,7 +40173,7 @@
         <v>485</v>
       </c>
       <c r="D477" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E477" s="3">
         <f>IFERROR(VLOOKUP(A477,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40189,13 +40189,13 @@
         <v>2104</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D478" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E478" s="3">
         <f>IFERROR(VLOOKUP(A478,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40217,7 +40217,7 @@
         <v>486</v>
       </c>
       <c r="D479" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E479" s="3">
         <f>IFERROR(VLOOKUP(A479,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40239,7 +40239,7 @@
         <v>487</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E480" s="3">
         <f>IFERROR(VLOOKUP(A480,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40261,7 +40261,7 @@
         <v>488</v>
       </c>
       <c r="D481" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E481" s="3">
         <f>IFERROR(VLOOKUP(A481,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40283,7 +40283,7 @@
         <v>489</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E482" s="3">
         <f>IFERROR(VLOOKUP(A482,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40305,7 +40305,7 @@
         <v>490</v>
       </c>
       <c r="D483" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E483" s="3">
         <f>IFERROR(VLOOKUP(A483,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40327,7 +40327,7 @@
         <v>491</v>
       </c>
       <c r="D484" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E484" s="3">
         <f>IFERROR(VLOOKUP(A484,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40343,13 +40343,13 @@
         <v>2527</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D485" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E485" s="3">
         <f>IFERROR(VLOOKUP(A485,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40371,7 +40371,7 @@
         <v>492</v>
       </c>
       <c r="D486" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E486" s="3">
         <f>IFERROR(VLOOKUP(A486,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40393,7 +40393,7 @@
         <v>493</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E487" s="3">
         <f>IFERROR(VLOOKUP(A487,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40415,7 +40415,7 @@
         <v>494</v>
       </c>
       <c r="D488" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E488" s="3">
         <f>IFERROR(VLOOKUP(A488,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40437,7 +40437,7 @@
         <v>495</v>
       </c>
       <c r="D489" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E489" s="3">
         <f>IFERROR(VLOOKUP(A489,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40459,7 +40459,7 @@
         <v>496</v>
       </c>
       <c r="D490" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E490" s="3">
         <f>IFERROR(VLOOKUP(A490,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40478,10 +40478,10 @@
         <v>1008</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D491" s="5" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E491" s="3">
         <f>IFERROR(VLOOKUP(A491,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40503,7 +40503,7 @@
         <v>2</v>
       </c>
       <c r="D492" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E492" s="3">
         <f>IFERROR(VLOOKUP(A492,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40525,7 +40525,7 @@
         <v>36</v>
       </c>
       <c r="D493" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E493" s="3">
         <f>IFERROR(VLOOKUP(A493,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40547,7 +40547,7 @@
         <v>37</v>
       </c>
       <c r="D494" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E494" s="3">
         <f>IFERROR(VLOOKUP(A494,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40569,7 +40569,7 @@
         <v>38</v>
       </c>
       <c r="D495" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E495" s="3">
         <f>IFERROR(VLOOKUP(A495,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40591,7 +40591,7 @@
         <v>50</v>
       </c>
       <c r="D496" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E496" s="3">
         <f>IFERROR(VLOOKUP(A496,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40613,7 +40613,7 @@
         <v>145</v>
       </c>
       <c r="D497" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E497" s="3">
         <f>IFERROR(VLOOKUP(A497,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40635,7 +40635,7 @@
         <v>146</v>
       </c>
       <c r="D498" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E498" s="3">
         <f>IFERROR(VLOOKUP(A498,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40657,7 +40657,7 @@
         <v>147</v>
       </c>
       <c r="D499" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E499" s="3">
         <f>IFERROR(VLOOKUP(A499,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40679,7 +40679,7 @@
         <v>148</v>
       </c>
       <c r="D500" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E500" s="3">
         <f>IFERROR(VLOOKUP(A500,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40701,7 +40701,7 @@
         <v>149</v>
       </c>
       <c r="D501" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E501" s="3">
         <f>IFERROR(VLOOKUP(A501,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40723,7 +40723,7 @@
         <v>175</v>
       </c>
       <c r="D502" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E502" s="3">
         <f>IFERROR(VLOOKUP(A502,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40745,7 +40745,7 @@
         <v>194</v>
       </c>
       <c r="D503" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E503" s="3">
         <f>IFERROR(VLOOKUP(A503,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40767,7 +40767,7 @@
         <v>195</v>
       </c>
       <c r="D504" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E504" s="3">
         <f>IFERROR(VLOOKUP(A504,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40789,7 +40789,7 @@
         <v>196</v>
       </c>
       <c r="D505" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E505" s="3">
         <f>IFERROR(VLOOKUP(A505,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40811,7 +40811,7 @@
         <v>197</v>
       </c>
       <c r="D506" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E506" s="3">
         <f>IFERROR(VLOOKUP(A506,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40833,7 +40833,7 @@
         <v>198</v>
       </c>
       <c r="D507" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E507" s="3">
         <f>IFERROR(VLOOKUP(A507,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40855,7 +40855,7 @@
         <v>201</v>
       </c>
       <c r="D508" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E508" s="3">
         <f>IFERROR(VLOOKUP(A508,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40877,7 +40877,7 @@
         <v>336</v>
       </c>
       <c r="D509" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E509" s="3">
         <f>IFERROR(VLOOKUP(A509,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40899,7 +40899,7 @@
         <v>337</v>
       </c>
       <c r="D510" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E510" s="3">
         <f>IFERROR(VLOOKUP(A510,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40921,7 +40921,7 @@
         <v>351</v>
       </c>
       <c r="D511" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E511" s="3">
         <f>IFERROR(VLOOKUP(A511,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40943,7 +40943,7 @@
         <v>352</v>
       </c>
       <c r="D512" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E512" s="3">
         <f>IFERROR(VLOOKUP(A512,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40965,7 +40965,7 @@
         <v>356</v>
       </c>
       <c r="D513" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E513" s="3">
         <f>IFERROR(VLOOKUP(A513,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -40987,7 +40987,7 @@
         <v>364</v>
       </c>
       <c r="D514" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E514" s="3">
         <f>IFERROR(VLOOKUP(A514,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41009,7 +41009,7 @@
         <v>365</v>
       </c>
       <c r="D515" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E515" s="3">
         <f>IFERROR(VLOOKUP(A515,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41031,7 +41031,7 @@
         <v>366</v>
       </c>
       <c r="D516" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E516" s="3">
         <f>IFERROR(VLOOKUP(A516,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41053,7 +41053,7 @@
         <v>379</v>
       </c>
       <c r="D517" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E517" s="3">
         <f>IFERROR(VLOOKUP(A517,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41075,7 +41075,7 @@
         <v>418</v>
       </c>
       <c r="D518" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E518" s="3">
         <f>IFERROR(VLOOKUP(A518,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41097,7 +41097,7 @@
         <v>419</v>
       </c>
       <c r="D519" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E519" s="3">
         <f>IFERROR(VLOOKUP(A519,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41119,7 +41119,7 @@
         <v>420</v>
       </c>
       <c r="D520" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E520" s="3">
         <f>IFERROR(VLOOKUP(A520,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41141,7 +41141,7 @@
         <v>424</v>
       </c>
       <c r="D521" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E521" s="3">
         <f>IFERROR(VLOOKUP(A521,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41163,7 +41163,7 @@
         <v>425</v>
       </c>
       <c r="D522" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E522" s="3">
         <f>IFERROR(VLOOKUP(A522,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41185,7 +41185,7 @@
         <v>426</v>
       </c>
       <c r="D523" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E523" s="3">
         <f>IFERROR(VLOOKUP(A523,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41207,7 +41207,7 @@
         <v>427</v>
       </c>
       <c r="D524" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E524" s="3">
         <f>IFERROR(VLOOKUP(A524,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41229,7 +41229,7 @@
         <v>449</v>
       </c>
       <c r="D525" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E525" s="3">
         <f>IFERROR(VLOOKUP(A525,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41251,7 +41251,7 @@
         <v>450</v>
       </c>
       <c r="D526" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E526" s="3">
         <f>IFERROR(VLOOKUP(A526,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
@@ -41273,7 +41273,7 @@
         <v>451</v>
       </c>
       <c r="D527" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E527" s="3">
         <f>IFERROR(VLOOKUP(A527,'[1]vendas gerarl'!$A$1:$C$65536,3,0),0)</f>
